--- a/Desarrollo/SMZR/Gestión/SMZR_CA.xlsx
+++ b/Desarrollo/SMZR/Gestión/SMZR_CA.xlsx
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ32" sqref="A2:AS32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1614,7 +1614,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>31</v>
@@ -1677,7 +1677,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>32</v>
@@ -1740,7 +1740,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>19</v>
@@ -5772,6 +5772,6 @@
     <mergeCell ref="A32:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Desarrollo/SMZR/Gestión/SMZR_CA.xlsx
+++ b/Desarrollo/SMZR/Gestión/SMZR_CA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubi/UNMSM/2020 - I/Gestión de la configuración y mantenimiento/Proyecto/RebroteSolution/Desarrollo/SMZR/Gestión/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MORALES\Desktop\RebroteSolution\Desarrollo\SMZR\Gestión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BFDA33-03C3-3446-A867-6EA28092E938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ED0CA2-5C30-49C8-85DA-E991886D8284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="30420" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
   <si>
     <t>N°</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>Desarrollo del Backend y Servicios</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,13 +541,13 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -762,38 +765,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS1008"/>
+  <dimension ref="A1:AS1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="39.625" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" customWidth="1"/>
+    <col min="9" max="9" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="5.125" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="18" width="4.83203125" customWidth="1"/>
-    <col min="19" max="20" width="5.33203125" customWidth="1"/>
+    <col min="12" max="18" width="4.875" customWidth="1"/>
+    <col min="19" max="20" width="5.375" customWidth="1"/>
     <col min="21" max="25" width="5" customWidth="1"/>
-    <col min="26" max="27" width="5.33203125" customWidth="1"/>
-    <col min="28" max="29" width="5.1640625" customWidth="1"/>
+    <col min="26" max="27" width="5.375" customWidth="1"/>
+    <col min="28" max="29" width="5.125" customWidth="1"/>
     <col min="30" max="31" width="4.5" customWidth="1"/>
-    <col min="32" max="36" width="4.33203125" customWidth="1"/>
-    <col min="37" max="40" width="5.1640625" customWidth="1"/>
-    <col min="41" max="43" width="5.83203125" customWidth="1"/>
-    <col min="44" max="49" width="9.33203125" customWidth="1"/>
+    <col min="32" max="36" width="4.375" customWidth="1"/>
+    <col min="37" max="40" width="5.125" customWidth="1"/>
+    <col min="41" max="43" width="5.875" customWidth="1"/>
+    <col min="44" max="49" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:45" ht="78" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -930,7 +933,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:45" ht="29.25" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -993,7 +996,7 @@
       <c r="AR2" s="17"/>
       <c r="AS2" s="17"/>
     </row>
-    <row r="3" spans="1:45" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:45" ht="29.25" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1056,7 +1059,7 @@
       <c r="AR3" s="17"/>
       <c r="AS3" s="17"/>
     </row>
-    <row r="4" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:45" ht="30" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1119,7 +1122,7 @@
       <c r="AR4" s="17"/>
       <c r="AS4" s="17"/>
     </row>
-    <row r="5" spans="1:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:45" ht="34.5" customHeight="1">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -1182,7 +1185,7 @@
       <c r="AR5" s="17"/>
       <c r="AS5" s="17"/>
     </row>
-    <row r="6" spans="1:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:45" ht="34.5" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1245,7 +1248,7 @@
       <c r="AR6" s="17"/>
       <c r="AS6" s="17"/>
     </row>
-    <row r="7" spans="1:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:45" ht="34.5" customHeight="1">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -1308,7 +1311,7 @@
       <c r="AR7" s="17"/>
       <c r="AS7" s="17"/>
     </row>
-    <row r="8" spans="1:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:45" ht="34.5" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1371,7 +1374,7 @@
       <c r="AR8" s="17"/>
       <c r="AS8" s="17"/>
     </row>
-    <row r="9" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:45" ht="33" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1434,7 +1437,7 @@
       <c r="AR9" s="17"/>
       <c r="AS9" s="17"/>
     </row>
-    <row r="10" spans="1:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:45" ht="34.5" customHeight="1">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -1497,7 +1500,7 @@
       <c r="AR10" s="17"/>
       <c r="AS10" s="17"/>
     </row>
-    <row r="11" spans="1:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:45" ht="34.5" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1530,9 +1533,9 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
       <c r="V11" s="17"/>
@@ -1560,11 +1563,11 @@
       <c r="AR11" s="17"/>
       <c r="AS11" s="17"/>
     </row>
-    <row r="12" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A12" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="22">
         <v>38</v>
       </c>
@@ -1617,7 +1620,7 @@
       <c r="AR12" s="28"/>
       <c r="AS12" s="28"/>
     </row>
-    <row r="13" spans="1:45" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:45" ht="35.25" customHeight="1">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1680,7 +1683,7 @@
       <c r="AR13" s="17"/>
       <c r="AS13" s="17"/>
     </row>
-    <row r="14" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:45" ht="33" customHeight="1">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1743,7 +1746,7 @@
       <c r="AR14" s="17"/>
       <c r="AS14" s="17"/>
     </row>
-    <row r="15" spans="1:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:45" ht="34.5" customHeight="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="11">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>19</v>
@@ -1791,7 +1794,7 @@
       <c r="AC15" s="21"/>
       <c r="AD15" s="32"/>
       <c r="AE15" s="32"/>
-      <c r="AF15" s="17"/>
+      <c r="AF15" s="32"/>
       <c r="AG15" s="17"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="17"/>
@@ -1806,7 +1809,7 @@
       <c r="AR15" s="17"/>
       <c r="AS15" s="17"/>
     </row>
-    <row r="16" spans="1:45" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:45" ht="33.75" customHeight="1">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="11">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>35</v>
@@ -1869,7 +1872,7 @@
       <c r="AR16" s="17"/>
       <c r="AS16" s="17"/>
     </row>
-    <row r="17" spans="1:45" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:45" ht="33.75" customHeight="1">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -1883,13 +1886,13 @@
         <v>44035</v>
       </c>
       <c r="E17" s="9">
-        <v>44050</v>
+        <v>44057</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G17" s="11">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>35</v>
@@ -1916,8 +1919,8 @@
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
       <c r="AD17" s="21"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="17"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
       <c r="AG17" s="17"/>
       <c r="AH17" s="17"/>
       <c r="AI17" s="17"/>
@@ -1932,7 +1935,7 @@
       <c r="AR17" s="17"/>
       <c r="AS17" s="17"/>
     </row>
-    <row r="18" spans="1:45" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:45" ht="33.75" customHeight="1">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -1946,10 +1949,10 @@
         <v>44035</v>
       </c>
       <c r="E18" s="9">
-        <v>44051</v>
+        <v>44062</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G18" s="11">
         <v>0.1</v>
@@ -1979,10 +1982,10 @@
       <c r="AB18" s="21"/>
       <c r="AC18" s="21"/>
       <c r="AD18" s="21"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
       <c r="AI18" s="17"/>
       <c r="AJ18" s="18"/>
       <c r="AK18" s="17"/>
@@ -1995,7 +1998,7 @@
       <c r="AR18" s="17"/>
       <c r="AS18" s="17"/>
     </row>
-    <row r="19" spans="1:45" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:45" ht="33.75" customHeight="1">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>44035</v>
       </c>
       <c r="E19" s="9">
-        <v>44051</v>
+        <v>44057</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>21</v>
@@ -2042,8 +2045,8 @@
       <c r="AB19" s="32"/>
       <c r="AC19" s="21"/>
       <c r="AD19" s="21"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
       <c r="AG19" s="30"/>
       <c r="AH19" s="30"/>
       <c r="AI19" s="17"/>
@@ -2058,7 +2061,7 @@
       <c r="AR19" s="17"/>
       <c r="AS19" s="17"/>
     </row>
-    <row r="20" spans="1:45" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:45" ht="33.75" customHeight="1">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -2075,10 +2078,10 @@
         <v>44051</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G20" s="11">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>67</v>
@@ -2121,12 +2124,12 @@
       <c r="AR20" s="17"/>
       <c r="AS20" s="17"/>
     </row>
-    <row r="21" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:45" ht="33" customHeight="1">
       <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C21" s="8">
         <v>24</v>
@@ -2135,13 +2138,13 @@
         <v>44032</v>
       </c>
       <c r="E21" s="9">
-        <v>44055</v>
+        <v>44062</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G21" s="11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H21" s="36" t="s">
         <v>41</v>
@@ -2184,11 +2187,11 @@
       <c r="AR21" s="38"/>
       <c r="AS21" s="38"/>
     </row>
-    <row r="22" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="46" t="s">
+    <row r="22" spans="1:45" ht="24" customHeight="1">
+      <c r="A22" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="39">
         <v>26</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>44030</v>
       </c>
       <c r="E22" s="23">
-        <v>44055</v>
+        <v>44063</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="40">
@@ -2241,30 +2244,30 @@
       <c r="AR22" s="28"/>
       <c r="AS22" s="28"/>
     </row>
-    <row r="23" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" ht="33" customHeight="1">
       <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C23" s="8">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D23" s="9">
-        <v>44057</v>
+        <v>44063</v>
       </c>
       <c r="E23" s="9">
-        <v>44057</v>
+        <v>44065</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="35">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.1</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
@@ -2280,17 +2283,17 @@
       <c r="T23" s="37"/>
       <c r="U23" s="37"/>
       <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="17"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
       <c r="AH23" s="30"/>
       <c r="AI23" s="30"/>
       <c r="AJ23" s="33"/>
@@ -2298,30 +2301,30 @@
       <c r="AL23" s="30"/>
       <c r="AM23" s="30"/>
       <c r="AN23" s="17"/>
-      <c r="AO23" s="38"/>
+      <c r="AO23" s="17"/>
       <c r="AP23" s="38"/>
       <c r="AQ23" s="38"/>
       <c r="AR23" s="38"/>
       <c r="AS23" s="38"/>
     </row>
-    <row r="24" spans="1:45" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" ht="33" customHeight="1">
       <c r="A24" s="6">
         <v>21</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="9">
-        <v>44057</v>
+        <v>44063</v>
       </c>
       <c r="E24" s="9">
-        <v>44059</v>
+        <v>44065</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G24" s="35">
         <v>0</v>
@@ -2351,9 +2354,9 @@
       <c r="AB24" s="38"/>
       <c r="AC24" s="38"/>
       <c r="AD24" s="42"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="17"/>
       <c r="AH24" s="30"/>
       <c r="AI24" s="30"/>
       <c r="AJ24" s="33"/>
@@ -2367,21 +2370,21 @@
       <c r="AR24" s="38"/>
       <c r="AS24" s="38"/>
     </row>
-    <row r="25" spans="1:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" ht="39" customHeight="1">
       <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>46</v>
+      <c r="B25" s="34" t="s">
+        <v>45</v>
       </c>
       <c r="C25" s="8">
         <v>3</v>
       </c>
       <c r="D25" s="9">
-        <v>44057</v>
+        <v>44065</v>
       </c>
       <c r="E25" s="9">
-        <v>44059</v>
+        <v>44066</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>27</v>
@@ -2389,11 +2392,11 @@
       <c r="G25" s="35">
         <v>0</v>
       </c>
-      <c r="H25" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
+      <c r="H25" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
@@ -2417,10 +2420,10 @@
       <c r="AE25" s="38"/>
       <c r="AF25" s="32"/>
       <c r="AG25" s="32"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="18"/>
-      <c r="AK25" s="17"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="33"/>
+      <c r="AK25" s="30"/>
       <c r="AL25" s="30"/>
       <c r="AM25" s="30"/>
       <c r="AN25" s="17"/>
@@ -2430,150 +2433,150 @@
       <c r="AR25" s="38"/>
       <c r="AS25" s="38"/>
     </row>
-    <row r="26" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:45" ht="34.5" customHeight="1">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="8">
+        <v>3</v>
+      </c>
+      <c r="D26" s="9">
+        <v>44066</v>
+      </c>
+      <c r="E26" s="9">
+        <v>44066</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="35">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="30"/>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="38"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
+    </row>
+    <row r="27" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A27" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="39">
+      <c r="B27" s="48"/>
+      <c r="C27" s="39">
         <v>6</v>
       </c>
-      <c r="D26" s="23">
-        <v>44057</v>
-      </c>
-      <c r="E26" s="23">
-        <v>44062</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="40">
+      <c r="D27" s="23">
+        <v>44063</v>
+      </c>
+      <c r="E27" s="23">
+        <v>44066</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="40">
         <v>0</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
-      <c r="AP26" s="28"/>
-      <c r="AQ26" s="28"/>
-      <c r="AR26" s="28"/>
-      <c r="AS26" s="28"/>
-    </row>
-    <row r="27" spans="1:45" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
-        <v>23</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9">
-        <v>44062</v>
-      </c>
-      <c r="E27" s="9">
-        <v>44062</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="35">
-        <v>0</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="38"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="38"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="38"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
-      <c r="AQ27" s="17"/>
-      <c r="AR27" s="17"/>
-      <c r="AS27" s="17"/>
-    </row>
-    <row r="28" spans="1:45" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H27" s="41"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="28"/>
+      <c r="AO27" s="28"/>
+      <c r="AP27" s="28"/>
+      <c r="AQ27" s="28"/>
+      <c r="AR27" s="28"/>
+      <c r="AS27" s="28"/>
+    </row>
+    <row r="28" spans="1:45" ht="37.5" customHeight="1">
       <c r="A28" s="6">
         <v>24</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>51</v>
+      <c r="B28" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="C28" s="8">
         <v>1</v>
       </c>
       <c r="D28" s="9">
-        <v>44062</v>
+        <v>44066</v>
       </c>
       <c r="E28" s="9">
-        <v>44062</v>
+        <v>44067</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G28" s="35">
         <v>0</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
@@ -2609,34 +2612,34 @@
       <c r="AN28" s="30"/>
       <c r="AO28" s="30"/>
       <c r="AP28" s="30"/>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
+      <c r="AQ28" s="17"/>
+      <c r="AR28" s="17"/>
       <c r="AS28" s="17"/>
     </row>
-    <row r="29" spans="1:45" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:45" ht="39.75" customHeight="1">
       <c r="A29" s="6">
         <v>25</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
       </c>
       <c r="D29" s="9">
-        <v>44062</v>
+        <v>44066</v>
       </c>
       <c r="E29" s="9">
-        <v>44062</v>
+        <v>44066</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G29" s="35">
         <v>0</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I29" s="35"/>
       <c r="J29" s="35"/>
@@ -2669,37 +2672,37 @@
       <c r="AK29" s="38"/>
       <c r="AL29" s="17"/>
       <c r="AM29" s="17"/>
-      <c r="AN29" s="17"/>
-      <c r="AO29" s="17"/>
+      <c r="AN29" s="30"/>
+      <c r="AO29" s="30"/>
       <c r="AP29" s="30"/>
       <c r="AQ29" s="30"/>
       <c r="AR29" s="30"/>
       <c r="AS29" s="17"/>
     </row>
-    <row r="30" spans="1:45" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:45" ht="36" customHeight="1">
       <c r="A30" s="6">
         <v>26</v>
       </c>
-      <c r="B30" s="45" t="s">
-        <v>55</v>
+      <c r="B30" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="9">
-        <v>44062</v>
+        <v>44067</v>
       </c>
       <c r="E30" s="9">
-        <v>44063</v>
+        <v>44068</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G30" s="35">
         <v>0</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
@@ -2725,44 +2728,44 @@
       <c r="AD30" s="45"/>
       <c r="AE30" s="45"/>
       <c r="AF30" s="38"/>
-      <c r="AG30" s="38"/>
+      <c r="AG30" s="17"/>
       <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
+      <c r="AI30" s="38"/>
       <c r="AJ30" s="18"/>
       <c r="AK30" s="38"/>
       <c r="AL30" s="17"/>
       <c r="AM30" s="17"/>
       <c r="AN30" s="17"/>
       <c r="AO30" s="17"/>
-      <c r="AP30" s="17"/>
+      <c r="AP30" s="30"/>
       <c r="AQ30" s="30"/>
       <c r="AR30" s="30"/>
-      <c r="AS30" s="30"/>
-    </row>
-    <row r="31" spans="1:45" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AS30" s="17"/>
+    </row>
+    <row r="31" spans="1:45" ht="39.75" customHeight="1">
       <c r="A31" s="6">
         <v>27</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>57</v>
+      <c r="B31" s="45" t="s">
+        <v>55</v>
       </c>
       <c r="C31" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="9">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="E31" s="9">
         <v>44069</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G31" s="35">
         <v>0</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
@@ -2789,3010 +2792,3073 @@
       <c r="AE31" s="45"/>
       <c r="AF31" s="38"/>
       <c r="AG31" s="38"/>
-      <c r="AH31" s="38"/>
-      <c r="AI31" s="38"/>
-      <c r="AJ31" s="32"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="18"/>
       <c r="AK31" s="38"/>
       <c r="AL31" s="17"/>
       <c r="AM31" s="17"/>
       <c r="AN31" s="17"/>
       <c r="AO31" s="17"/>
       <c r="AP31" s="17"/>
-      <c r="AQ31" s="17"/>
-      <c r="AR31" s="17"/>
+      <c r="AQ31" s="30"/>
+      <c r="AR31" s="30"/>
       <c r="AS31" s="30"/>
     </row>
-    <row r="32" spans="1:45" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="46" t="s">
+    <row r="32" spans="1:45" ht="36.75" customHeight="1">
+      <c r="A32" s="6">
+        <v>28</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
+        <v>44069</v>
+      </c>
+      <c r="E32" s="9">
+        <v>44069</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="35">
+        <v>0</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="38"/>
+      <c r="AH32" s="38"/>
+      <c r="AI32" s="38"/>
+      <c r="AJ32" s="32"/>
+      <c r="AK32" s="38"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="17"/>
+      <c r="AP32" s="17"/>
+      <c r="AQ32" s="17"/>
+      <c r="AR32" s="17"/>
+      <c r="AS32" s="30"/>
+    </row>
+    <row r="33" spans="1:45" ht="27.75" customHeight="1">
+      <c r="A33" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="39">
+      <c r="B33" s="48"/>
+      <c r="C33" s="39">
         <v>12</v>
       </c>
-      <c r="D32" s="23">
-        <v>44058</v>
-      </c>
-      <c r="E32" s="23">
+      <c r="D33" s="23">
+        <v>44066</v>
+      </c>
+      <c r="E33" s="23">
         <v>44069</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="40">
+      <c r="F33" s="24"/>
+      <c r="G33" s="40">
         <v>0</v>
       </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
-      <c r="AK32" s="28"/>
-      <c r="AL32" s="28"/>
-      <c r="AM32" s="28"/>
-      <c r="AN32" s="28"/>
-      <c r="AO32" s="28"/>
-      <c r="AP32" s="28"/>
-      <c r="AQ32" s="28"/>
-      <c r="AR32" s="28"/>
-      <c r="AS32" s="28"/>
-    </row>
-    <row r="33" spans="1:1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="41"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="28"/>
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="28"/>
+      <c r="AN33" s="28"/>
+      <c r="AO33" s="28"/>
+      <c r="AP33" s="28"/>
+      <c r="AQ33" s="28"/>
+      <c r="AR33" s="28"/>
+      <c r="AS33" s="28"/>
+    </row>
+    <row r="34" spans="1:45" ht="41.25" customHeight="1">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" ht="14.25" customHeight="1">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" ht="14.25" customHeight="1">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" ht="14.25" customHeight="1">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" ht="14.25" customHeight="1">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" ht="14.25" customHeight="1">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" ht="14.25" customHeight="1">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" ht="14.25" customHeight="1">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" ht="14.25" customHeight="1">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" ht="14.25" customHeight="1">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" ht="14.25" customHeight="1">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" ht="14.25" customHeight="1">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" ht="14.25" customHeight="1">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" ht="14.25" customHeight="1">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" ht="14.25" customHeight="1">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="14.25" customHeight="1">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="14.25" customHeight="1">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="14.25" customHeight="1">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="14.25" customHeight="1">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="14.25" customHeight="1">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="14.25" customHeight="1">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="14.25" customHeight="1">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="14.25" customHeight="1">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="14.25" customHeight="1">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="14.25" customHeight="1">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="14.25" customHeight="1">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="14.25" customHeight="1">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="14.25" customHeight="1">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="14.25" customHeight="1">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="14.25" customHeight="1">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="14.25" customHeight="1">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="14.25" customHeight="1">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="14.25" customHeight="1">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="14.25" customHeight="1">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="14.25" customHeight="1">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="14.25" customHeight="1">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="14.25" customHeight="1">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="14.25" customHeight="1">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="14.25" customHeight="1">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="14.25" customHeight="1">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="14.25" customHeight="1">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="14.25" customHeight="1">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="14.25" customHeight="1">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="14.25" customHeight="1">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="14.25" customHeight="1">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="14.25" customHeight="1">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="14.25" customHeight="1">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="14.25" customHeight="1">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="14.25" customHeight="1">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="14.25" customHeight="1">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="14.25" customHeight="1">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" ht="14.25" customHeight="1">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="14.25" customHeight="1">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="14.25" customHeight="1">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="14.25" customHeight="1">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="14.25" customHeight="1">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="14.25" customHeight="1">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="14.25" customHeight="1">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="14.25" customHeight="1">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" ht="14.25" customHeight="1">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="14.25" customHeight="1">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="14.25" customHeight="1">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="14.25" customHeight="1">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" ht="14.25" customHeight="1">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="14.25" customHeight="1">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="14.25" customHeight="1">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="14.25" customHeight="1">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" ht="14.25" customHeight="1">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" ht="14.25" customHeight="1">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" ht="14.25" customHeight="1">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" ht="14.25" customHeight="1">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" ht="14.25" customHeight="1">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" ht="14.25" customHeight="1">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" ht="14.25" customHeight="1">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" ht="14.25" customHeight="1">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" ht="14.25" customHeight="1">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" ht="14.25" customHeight="1">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" ht="14.25" customHeight="1">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" ht="14.25" customHeight="1">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" ht="14.25" customHeight="1">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" ht="14.25" customHeight="1">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" ht="14.25" customHeight="1">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" ht="14.25" customHeight="1">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" ht="14.25" customHeight="1">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" ht="14.25" customHeight="1">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" ht="14.25" customHeight="1">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" ht="14.25" customHeight="1">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" ht="14.25" customHeight="1">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" ht="14.25" customHeight="1">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" ht="14.25" customHeight="1">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" ht="14.25" customHeight="1">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" ht="14.25" customHeight="1">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" ht="14.25" customHeight="1">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" ht="14.25" customHeight="1">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" ht="14.25" customHeight="1">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" ht="14.25" customHeight="1">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" ht="14.25" customHeight="1">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" ht="14.25" customHeight="1">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" ht="14.25" customHeight="1">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" ht="14.25" customHeight="1">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" ht="14.25" customHeight="1">
       <c r="A134" s="1"/>
     </row>
-    <row r="135" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" ht="14.25" customHeight="1">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" ht="14.25" customHeight="1">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" ht="14.25" customHeight="1">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" ht="14.25" customHeight="1">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" ht="14.25" customHeight="1">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" ht="14.25" customHeight="1">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" ht="14.25" customHeight="1">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" ht="14.25" customHeight="1">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" ht="14.25" customHeight="1">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" ht="14.25" customHeight="1">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" ht="14.25" customHeight="1">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" ht="14.25" customHeight="1">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" ht="14.25" customHeight="1">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" ht="14.25" customHeight="1">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" ht="14.25" customHeight="1">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" ht="14.25" customHeight="1">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" ht="14.25" customHeight="1">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" ht="14.25" customHeight="1">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" ht="14.25" customHeight="1">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" ht="14.25" customHeight="1">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" ht="14.25" customHeight="1">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" ht="14.25" customHeight="1">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" ht="14.25" customHeight="1">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" ht="14.25" customHeight="1">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" ht="14.25" customHeight="1">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" ht="14.25" customHeight="1">
       <c r="A160" s="1"/>
     </row>
-    <row r="161" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" ht="14.25" customHeight="1">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" ht="14.25" customHeight="1">
       <c r="A162" s="1"/>
     </row>
-    <row r="163" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" ht="14.25" customHeight="1">
       <c r="A163" s="1"/>
     </row>
-    <row r="164" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" ht="14.25" customHeight="1">
       <c r="A164" s="1"/>
     </row>
-    <row r="165" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" ht="14.25" customHeight="1">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" ht="14.25" customHeight="1">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" ht="14.25" customHeight="1">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" ht="14.25" customHeight="1">
       <c r="A168" s="1"/>
     </row>
-    <row r="169" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" ht="14.25" customHeight="1">
       <c r="A169" s="1"/>
     </row>
-    <row r="170" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" ht="14.25" customHeight="1">
       <c r="A170" s="1"/>
     </row>
-    <row r="171" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" ht="14.25" customHeight="1">
       <c r="A171" s="1"/>
     </row>
-    <row r="172" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" ht="14.25" customHeight="1">
       <c r="A172" s="1"/>
     </row>
-    <row r="173" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" ht="14.25" customHeight="1">
       <c r="A173" s="1"/>
     </row>
-    <row r="174" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" ht="14.25" customHeight="1">
       <c r="A174" s="1"/>
     </row>
-    <row r="175" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" ht="14.25" customHeight="1">
       <c r="A175" s="1"/>
     </row>
-    <row r="176" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" ht="14.25" customHeight="1">
       <c r="A176" s="1"/>
     </row>
-    <row r="177" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" ht="14.25" customHeight="1">
       <c r="A177" s="1"/>
     </row>
-    <row r="178" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" ht="14.25" customHeight="1">
       <c r="A178" s="1"/>
     </row>
-    <row r="179" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" ht="14.25" customHeight="1">
       <c r="A179" s="1"/>
     </row>
-    <row r="180" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" ht="14.25" customHeight="1">
       <c r="A180" s="1"/>
     </row>
-    <row r="181" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" ht="14.25" customHeight="1">
       <c r="A181" s="1"/>
     </row>
-    <row r="182" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" ht="14.25" customHeight="1">
       <c r="A182" s="1"/>
     </row>
-    <row r="183" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" ht="14.25" customHeight="1">
       <c r="A183" s="1"/>
     </row>
-    <row r="184" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" ht="14.25" customHeight="1">
       <c r="A184" s="1"/>
     </row>
-    <row r="185" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" ht="14.25" customHeight="1">
       <c r="A185" s="1"/>
     </row>
-    <row r="186" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" ht="14.25" customHeight="1">
       <c r="A186" s="1"/>
     </row>
-    <row r="187" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" ht="14.25" customHeight="1">
       <c r="A187" s="1"/>
     </row>
-    <row r="188" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" ht="14.25" customHeight="1">
       <c r="A188" s="1"/>
     </row>
-    <row r="189" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" ht="14.25" customHeight="1">
       <c r="A189" s="1"/>
     </row>
-    <row r="190" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" ht="14.25" customHeight="1">
       <c r="A190" s="1"/>
     </row>
-    <row r="191" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" ht="14.25" customHeight="1">
       <c r="A191" s="1"/>
     </row>
-    <row r="192" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" ht="14.25" customHeight="1">
       <c r="A192" s="1"/>
     </row>
-    <row r="193" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" ht="14.25" customHeight="1">
       <c r="A193" s="1"/>
     </row>
-    <row r="194" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" ht="14.25" customHeight="1">
       <c r="A194" s="1"/>
     </row>
-    <row r="195" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="14.25" customHeight="1">
       <c r="A195" s="1"/>
     </row>
-    <row r="196" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" ht="14.25" customHeight="1">
       <c r="A196" s="1"/>
     </row>
-    <row r="197" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" ht="14.25" customHeight="1">
       <c r="A197" s="1"/>
     </row>
-    <row r="198" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" ht="14.25" customHeight="1">
       <c r="A198" s="1"/>
     </row>
-    <row r="199" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" ht="14.25" customHeight="1">
       <c r="A199" s="1"/>
     </row>
-    <row r="200" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" ht="14.25" customHeight="1">
       <c r="A200" s="1"/>
     </row>
-    <row r="201" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" ht="14.25" customHeight="1">
       <c r="A201" s="1"/>
     </row>
-    <row r="202" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" ht="14.25" customHeight="1">
       <c r="A202" s="1"/>
     </row>
-    <row r="203" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" ht="14.25" customHeight="1">
       <c r="A203" s="1"/>
     </row>
-    <row r="204" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" ht="14.25" customHeight="1">
       <c r="A204" s="1"/>
     </row>
-    <row r="205" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" ht="14.25" customHeight="1">
       <c r="A205" s="1"/>
     </row>
-    <row r="206" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" ht="14.25" customHeight="1">
       <c r="A206" s="1"/>
     </row>
-    <row r="207" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" ht="14.25" customHeight="1">
       <c r="A207" s="1"/>
     </row>
-    <row r="208" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" ht="14.25" customHeight="1">
       <c r="A208" s="1"/>
     </row>
-    <row r="209" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" ht="14.25" customHeight="1">
       <c r="A209" s="1"/>
     </row>
-    <row r="210" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" ht="14.25" customHeight="1">
       <c r="A210" s="1"/>
     </row>
-    <row r="211" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" ht="14.25" customHeight="1">
       <c r="A211" s="1"/>
     </row>
-    <row r="212" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" ht="14.25" customHeight="1">
       <c r="A212" s="1"/>
     </row>
-    <row r="213" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" ht="14.25" customHeight="1">
       <c r="A213" s="1"/>
     </row>
-    <row r="214" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" ht="14.25" customHeight="1">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" ht="14.25" customHeight="1">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" ht="14.25" customHeight="1">
       <c r="A216" s="1"/>
     </row>
-    <row r="217" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" ht="14.25" customHeight="1">
       <c r="A217" s="1"/>
     </row>
-    <row r="218" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" ht="14.25" customHeight="1">
       <c r="A218" s="1"/>
     </row>
-    <row r="219" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" ht="14.25" customHeight="1">
       <c r="A219" s="1"/>
     </row>
-    <row r="220" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" ht="14.25" customHeight="1">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" ht="14.25" customHeight="1">
       <c r="A221" s="1"/>
     </row>
-    <row r="222" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" ht="14.25" customHeight="1">
       <c r="A222" s="1"/>
     </row>
-    <row r="223" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" ht="14.25" customHeight="1">
       <c r="A223" s="1"/>
     </row>
-    <row r="224" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" ht="14.25" customHeight="1">
       <c r="A224" s="1"/>
     </row>
-    <row r="225" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" ht="14.25" customHeight="1">
       <c r="A225" s="1"/>
     </row>
-    <row r="226" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" ht="14.25" customHeight="1">
       <c r="A226" s="1"/>
     </row>
-    <row r="227" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" ht="14.25" customHeight="1">
       <c r="A227" s="1"/>
     </row>
-    <row r="228" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" ht="14.25" customHeight="1">
       <c r="A228" s="1"/>
     </row>
-    <row r="229" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" ht="14.25" customHeight="1">
       <c r="A229" s="1"/>
     </row>
-    <row r="230" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" ht="14.25" customHeight="1">
       <c r="A230" s="1"/>
     </row>
-    <row r="231" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" ht="14.25" customHeight="1">
       <c r="A231" s="1"/>
     </row>
-    <row r="232" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" ht="14.25" customHeight="1">
       <c r="A232" s="1"/>
     </row>
-    <row r="233" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" ht="14.25" customHeight="1">
       <c r="A233" s="1"/>
     </row>
-    <row r="234" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" ht="14.25" customHeight="1">
       <c r="A234" s="1"/>
     </row>
-    <row r="235" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" ht="14.25" customHeight="1">
       <c r="A235" s="1"/>
     </row>
-    <row r="236" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" ht="14.25" customHeight="1">
       <c r="A236" s="1"/>
     </row>
-    <row r="237" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" ht="14.25" customHeight="1">
       <c r="A237" s="1"/>
     </row>
-    <row r="238" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" ht="14.25" customHeight="1">
       <c r="A238" s="1"/>
     </row>
-    <row r="239" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" ht="14.25" customHeight="1">
       <c r="A239" s="1"/>
     </row>
-    <row r="240" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" ht="14.25" customHeight="1">
       <c r="A240" s="1"/>
     </row>
-    <row r="241" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" ht="14.25" customHeight="1">
       <c r="A241" s="1"/>
     </row>
-    <row r="242" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" ht="14.25" customHeight="1">
       <c r="A242" s="1"/>
     </row>
-    <row r="243" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" ht="14.25" customHeight="1">
       <c r="A243" s="1"/>
     </row>
-    <row r="244" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" ht="14.25" customHeight="1">
       <c r="A244" s="1"/>
     </row>
-    <row r="245" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" ht="14.25" customHeight="1">
       <c r="A245" s="1"/>
     </row>
-    <row r="246" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" ht="14.25" customHeight="1">
       <c r="A246" s="1"/>
     </row>
-    <row r="247" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" ht="14.25" customHeight="1">
       <c r="A247" s="1"/>
     </row>
-    <row r="248" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" ht="14.25" customHeight="1">
       <c r="A248" s="1"/>
     </row>
-    <row r="249" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" ht="14.25" customHeight="1">
       <c r="A249" s="1"/>
     </row>
-    <row r="250" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" ht="14.25" customHeight="1">
       <c r="A250" s="1"/>
     </row>
-    <row r="251" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" ht="14.25" customHeight="1">
       <c r="A251" s="1"/>
     </row>
-    <row r="252" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" ht="14.25" customHeight="1">
       <c r="A252" s="1"/>
     </row>
-    <row r="253" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" ht="14.25" customHeight="1">
       <c r="A253" s="1"/>
     </row>
-    <row r="254" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" ht="14.25" customHeight="1">
       <c r="A254" s="1"/>
     </row>
-    <row r="255" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" ht="14.25" customHeight="1">
       <c r="A255" s="1"/>
     </row>
-    <row r="256" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" ht="14.25" customHeight="1">
       <c r="A256" s="1"/>
     </row>
-    <row r="257" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" ht="14.25" customHeight="1">
       <c r="A257" s="1"/>
     </row>
-    <row r="258" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" ht="14.25" customHeight="1">
       <c r="A258" s="1"/>
     </row>
-    <row r="259" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" ht="14.25" customHeight="1">
       <c r="A259" s="1"/>
     </row>
-    <row r="260" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" ht="14.25" customHeight="1">
       <c r="A260" s="1"/>
     </row>
-    <row r="261" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" ht="14.25" customHeight="1">
       <c r="A261" s="1"/>
     </row>
-    <row r="262" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" ht="14.25" customHeight="1">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" ht="14.25" customHeight="1">
       <c r="A263" s="1"/>
     </row>
-    <row r="264" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" ht="14.25" customHeight="1">
       <c r="A264" s="1"/>
     </row>
-    <row r="265" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" ht="14.25" customHeight="1">
       <c r="A265" s="1"/>
     </row>
-    <row r="266" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" ht="14.25" customHeight="1">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" ht="14.25" customHeight="1">
       <c r="A267" s="1"/>
     </row>
-    <row r="268" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" ht="14.25" customHeight="1">
       <c r="A268" s="1"/>
     </row>
-    <row r="269" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" ht="14.25" customHeight="1">
       <c r="A269" s="1"/>
     </row>
-    <row r="270" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" ht="14.25" customHeight="1">
       <c r="A270" s="1"/>
     </row>
-    <row r="271" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" ht="14.25" customHeight="1">
       <c r="A271" s="1"/>
     </row>
-    <row r="272" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" ht="14.25" customHeight="1">
       <c r="A272" s="1"/>
     </row>
-    <row r="273" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" ht="14.25" customHeight="1">
       <c r="A273" s="1"/>
     </row>
-    <row r="274" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" ht="14.25" customHeight="1">
       <c r="A274" s="1"/>
     </row>
-    <row r="275" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" ht="14.25" customHeight="1">
       <c r="A275" s="1"/>
     </row>
-    <row r="276" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" ht="14.25" customHeight="1">
       <c r="A276" s="1"/>
     </row>
-    <row r="277" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" ht="14.25" customHeight="1">
       <c r="A277" s="1"/>
     </row>
-    <row r="278" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" ht="14.25" customHeight="1">
       <c r="A278" s="1"/>
     </row>
-    <row r="279" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" ht="14.25" customHeight="1">
       <c r="A279" s="1"/>
     </row>
-    <row r="280" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" ht="14.25" customHeight="1">
       <c r="A280" s="1"/>
     </row>
-    <row r="281" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" ht="14.25" customHeight="1">
       <c r="A281" s="1"/>
     </row>
-    <row r="282" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" ht="14.25" customHeight="1">
       <c r="A282" s="1"/>
     </row>
-    <row r="283" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" ht="14.25" customHeight="1">
       <c r="A283" s="1"/>
     </row>
-    <row r="284" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" ht="14.25" customHeight="1">
       <c r="A284" s="1"/>
     </row>
-    <row r="285" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" ht="14.25" customHeight="1">
       <c r="A285" s="1"/>
     </row>
-    <row r="286" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" ht="14.25" customHeight="1">
       <c r="A286" s="1"/>
     </row>
-    <row r="287" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" ht="14.25" customHeight="1">
       <c r="A287" s="1"/>
     </row>
-    <row r="288" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" ht="14.25" customHeight="1">
       <c r="A288" s="1"/>
     </row>
-    <row r="289" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" ht="14.25" customHeight="1">
       <c r="A289" s="1"/>
     </row>
-    <row r="290" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" ht="14.25" customHeight="1">
       <c r="A290" s="1"/>
     </row>
-    <row r="291" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" ht="14.25" customHeight="1">
       <c r="A291" s="1"/>
     </row>
-    <row r="292" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" ht="14.25" customHeight="1">
       <c r="A292" s="1"/>
     </row>
-    <row r="293" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" ht="14.25" customHeight="1">
       <c r="A293" s="1"/>
     </row>
-    <row r="294" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" ht="14.25" customHeight="1">
       <c r="A294" s="1"/>
     </row>
-    <row r="295" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" ht="14.25" customHeight="1">
       <c r="A295" s="1"/>
     </row>
-    <row r="296" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" ht="14.25" customHeight="1">
       <c r="A296" s="1"/>
     </row>
-    <row r="297" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" ht="14.25" customHeight="1">
       <c r="A297" s="1"/>
     </row>
-    <row r="298" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" ht="14.25" customHeight="1">
       <c r="A298" s="1"/>
     </row>
-    <row r="299" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" ht="14.25" customHeight="1">
       <c r="A299" s="1"/>
     </row>
-    <row r="300" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" ht="14.25" customHeight="1">
       <c r="A300" s="1"/>
     </row>
-    <row r="301" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" ht="14.25" customHeight="1">
       <c r="A301" s="1"/>
     </row>
-    <row r="302" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" ht="14.25" customHeight="1">
       <c r="A302" s="1"/>
     </row>
-    <row r="303" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" ht="14.25" customHeight="1">
       <c r="A303" s="1"/>
     </row>
-    <row r="304" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" ht="14.25" customHeight="1">
       <c r="A304" s="1"/>
     </row>
-    <row r="305" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" ht="14.25" customHeight="1">
       <c r="A305" s="1"/>
     </row>
-    <row r="306" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" ht="14.25" customHeight="1">
       <c r="A306" s="1"/>
     </row>
-    <row r="307" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" ht="14.25" customHeight="1">
       <c r="A307" s="1"/>
     </row>
-    <row r="308" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" ht="14.25" customHeight="1">
       <c r="A308" s="1"/>
     </row>
-    <row r="309" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" ht="14.25" customHeight="1">
       <c r="A309" s="1"/>
     </row>
-    <row r="310" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" ht="14.25" customHeight="1">
       <c r="A310" s="1"/>
     </row>
-    <row r="311" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" ht="14.25" customHeight="1">
       <c r="A311" s="1"/>
     </row>
-    <row r="312" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" ht="14.25" customHeight="1">
       <c r="A312" s="1"/>
     </row>
-    <row r="313" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" ht="14.25" customHeight="1">
       <c r="A313" s="1"/>
     </row>
-    <row r="314" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" ht="14.25" customHeight="1">
       <c r="A314" s="1"/>
     </row>
-    <row r="315" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" ht="14.25" customHeight="1">
       <c r="A315" s="1"/>
     </row>
-    <row r="316" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" ht="14.25" customHeight="1">
       <c r="A316" s="1"/>
     </row>
-    <row r="317" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" ht="14.25" customHeight="1">
       <c r="A317" s="1"/>
     </row>
-    <row r="318" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" ht="14.25" customHeight="1">
       <c r="A318" s="1"/>
     </row>
-    <row r="319" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" ht="14.25" customHeight="1">
       <c r="A319" s="1"/>
     </row>
-    <row r="320" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" ht="14.25" customHeight="1">
       <c r="A320" s="1"/>
     </row>
-    <row r="321" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" ht="14.25" customHeight="1">
       <c r="A321" s="1"/>
     </row>
-    <row r="322" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" ht="14.25" customHeight="1">
       <c r="A322" s="1"/>
     </row>
-    <row r="323" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" ht="14.25" customHeight="1">
       <c r="A323" s="1"/>
     </row>
-    <row r="324" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" ht="14.25" customHeight="1">
       <c r="A324" s="1"/>
     </row>
-    <row r="325" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" ht="14.25" customHeight="1">
       <c r="A325" s="1"/>
     </row>
-    <row r="326" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" ht="14.25" customHeight="1">
       <c r="A326" s="1"/>
     </row>
-    <row r="327" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" ht="14.25" customHeight="1">
       <c r="A327" s="1"/>
     </row>
-    <row r="328" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" ht="14.25" customHeight="1">
       <c r="A328" s="1"/>
     </row>
-    <row r="329" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" ht="14.25" customHeight="1">
       <c r="A329" s="1"/>
     </row>
-    <row r="330" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" ht="14.25" customHeight="1">
       <c r="A330" s="1"/>
     </row>
-    <row r="331" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" ht="14.25" customHeight="1">
       <c r="A331" s="1"/>
     </row>
-    <row r="332" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" ht="14.25" customHeight="1">
       <c r="A332" s="1"/>
     </row>
-    <row r="333" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" ht="14.25" customHeight="1">
       <c r="A333" s="1"/>
     </row>
-    <row r="334" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" ht="14.25" customHeight="1">
       <c r="A334" s="1"/>
     </row>
-    <row r="335" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" ht="14.25" customHeight="1">
       <c r="A335" s="1"/>
     </row>
-    <row r="336" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" ht="14.25" customHeight="1">
       <c r="A336" s="1"/>
     </row>
-    <row r="337" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" ht="14.25" customHeight="1">
       <c r="A337" s="1"/>
     </row>
-    <row r="338" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" ht="14.25" customHeight="1">
       <c r="A338" s="1"/>
     </row>
-    <row r="339" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" ht="14.25" customHeight="1">
       <c r="A339" s="1"/>
     </row>
-    <row r="340" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" ht="14.25" customHeight="1">
       <c r="A340" s="1"/>
     </row>
-    <row r="341" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" ht="14.25" customHeight="1">
       <c r="A341" s="1"/>
     </row>
-    <row r="342" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" ht="14.25" customHeight="1">
       <c r="A342" s="1"/>
     </row>
-    <row r="343" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" ht="14.25" customHeight="1">
       <c r="A343" s="1"/>
     </row>
-    <row r="344" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" ht="14.25" customHeight="1">
       <c r="A344" s="1"/>
     </row>
-    <row r="345" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" ht="14.25" customHeight="1">
       <c r="A345" s="1"/>
     </row>
-    <row r="346" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" ht="14.25" customHeight="1">
       <c r="A346" s="1"/>
     </row>
-    <row r="347" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" ht="14.25" customHeight="1">
       <c r="A347" s="1"/>
     </row>
-    <row r="348" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" ht="14.25" customHeight="1">
       <c r="A348" s="1"/>
     </row>
-    <row r="349" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" ht="14.25" customHeight="1">
       <c r="A349" s="1"/>
     </row>
-    <row r="350" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" ht="14.25" customHeight="1">
       <c r="A350" s="1"/>
     </row>
-    <row r="351" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" ht="14.25" customHeight="1">
       <c r="A351" s="1"/>
     </row>
-    <row r="352" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" ht="14.25" customHeight="1">
       <c r="A352" s="1"/>
     </row>
-    <row r="353" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" ht="14.25" customHeight="1">
       <c r="A353" s="1"/>
     </row>
-    <row r="354" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" ht="14.25" customHeight="1">
       <c r="A354" s="1"/>
     </row>
-    <row r="355" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" ht="14.25" customHeight="1">
       <c r="A355" s="1"/>
     </row>
-    <row r="356" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" ht="14.25" customHeight="1">
       <c r="A356" s="1"/>
     </row>
-    <row r="357" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" ht="14.25" customHeight="1">
       <c r="A357" s="1"/>
     </row>
-    <row r="358" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" ht="14.25" customHeight="1">
       <c r="A358" s="1"/>
     </row>
-    <row r="359" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" ht="14.25" customHeight="1">
       <c r="A359" s="1"/>
     </row>
-    <row r="360" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" ht="14.25" customHeight="1">
       <c r="A360" s="1"/>
     </row>
-    <row r="361" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" ht="14.25" customHeight="1">
       <c r="A361" s="1"/>
     </row>
-    <row r="362" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" ht="14.25" customHeight="1">
       <c r="A362" s="1"/>
     </row>
-    <row r="363" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" ht="14.25" customHeight="1">
       <c r="A363" s="1"/>
     </row>
-    <row r="364" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" ht="14.25" customHeight="1">
       <c r="A364" s="1"/>
     </row>
-    <row r="365" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" ht="14.25" customHeight="1">
       <c r="A365" s="1"/>
     </row>
-    <row r="366" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" ht="14.25" customHeight="1">
       <c r="A366" s="1"/>
     </row>
-    <row r="367" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" ht="14.25" customHeight="1">
       <c r="A367" s="1"/>
     </row>
-    <row r="368" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" ht="14.25" customHeight="1">
       <c r="A368" s="1"/>
     </row>
-    <row r="369" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" ht="14.25" customHeight="1">
       <c r="A369" s="1"/>
     </row>
-    <row r="370" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" ht="14.25" customHeight="1">
       <c r="A370" s="1"/>
     </row>
-    <row r="371" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" ht="14.25" customHeight="1">
       <c r="A371" s="1"/>
     </row>
-    <row r="372" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" ht="14.25" customHeight="1">
       <c r="A372" s="1"/>
     </row>
-    <row r="373" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" ht="14.25" customHeight="1">
       <c r="A373" s="1"/>
     </row>
-    <row r="374" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" ht="14.25" customHeight="1">
       <c r="A374" s="1"/>
     </row>
-    <row r="375" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" ht="14.25" customHeight="1">
       <c r="A375" s="1"/>
     </row>
-    <row r="376" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" ht="14.25" customHeight="1">
       <c r="A376" s="1"/>
     </row>
-    <row r="377" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" ht="14.25" customHeight="1">
       <c r="A377" s="1"/>
     </row>
-    <row r="378" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" ht="14.25" customHeight="1">
       <c r="A378" s="1"/>
     </row>
-    <row r="379" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" ht="14.25" customHeight="1">
       <c r="A379" s="1"/>
     </row>
-    <row r="380" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" ht="14.25" customHeight="1">
       <c r="A380" s="1"/>
     </row>
-    <row r="381" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" ht="14.25" customHeight="1">
       <c r="A381" s="1"/>
     </row>
-    <row r="382" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" ht="14.25" customHeight="1">
       <c r="A382" s="1"/>
     </row>
-    <row r="383" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" ht="14.25" customHeight="1">
       <c r="A383" s="1"/>
     </row>
-    <row r="384" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" ht="14.25" customHeight="1">
       <c r="A384" s="1"/>
     </row>
-    <row r="385" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" ht="14.25" customHeight="1">
       <c r="A385" s="1"/>
     </row>
-    <row r="386" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" ht="14.25" customHeight="1">
       <c r="A386" s="1"/>
     </row>
-    <row r="387" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" ht="14.25" customHeight="1">
       <c r="A387" s="1"/>
     </row>
-    <row r="388" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" ht="14.25" customHeight="1">
       <c r="A388" s="1"/>
     </row>
-    <row r="389" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" ht="14.25" customHeight="1">
       <c r="A389" s="1"/>
     </row>
-    <row r="390" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" ht="14.25" customHeight="1">
       <c r="A390" s="1"/>
     </row>
-    <row r="391" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" ht="14.25" customHeight="1">
       <c r="A391" s="1"/>
     </row>
-    <row r="392" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" ht="14.25" customHeight="1">
       <c r="A392" s="1"/>
     </row>
-    <row r="393" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" ht="14.25" customHeight="1">
       <c r="A393" s="1"/>
     </row>
-    <row r="394" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" ht="14.25" customHeight="1">
       <c r="A394" s="1"/>
     </row>
-    <row r="395" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" ht="14.25" customHeight="1">
       <c r="A395" s="1"/>
     </row>
-    <row r="396" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" ht="14.25" customHeight="1">
       <c r="A396" s="1"/>
     </row>
-    <row r="397" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" ht="14.25" customHeight="1">
       <c r="A397" s="1"/>
     </row>
-    <row r="398" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" ht="14.25" customHeight="1">
       <c r="A398" s="1"/>
     </row>
-    <row r="399" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" ht="14.25" customHeight="1">
       <c r="A399" s="1"/>
     </row>
-    <row r="400" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" ht="14.25" customHeight="1">
       <c r="A400" s="1"/>
     </row>
-    <row r="401" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" ht="14.25" customHeight="1">
       <c r="A401" s="1"/>
     </row>
-    <row r="402" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" ht="14.25" customHeight="1">
       <c r="A402" s="1"/>
     </row>
-    <row r="403" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" ht="14.25" customHeight="1">
       <c r="A403" s="1"/>
     </row>
-    <row r="404" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" ht="14.25" customHeight="1">
       <c r="A404" s="1"/>
     </row>
-    <row r="405" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" ht="14.25" customHeight="1">
       <c r="A405" s="1"/>
     </row>
-    <row r="406" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" ht="14.25" customHeight="1">
       <c r="A406" s="1"/>
     </row>
-    <row r="407" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" ht="14.25" customHeight="1">
       <c r="A407" s="1"/>
     </row>
-    <row r="408" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" ht="14.25" customHeight="1">
       <c r="A408" s="1"/>
     </row>
-    <row r="409" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" ht="14.25" customHeight="1">
       <c r="A409" s="1"/>
     </row>
-    <row r="410" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" ht="14.25" customHeight="1">
       <c r="A410" s="1"/>
     </row>
-    <row r="411" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" ht="14.25" customHeight="1">
       <c r="A411" s="1"/>
     </row>
-    <row r="412" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" ht="14.25" customHeight="1">
       <c r="A412" s="1"/>
     </row>
-    <row r="413" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" ht="14.25" customHeight="1">
       <c r="A413" s="1"/>
     </row>
-    <row r="414" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" ht="14.25" customHeight="1">
       <c r="A414" s="1"/>
     </row>
-    <row r="415" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" ht="14.25" customHeight="1">
       <c r="A415" s="1"/>
     </row>
-    <row r="416" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" ht="14.25" customHeight="1">
       <c r="A416" s="1"/>
     </row>
-    <row r="417" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" ht="14.25" customHeight="1">
       <c r="A417" s="1"/>
     </row>
-    <row r="418" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" ht="14.25" customHeight="1">
       <c r="A418" s="1"/>
     </row>
-    <row r="419" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" ht="14.25" customHeight="1">
       <c r="A419" s="1"/>
     </row>
-    <row r="420" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" ht="14.25" customHeight="1">
       <c r="A420" s="1"/>
     </row>
-    <row r="421" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" ht="14.25" customHeight="1">
       <c r="A421" s="1"/>
     </row>
-    <row r="422" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" ht="14.25" customHeight="1">
       <c r="A422" s="1"/>
     </row>
-    <row r="423" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" ht="14.25" customHeight="1">
       <c r="A423" s="1"/>
     </row>
-    <row r="424" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" ht="14.25" customHeight="1">
       <c r="A424" s="1"/>
     </row>
-    <row r="425" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" ht="14.25" customHeight="1">
       <c r="A425" s="1"/>
     </row>
-    <row r="426" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" ht="14.25" customHeight="1">
       <c r="A426" s="1"/>
     </row>
-    <row r="427" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" ht="14.25" customHeight="1">
       <c r="A427" s="1"/>
     </row>
-    <row r="428" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" ht="14.25" customHeight="1">
       <c r="A428" s="1"/>
     </row>
-    <row r="429" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" ht="14.25" customHeight="1">
       <c r="A429" s="1"/>
     </row>
-    <row r="430" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" ht="14.25" customHeight="1">
       <c r="A430" s="1"/>
     </row>
-    <row r="431" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" ht="14.25" customHeight="1">
       <c r="A431" s="1"/>
     </row>
-    <row r="432" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" ht="14.25" customHeight="1">
       <c r="A432" s="1"/>
     </row>
-    <row r="433" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" ht="14.25" customHeight="1">
       <c r="A433" s="1"/>
     </row>
-    <row r="434" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" ht="14.25" customHeight="1">
       <c r="A434" s="1"/>
     </row>
-    <row r="435" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" ht="14.25" customHeight="1">
       <c r="A435" s="1"/>
     </row>
-    <row r="436" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" ht="14.25" customHeight="1">
       <c r="A436" s="1"/>
     </row>
-    <row r="437" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" ht="14.25" customHeight="1">
       <c r="A437" s="1"/>
     </row>
-    <row r="438" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" ht="14.25" customHeight="1">
       <c r="A438" s="1"/>
     </row>
-    <row r="439" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" ht="14.25" customHeight="1">
       <c r="A439" s="1"/>
     </row>
-    <row r="440" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" ht="14.25" customHeight="1">
       <c r="A440" s="1"/>
     </row>
-    <row r="441" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" ht="14.25" customHeight="1">
       <c r="A441" s="1"/>
     </row>
-    <row r="442" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" ht="14.25" customHeight="1">
       <c r="A442" s="1"/>
     </row>
-    <row r="443" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" ht="14.25" customHeight="1">
       <c r="A443" s="1"/>
     </row>
-    <row r="444" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" ht="14.25" customHeight="1">
       <c r="A444" s="1"/>
     </row>
-    <row r="445" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" ht="14.25" customHeight="1">
       <c r="A445" s="1"/>
     </row>
-    <row r="446" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" ht="14.25" customHeight="1">
       <c r="A446" s="1"/>
     </row>
-    <row r="447" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" ht="14.25" customHeight="1">
       <c r="A447" s="1"/>
     </row>
-    <row r="448" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" ht="14.25" customHeight="1">
       <c r="A448" s="1"/>
     </row>
-    <row r="449" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" ht="14.25" customHeight="1">
       <c r="A449" s="1"/>
     </row>
-    <row r="450" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" ht="14.25" customHeight="1">
       <c r="A450" s="1"/>
     </row>
-    <row r="451" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" ht="14.25" customHeight="1">
       <c r="A451" s="1"/>
     </row>
-    <row r="452" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" ht="14.25" customHeight="1">
       <c r="A452" s="1"/>
     </row>
-    <row r="453" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" ht="14.25" customHeight="1">
       <c r="A453" s="1"/>
     </row>
-    <row r="454" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" ht="14.25" customHeight="1">
       <c r="A454" s="1"/>
     </row>
-    <row r="455" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" ht="14.25" customHeight="1">
       <c r="A455" s="1"/>
     </row>
-    <row r="456" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" ht="14.25" customHeight="1">
       <c r="A456" s="1"/>
     </row>
-    <row r="457" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" ht="14.25" customHeight="1">
       <c r="A457" s="1"/>
     </row>
-    <row r="458" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" ht="14.25" customHeight="1">
       <c r="A458" s="1"/>
     </row>
-    <row r="459" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" ht="14.25" customHeight="1">
       <c r="A459" s="1"/>
     </row>
-    <row r="460" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" ht="14.25" customHeight="1">
       <c r="A460" s="1"/>
     </row>
-    <row r="461" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" ht="14.25" customHeight="1">
       <c r="A461" s="1"/>
     </row>
-    <row r="462" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" ht="14.25" customHeight="1">
       <c r="A462" s="1"/>
     </row>
-    <row r="463" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" ht="14.25" customHeight="1">
       <c r="A463" s="1"/>
     </row>
-    <row r="464" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" ht="14.25" customHeight="1">
       <c r="A464" s="1"/>
     </row>
-    <row r="465" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" ht="14.25" customHeight="1">
       <c r="A465" s="1"/>
     </row>
-    <row r="466" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" ht="14.25" customHeight="1">
       <c r="A466" s="1"/>
     </row>
-    <row r="467" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" ht="14.25" customHeight="1">
       <c r="A467" s="1"/>
     </row>
-    <row r="468" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" ht="14.25" customHeight="1">
       <c r="A468" s="1"/>
     </row>
-    <row r="469" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" ht="14.25" customHeight="1">
       <c r="A469" s="1"/>
     </row>
-    <row r="470" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" ht="14.25" customHeight="1">
       <c r="A470" s="1"/>
     </row>
-    <row r="471" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" ht="14.25" customHeight="1">
       <c r="A471" s="1"/>
     </row>
-    <row r="472" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" ht="14.25" customHeight="1">
       <c r="A472" s="1"/>
     </row>
-    <row r="473" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" ht="14.25" customHeight="1">
       <c r="A473" s="1"/>
     </row>
-    <row r="474" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" ht="14.25" customHeight="1">
       <c r="A474" s="1"/>
     </row>
-    <row r="475" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" ht="14.25" customHeight="1">
       <c r="A475" s="1"/>
     </row>
-    <row r="476" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" ht="14.25" customHeight="1">
       <c r="A476" s="1"/>
     </row>
-    <row r="477" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" ht="14.25" customHeight="1">
       <c r="A477" s="1"/>
     </row>
-    <row r="478" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" ht="14.25" customHeight="1">
       <c r="A478" s="1"/>
     </row>
-    <row r="479" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" ht="14.25" customHeight="1">
       <c r="A479" s="1"/>
     </row>
-    <row r="480" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" ht="14.25" customHeight="1">
       <c r="A480" s="1"/>
     </row>
-    <row r="481" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" ht="14.25" customHeight="1">
       <c r="A481" s="1"/>
     </row>
-    <row r="482" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" ht="14.25" customHeight="1">
       <c r="A482" s="1"/>
     </row>
-    <row r="483" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1" ht="14.25" customHeight="1">
       <c r="A483" s="1"/>
     </row>
-    <row r="484" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" ht="14.25" customHeight="1">
       <c r="A484" s="1"/>
     </row>
-    <row r="485" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" ht="14.25" customHeight="1">
       <c r="A485" s="1"/>
     </row>
-    <row r="486" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1" ht="14.25" customHeight="1">
       <c r="A486" s="1"/>
     </row>
-    <row r="487" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" ht="14.25" customHeight="1">
       <c r="A487" s="1"/>
     </row>
-    <row r="488" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" ht="14.25" customHeight="1">
       <c r="A488" s="1"/>
     </row>
-    <row r="489" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1" ht="14.25" customHeight="1">
       <c r="A489" s="1"/>
     </row>
-    <row r="490" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" ht="14.25" customHeight="1">
       <c r="A490" s="1"/>
     </row>
-    <row r="491" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" ht="14.25" customHeight="1">
       <c r="A491" s="1"/>
     </row>
-    <row r="492" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1" ht="14.25" customHeight="1">
       <c r="A492" s="1"/>
     </row>
-    <row r="493" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1" ht="14.25" customHeight="1">
       <c r="A493" s="1"/>
     </row>
-    <row r="494" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" ht="14.25" customHeight="1">
       <c r="A494" s="1"/>
     </row>
-    <row r="495" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1" ht="14.25" customHeight="1">
       <c r="A495" s="1"/>
     </row>
-    <row r="496" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" ht="14.25" customHeight="1">
       <c r="A496" s="1"/>
     </row>
-    <row r="497" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" ht="14.25" customHeight="1">
       <c r="A497" s="1"/>
     </row>
-    <row r="498" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1" ht="14.25" customHeight="1">
       <c r="A498" s="1"/>
     </row>
-    <row r="499" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" ht="14.25" customHeight="1">
       <c r="A499" s="1"/>
     </row>
-    <row r="500" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" ht="14.25" customHeight="1">
       <c r="A500" s="1"/>
     </row>
-    <row r="501" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1" ht="14.25" customHeight="1">
       <c r="A501" s="1"/>
     </row>
-    <row r="502" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" ht="14.25" customHeight="1">
       <c r="A502" s="1"/>
     </row>
-    <row r="503" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" ht="14.25" customHeight="1">
       <c r="A503" s="1"/>
     </row>
-    <row r="504" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1" ht="14.25" customHeight="1">
       <c r="A504" s="1"/>
     </row>
-    <row r="505" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" ht="14.25" customHeight="1">
       <c r="A505" s="1"/>
     </row>
-    <row r="506" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" ht="14.25" customHeight="1">
       <c r="A506" s="1"/>
     </row>
-    <row r="507" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1" ht="14.25" customHeight="1">
       <c r="A507" s="1"/>
     </row>
-    <row r="508" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" ht="14.25" customHeight="1">
       <c r="A508" s="1"/>
     </row>
-    <row r="509" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" ht="14.25" customHeight="1">
       <c r="A509" s="1"/>
     </row>
-    <row r="510" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1" ht="14.25" customHeight="1">
       <c r="A510" s="1"/>
     </row>
-    <row r="511" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" ht="14.25" customHeight="1">
       <c r="A511" s="1"/>
     </row>
-    <row r="512" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" ht="14.25" customHeight="1">
       <c r="A512" s="1"/>
     </row>
-    <row r="513" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" ht="14.25" customHeight="1">
       <c r="A513" s="1"/>
     </row>
-    <row r="514" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" ht="14.25" customHeight="1">
       <c r="A514" s="1"/>
     </row>
-    <row r="515" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" ht="14.25" customHeight="1">
       <c r="A515" s="1"/>
     </row>
-    <row r="516" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" ht="14.25" customHeight="1">
       <c r="A516" s="1"/>
     </row>
-    <row r="517" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" ht="14.25" customHeight="1">
       <c r="A517" s="1"/>
     </row>
-    <row r="518" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" ht="14.25" customHeight="1">
       <c r="A518" s="1"/>
     </row>
-    <row r="519" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" ht="14.25" customHeight="1">
       <c r="A519" s="1"/>
     </row>
-    <row r="520" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" ht="14.25" customHeight="1">
       <c r="A520" s="1"/>
     </row>
-    <row r="521" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" ht="14.25" customHeight="1">
       <c r="A521" s="1"/>
     </row>
-    <row r="522" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" ht="14.25" customHeight="1">
       <c r="A522" s="1"/>
     </row>
-    <row r="523" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" ht="14.25" customHeight="1">
       <c r="A523" s="1"/>
     </row>
-    <row r="524" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" ht="14.25" customHeight="1">
       <c r="A524" s="1"/>
     </row>
-    <row r="525" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" ht="14.25" customHeight="1">
       <c r="A525" s="1"/>
     </row>
-    <row r="526" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" ht="14.25" customHeight="1">
       <c r="A526" s="1"/>
     </row>
-    <row r="527" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" ht="14.25" customHeight="1">
       <c r="A527" s="1"/>
     </row>
-    <row r="528" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" ht="14.25" customHeight="1">
       <c r="A528" s="1"/>
     </row>
-    <row r="529" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" ht="14.25" customHeight="1">
       <c r="A529" s="1"/>
     </row>
-    <row r="530" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" ht="14.25" customHeight="1">
       <c r="A530" s="1"/>
     </row>
-    <row r="531" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" ht="14.25" customHeight="1">
       <c r="A531" s="1"/>
     </row>
-    <row r="532" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" ht="14.25" customHeight="1">
       <c r="A532" s="1"/>
     </row>
-    <row r="533" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" ht="14.25" customHeight="1">
       <c r="A533" s="1"/>
     </row>
-    <row r="534" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" ht="14.25" customHeight="1">
       <c r="A534" s="1"/>
     </row>
-    <row r="535" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" ht="14.25" customHeight="1">
       <c r="A535" s="1"/>
     </row>
-    <row r="536" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" ht="14.25" customHeight="1">
       <c r="A536" s="1"/>
     </row>
-    <row r="537" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" ht="14.25" customHeight="1">
       <c r="A537" s="1"/>
     </row>
-    <row r="538" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" ht="14.25" customHeight="1">
       <c r="A538" s="1"/>
     </row>
-    <row r="539" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" ht="14.25" customHeight="1">
       <c r="A539" s="1"/>
     </row>
-    <row r="540" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1" ht="14.25" customHeight="1">
       <c r="A540" s="1"/>
     </row>
-    <row r="541" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1" ht="14.25" customHeight="1">
       <c r="A541" s="1"/>
     </row>
-    <row r="542" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1" ht="14.25" customHeight="1">
       <c r="A542" s="1"/>
     </row>
-    <row r="543" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1" ht="14.25" customHeight="1">
       <c r="A543" s="1"/>
     </row>
-    <row r="544" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1" ht="14.25" customHeight="1">
       <c r="A544" s="1"/>
     </row>
-    <row r="545" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" ht="14.25" customHeight="1">
       <c r="A545" s="1"/>
     </row>
-    <row r="546" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1" ht="14.25" customHeight="1">
       <c r="A546" s="1"/>
     </row>
-    <row r="547" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" ht="14.25" customHeight="1">
       <c r="A547" s="1"/>
     </row>
-    <row r="548" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" ht="14.25" customHeight="1">
       <c r="A548" s="1"/>
     </row>
-    <row r="549" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1" ht="14.25" customHeight="1">
       <c r="A549" s="1"/>
     </row>
-    <row r="550" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" ht="14.25" customHeight="1">
       <c r="A550" s="1"/>
     </row>
-    <row r="551" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" ht="14.25" customHeight="1">
       <c r="A551" s="1"/>
     </row>
-    <row r="552" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1" ht="14.25" customHeight="1">
       <c r="A552" s="1"/>
     </row>
-    <row r="553" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1" ht="14.25" customHeight="1">
       <c r="A553" s="1"/>
     </row>
-    <row r="554" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1" ht="14.25" customHeight="1">
       <c r="A554" s="1"/>
     </row>
-    <row r="555" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1" ht="14.25" customHeight="1">
       <c r="A555" s="1"/>
     </row>
-    <row r="556" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1" ht="14.25" customHeight="1">
       <c r="A556" s="1"/>
     </row>
-    <row r="557" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1" ht="14.25" customHeight="1">
       <c r="A557" s="1"/>
     </row>
-    <row r="558" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:1" ht="14.25" customHeight="1">
       <c r="A558" s="1"/>
     </row>
-    <row r="559" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1" ht="14.25" customHeight="1">
       <c r="A559" s="1"/>
     </row>
-    <row r="560" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1" ht="14.25" customHeight="1">
       <c r="A560" s="1"/>
     </row>
-    <row r="561" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:1" ht="14.25" customHeight="1">
       <c r="A561" s="1"/>
     </row>
-    <row r="562" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1" ht="14.25" customHeight="1">
       <c r="A562" s="1"/>
     </row>
-    <row r="563" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1" ht="14.25" customHeight="1">
       <c r="A563" s="1"/>
     </row>
-    <row r="564" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:1" ht="14.25" customHeight="1">
       <c r="A564" s="1"/>
     </row>
-    <row r="565" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1" ht="14.25" customHeight="1">
       <c r="A565" s="1"/>
     </row>
-    <row r="566" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1" ht="14.25" customHeight="1">
       <c r="A566" s="1"/>
     </row>
-    <row r="567" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:1" ht="14.25" customHeight="1">
       <c r="A567" s="1"/>
     </row>
-    <row r="568" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:1" ht="14.25" customHeight="1">
       <c r="A568" s="1"/>
     </row>
-    <row r="569" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:1" ht="14.25" customHeight="1">
       <c r="A569" s="1"/>
     </row>
-    <row r="570" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:1" ht="14.25" customHeight="1">
       <c r="A570" s="1"/>
     </row>
-    <row r="571" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:1" ht="14.25" customHeight="1">
       <c r="A571" s="1"/>
     </row>
-    <row r="572" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:1" ht="14.25" customHeight="1">
       <c r="A572" s="1"/>
     </row>
-    <row r="573" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:1" ht="14.25" customHeight="1">
       <c r="A573" s="1"/>
     </row>
-    <row r="574" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:1" ht="14.25" customHeight="1">
       <c r="A574" s="1"/>
     </row>
-    <row r="575" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:1" ht="14.25" customHeight="1">
       <c r="A575" s="1"/>
     </row>
-    <row r="576" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:1" ht="14.25" customHeight="1">
       <c r="A576" s="1"/>
     </row>
-    <row r="577" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:1" ht="14.25" customHeight="1">
       <c r="A577" s="1"/>
     </row>
-    <row r="578" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" ht="14.25" customHeight="1">
       <c r="A578" s="1"/>
     </row>
-    <row r="579" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:1" ht="14.25" customHeight="1">
       <c r="A579" s="1"/>
     </row>
-    <row r="580" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:1" ht="14.25" customHeight="1">
       <c r="A580" s="1"/>
     </row>
-    <row r="581" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:1" ht="14.25" customHeight="1">
       <c r="A581" s="1"/>
     </row>
-    <row r="582" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:1" ht="14.25" customHeight="1">
       <c r="A582" s="1"/>
     </row>
-    <row r="583" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:1" ht="14.25" customHeight="1">
       <c r="A583" s="1"/>
     </row>
-    <row r="584" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:1" ht="14.25" customHeight="1">
       <c r="A584" s="1"/>
     </row>
-    <row r="585" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:1" ht="14.25" customHeight="1">
       <c r="A585" s="1"/>
     </row>
-    <row r="586" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:1" ht="14.25" customHeight="1">
       <c r="A586" s="1"/>
     </row>
-    <row r="587" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:1" ht="14.25" customHeight="1">
       <c r="A587" s="1"/>
     </row>
-    <row r="588" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:1" ht="14.25" customHeight="1">
       <c r="A588" s="1"/>
     </row>
-    <row r="589" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:1" ht="14.25" customHeight="1">
       <c r="A589" s="1"/>
     </row>
-    <row r="590" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:1" ht="14.25" customHeight="1">
       <c r="A590" s="1"/>
     </row>
-    <row r="591" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:1" ht="14.25" customHeight="1">
       <c r="A591" s="1"/>
     </row>
-    <row r="592" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:1" ht="14.25" customHeight="1">
       <c r="A592" s="1"/>
     </row>
-    <row r="593" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:1" ht="14.25" customHeight="1">
       <c r="A593" s="1"/>
     </row>
-    <row r="594" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:1" ht="14.25" customHeight="1">
       <c r="A594" s="1"/>
     </row>
-    <row r="595" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:1" ht="14.25" customHeight="1">
       <c r="A595" s="1"/>
     </row>
-    <row r="596" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:1" ht="14.25" customHeight="1">
       <c r="A596" s="1"/>
     </row>
-    <row r="597" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:1" ht="14.25" customHeight="1">
       <c r="A597" s="1"/>
     </row>
-    <row r="598" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:1" ht="14.25" customHeight="1">
       <c r="A598" s="1"/>
     </row>
-    <row r="599" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:1" ht="14.25" customHeight="1">
       <c r="A599" s="1"/>
     </row>
-    <row r="600" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:1" ht="14.25" customHeight="1">
       <c r="A600" s="1"/>
     </row>
-    <row r="601" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:1" ht="14.25" customHeight="1">
       <c r="A601" s="1"/>
     </row>
-    <row r="602" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:1" ht="14.25" customHeight="1">
       <c r="A602" s="1"/>
     </row>
-    <row r="603" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:1" ht="14.25" customHeight="1">
       <c r="A603" s="1"/>
     </row>
-    <row r="604" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:1" ht="14.25" customHeight="1">
       <c r="A604" s="1"/>
     </row>
-    <row r="605" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:1" ht="14.25" customHeight="1">
       <c r="A605" s="1"/>
     </row>
-    <row r="606" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:1" ht="14.25" customHeight="1">
       <c r="A606" s="1"/>
     </row>
-    <row r="607" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:1" ht="14.25" customHeight="1">
       <c r="A607" s="1"/>
     </row>
-    <row r="608" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:1" ht="14.25" customHeight="1">
       <c r="A608" s="1"/>
     </row>
-    <row r="609" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:1" ht="14.25" customHeight="1">
       <c r="A609" s="1"/>
     </row>
-    <row r="610" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:1" ht="14.25" customHeight="1">
       <c r="A610" s="1"/>
     </row>
-    <row r="611" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:1" ht="14.25" customHeight="1">
       <c r="A611" s="1"/>
     </row>
-    <row r="612" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:1" ht="14.25" customHeight="1">
       <c r="A612" s="1"/>
     </row>
-    <row r="613" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:1" ht="14.25" customHeight="1">
       <c r="A613" s="1"/>
     </row>
-    <row r="614" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:1" ht="14.25" customHeight="1">
       <c r="A614" s="1"/>
     </row>
-    <row r="615" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:1" ht="14.25" customHeight="1">
       <c r="A615" s="1"/>
     </row>
-    <row r="616" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:1" ht="14.25" customHeight="1">
       <c r="A616" s="1"/>
     </row>
-    <row r="617" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:1" ht="14.25" customHeight="1">
       <c r="A617" s="1"/>
     </row>
-    <row r="618" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:1" ht="14.25" customHeight="1">
       <c r="A618" s="1"/>
     </row>
-    <row r="619" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:1" ht="14.25" customHeight="1">
       <c r="A619" s="1"/>
     </row>
-    <row r="620" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:1" ht="14.25" customHeight="1">
       <c r="A620" s="1"/>
     </row>
-    <row r="621" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:1" ht="14.25" customHeight="1">
       <c r="A621" s="1"/>
     </row>
-    <row r="622" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:1" ht="14.25" customHeight="1">
       <c r="A622" s="1"/>
     </row>
-    <row r="623" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:1" ht="14.25" customHeight="1">
       <c r="A623" s="1"/>
     </row>
-    <row r="624" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:1" ht="14.25" customHeight="1">
       <c r="A624" s="1"/>
     </row>
-    <row r="625" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:1" ht="14.25" customHeight="1">
       <c r="A625" s="1"/>
     </row>
-    <row r="626" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:1" ht="14.25" customHeight="1">
       <c r="A626" s="1"/>
     </row>
-    <row r="627" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:1" ht="14.25" customHeight="1">
       <c r="A627" s="1"/>
     </row>
-    <row r="628" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:1" ht="14.25" customHeight="1">
       <c r="A628" s="1"/>
     </row>
-    <row r="629" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:1" ht="14.25" customHeight="1">
       <c r="A629" s="1"/>
     </row>
-    <row r="630" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:1" ht="14.25" customHeight="1">
       <c r="A630" s="1"/>
     </row>
-    <row r="631" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:1" ht="14.25" customHeight="1">
       <c r="A631" s="1"/>
     </row>
-    <row r="632" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:1" ht="14.25" customHeight="1">
       <c r="A632" s="1"/>
     </row>
-    <row r="633" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:1" ht="14.25" customHeight="1">
       <c r="A633" s="1"/>
     </row>
-    <row r="634" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:1" ht="14.25" customHeight="1">
       <c r="A634" s="1"/>
     </row>
-    <row r="635" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:1" ht="14.25" customHeight="1">
       <c r="A635" s="1"/>
     </row>
-    <row r="636" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:1" ht="14.25" customHeight="1">
       <c r="A636" s="1"/>
     </row>
-    <row r="637" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:1" ht="14.25" customHeight="1">
       <c r="A637" s="1"/>
     </row>
-    <row r="638" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:1" ht="14.25" customHeight="1">
       <c r="A638" s="1"/>
     </row>
-    <row r="639" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:1" ht="14.25" customHeight="1">
       <c r="A639" s="1"/>
     </row>
-    <row r="640" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:1" ht="14.25" customHeight="1">
       <c r="A640" s="1"/>
     </row>
-    <row r="641" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:1" ht="14.25" customHeight="1">
       <c r="A641" s="1"/>
     </row>
-    <row r="642" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:1" ht="14.25" customHeight="1">
       <c r="A642" s="1"/>
     </row>
-    <row r="643" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:1" ht="14.25" customHeight="1">
       <c r="A643" s="1"/>
     </row>
-    <row r="644" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:1" ht="14.25" customHeight="1">
       <c r="A644" s="1"/>
     </row>
-    <row r="645" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:1" ht="14.25" customHeight="1">
       <c r="A645" s="1"/>
     </row>
-    <row r="646" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:1" ht="14.25" customHeight="1">
       <c r="A646" s="1"/>
     </row>
-    <row r="647" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:1" ht="14.25" customHeight="1">
       <c r="A647" s="1"/>
     </row>
-    <row r="648" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:1" ht="14.25" customHeight="1">
       <c r="A648" s="1"/>
     </row>
-    <row r="649" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:1" ht="14.25" customHeight="1">
       <c r="A649" s="1"/>
     </row>
-    <row r="650" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:1" ht="14.25" customHeight="1">
       <c r="A650" s="1"/>
     </row>
-    <row r="651" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:1" ht="14.25" customHeight="1">
       <c r="A651" s="1"/>
     </row>
-    <row r="652" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:1" ht="14.25" customHeight="1">
       <c r="A652" s="1"/>
     </row>
-    <row r="653" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:1" ht="14.25" customHeight="1">
       <c r="A653" s="1"/>
     </row>
-    <row r="654" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:1" ht="14.25" customHeight="1">
       <c r="A654" s="1"/>
     </row>
-    <row r="655" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:1" ht="14.25" customHeight="1">
       <c r="A655" s="1"/>
     </row>
-    <row r="656" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:1" ht="14.25" customHeight="1">
       <c r="A656" s="1"/>
     </row>
-    <row r="657" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:1" ht="14.25" customHeight="1">
       <c r="A657" s="1"/>
     </row>
-    <row r="658" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:1" ht="14.25" customHeight="1">
       <c r="A658" s="1"/>
     </row>
-    <row r="659" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:1" ht="14.25" customHeight="1">
       <c r="A659" s="1"/>
     </row>
-    <row r="660" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:1" ht="14.25" customHeight="1">
       <c r="A660" s="1"/>
     </row>
-    <row r="661" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:1" ht="14.25" customHeight="1">
       <c r="A661" s="1"/>
     </row>
-    <row r="662" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:1" ht="14.25" customHeight="1">
       <c r="A662" s="1"/>
     </row>
-    <row r="663" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:1" ht="14.25" customHeight="1">
       <c r="A663" s="1"/>
     </row>
-    <row r="664" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:1" ht="14.25" customHeight="1">
       <c r="A664" s="1"/>
     </row>
-    <row r="665" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:1" ht="14.25" customHeight="1">
       <c r="A665" s="1"/>
     </row>
-    <row r="666" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:1" ht="14.25" customHeight="1">
       <c r="A666" s="1"/>
     </row>
-    <row r="667" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:1" ht="14.25" customHeight="1">
       <c r="A667" s="1"/>
     </row>
-    <row r="668" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:1" ht="14.25" customHeight="1">
       <c r="A668" s="1"/>
     </row>
-    <row r="669" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:1" ht="14.25" customHeight="1">
       <c r="A669" s="1"/>
     </row>
-    <row r="670" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:1" ht="14.25" customHeight="1">
       <c r="A670" s="1"/>
     </row>
-    <row r="671" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:1" ht="14.25" customHeight="1">
       <c r="A671" s="1"/>
     </row>
-    <row r="672" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:1" ht="14.25" customHeight="1">
       <c r="A672" s="1"/>
     </row>
-    <row r="673" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:1" ht="14.25" customHeight="1">
       <c r="A673" s="1"/>
     </row>
-    <row r="674" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:1" ht="14.25" customHeight="1">
       <c r="A674" s="1"/>
     </row>
-    <row r="675" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:1" ht="14.25" customHeight="1">
       <c r="A675" s="1"/>
     </row>
-    <row r="676" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:1" ht="14.25" customHeight="1">
       <c r="A676" s="1"/>
     </row>
-    <row r="677" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:1" ht="14.25" customHeight="1">
       <c r="A677" s="1"/>
     </row>
-    <row r="678" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:1" ht="14.25" customHeight="1">
       <c r="A678" s="1"/>
     </row>
-    <row r="679" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:1" ht="14.25" customHeight="1">
       <c r="A679" s="1"/>
     </row>
-    <row r="680" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:1" ht="14.25" customHeight="1">
       <c r="A680" s="1"/>
     </row>
-    <row r="681" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:1" ht="14.25" customHeight="1">
       <c r="A681" s="1"/>
     </row>
-    <row r="682" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:1" ht="14.25" customHeight="1">
       <c r="A682" s="1"/>
     </row>
-    <row r="683" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:1" ht="14.25" customHeight="1">
       <c r="A683" s="1"/>
     </row>
-    <row r="684" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:1" ht="14.25" customHeight="1">
       <c r="A684" s="1"/>
     </row>
-    <row r="685" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:1" ht="14.25" customHeight="1">
       <c r="A685" s="1"/>
     </row>
-    <row r="686" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:1" ht="14.25" customHeight="1">
       <c r="A686" s="1"/>
     </row>
-    <row r="687" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:1" ht="14.25" customHeight="1">
       <c r="A687" s="1"/>
     </row>
-    <row r="688" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:1" ht="14.25" customHeight="1">
       <c r="A688" s="1"/>
     </row>
-    <row r="689" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:1" ht="14.25" customHeight="1">
       <c r="A689" s="1"/>
     </row>
-    <row r="690" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:1" ht="14.25" customHeight="1">
       <c r="A690" s="1"/>
     </row>
-    <row r="691" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:1" ht="14.25" customHeight="1">
       <c r="A691" s="1"/>
     </row>
-    <row r="692" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:1" ht="14.25" customHeight="1">
       <c r="A692" s="1"/>
     </row>
-    <row r="693" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:1" ht="14.25" customHeight="1">
       <c r="A693" s="1"/>
     </row>
-    <row r="694" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:1" ht="14.25" customHeight="1">
       <c r="A694" s="1"/>
     </row>
-    <row r="695" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:1" ht="14.25" customHeight="1">
       <c r="A695" s="1"/>
     </row>
-    <row r="696" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:1" ht="14.25" customHeight="1">
       <c r="A696" s="1"/>
     </row>
-    <row r="697" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:1" ht="14.25" customHeight="1">
       <c r="A697" s="1"/>
     </row>
-    <row r="698" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:1" ht="14.25" customHeight="1">
       <c r="A698" s="1"/>
     </row>
-    <row r="699" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:1" ht="14.25" customHeight="1">
       <c r="A699" s="1"/>
     </row>
-    <row r="700" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:1" ht="14.25" customHeight="1">
       <c r="A700" s="1"/>
     </row>
-    <row r="701" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:1" ht="14.25" customHeight="1">
       <c r="A701" s="1"/>
     </row>
-    <row r="702" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:1" ht="14.25" customHeight="1">
       <c r="A702" s="1"/>
     </row>
-    <row r="703" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:1" ht="14.25" customHeight="1">
       <c r="A703" s="1"/>
     </row>
-    <row r="704" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:1" ht="14.25" customHeight="1">
       <c r="A704" s="1"/>
     </row>
-    <row r="705" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:1" ht="14.25" customHeight="1">
       <c r="A705" s="1"/>
     </row>
-    <row r="706" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:1" ht="14.25" customHeight="1">
       <c r="A706" s="1"/>
     </row>
-    <row r="707" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:1" ht="14.25" customHeight="1">
       <c r="A707" s="1"/>
     </row>
-    <row r="708" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:1" ht="14.25" customHeight="1">
       <c r="A708" s="1"/>
     </row>
-    <row r="709" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:1" ht="14.25" customHeight="1">
       <c r="A709" s="1"/>
     </row>
-    <row r="710" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:1" ht="14.25" customHeight="1">
       <c r="A710" s="1"/>
     </row>
-    <row r="711" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:1" ht="14.25" customHeight="1">
       <c r="A711" s="1"/>
     </row>
-    <row r="712" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:1" ht="14.25" customHeight="1">
       <c r="A712" s="1"/>
     </row>
-    <row r="713" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:1" ht="14.25" customHeight="1">
       <c r="A713" s="1"/>
     </row>
-    <row r="714" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:1" ht="14.25" customHeight="1">
       <c r="A714" s="1"/>
     </row>
-    <row r="715" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:1" ht="14.25" customHeight="1">
       <c r="A715" s="1"/>
     </row>
-    <row r="716" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:1" ht="14.25" customHeight="1">
       <c r="A716" s="1"/>
     </row>
-    <row r="717" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:1" ht="14.25" customHeight="1">
       <c r="A717" s="1"/>
     </row>
-    <row r="718" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:1" ht="14.25" customHeight="1">
       <c r="A718" s="1"/>
     </row>
-    <row r="719" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:1" ht="14.25" customHeight="1">
       <c r="A719" s="1"/>
     </row>
-    <row r="720" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:1" ht="14.25" customHeight="1">
       <c r="A720" s="1"/>
     </row>
-    <row r="721" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:1" ht="14.25" customHeight="1">
       <c r="A721" s="1"/>
     </row>
-    <row r="722" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:1" ht="14.25" customHeight="1">
       <c r="A722" s="1"/>
     </row>
-    <row r="723" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:1" ht="14.25" customHeight="1">
       <c r="A723" s="1"/>
     </row>
-    <row r="724" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:1" ht="14.25" customHeight="1">
       <c r="A724" s="1"/>
     </row>
-    <row r="725" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:1" ht="14.25" customHeight="1">
       <c r="A725" s="1"/>
     </row>
-    <row r="726" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:1" ht="14.25" customHeight="1">
       <c r="A726" s="1"/>
     </row>
-    <row r="727" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:1" ht="14.25" customHeight="1">
       <c r="A727" s="1"/>
     </row>
-    <row r="728" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:1" ht="14.25" customHeight="1">
       <c r="A728" s="1"/>
     </row>
-    <row r="729" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:1" ht="14.25" customHeight="1">
       <c r="A729" s="1"/>
     </row>
-    <row r="730" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:1" ht="14.25" customHeight="1">
       <c r="A730" s="1"/>
     </row>
-    <row r="731" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:1" ht="14.25" customHeight="1">
       <c r="A731" s="1"/>
     </row>
-    <row r="732" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:1" ht="14.25" customHeight="1">
       <c r="A732" s="1"/>
     </row>
-    <row r="733" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:1" ht="14.25" customHeight="1">
       <c r="A733" s="1"/>
     </row>
-    <row r="734" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:1" ht="14.25" customHeight="1">
       <c r="A734" s="1"/>
     </row>
-    <row r="735" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:1" ht="14.25" customHeight="1">
       <c r="A735" s="1"/>
     </row>
-    <row r="736" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:1" ht="14.25" customHeight="1">
       <c r="A736" s="1"/>
     </row>
-    <row r="737" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:1" ht="14.25" customHeight="1">
       <c r="A737" s="1"/>
     </row>
-    <row r="738" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:1" ht="14.25" customHeight="1">
       <c r="A738" s="1"/>
     </row>
-    <row r="739" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:1" ht="14.25" customHeight="1">
       <c r="A739" s="1"/>
     </row>
-    <row r="740" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:1" ht="14.25" customHeight="1">
       <c r="A740" s="1"/>
     </row>
-    <row r="741" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:1" ht="14.25" customHeight="1">
       <c r="A741" s="1"/>
     </row>
-    <row r="742" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:1" ht="14.25" customHeight="1">
       <c r="A742" s="1"/>
     </row>
-    <row r="743" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:1" ht="14.25" customHeight="1">
       <c r="A743" s="1"/>
     </row>
-    <row r="744" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:1" ht="14.25" customHeight="1">
       <c r="A744" s="1"/>
     </row>
-    <row r="745" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:1" ht="14.25" customHeight="1">
       <c r="A745" s="1"/>
     </row>
-    <row r="746" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:1" ht="14.25" customHeight="1">
       <c r="A746" s="1"/>
     </row>
-    <row r="747" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:1" ht="14.25" customHeight="1">
       <c r="A747" s="1"/>
     </row>
-    <row r="748" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:1" ht="14.25" customHeight="1">
       <c r="A748" s="1"/>
     </row>
-    <row r="749" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:1" ht="14.25" customHeight="1">
       <c r="A749" s="1"/>
     </row>
-    <row r="750" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:1" ht="14.25" customHeight="1">
       <c r="A750" s="1"/>
     </row>
-    <row r="751" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:1" ht="14.25" customHeight="1">
       <c r="A751" s="1"/>
     </row>
-    <row r="752" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:1" ht="14.25" customHeight="1">
       <c r="A752" s="1"/>
     </row>
-    <row r="753" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:1" ht="14.25" customHeight="1">
       <c r="A753" s="1"/>
     </row>
-    <row r="754" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:1" ht="14.25" customHeight="1">
       <c r="A754" s="1"/>
     </row>
-    <row r="755" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:1" ht="14.25" customHeight="1">
       <c r="A755" s="1"/>
     </row>
-    <row r="756" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:1" ht="14.25" customHeight="1">
       <c r="A756" s="1"/>
     </row>
-    <row r="757" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:1" ht="14.25" customHeight="1">
       <c r="A757" s="1"/>
     </row>
-    <row r="758" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:1" ht="14.25" customHeight="1">
       <c r="A758" s="1"/>
     </row>
-    <row r="759" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:1" ht="14.25" customHeight="1">
       <c r="A759" s="1"/>
     </row>
-    <row r="760" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:1" ht="14.25" customHeight="1">
       <c r="A760" s="1"/>
     </row>
-    <row r="761" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:1" ht="14.25" customHeight="1">
       <c r="A761" s="1"/>
     </row>
-    <row r="762" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:1" ht="14.25" customHeight="1">
       <c r="A762" s="1"/>
     </row>
-    <row r="763" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:1" ht="14.25" customHeight="1">
       <c r="A763" s="1"/>
     </row>
-    <row r="764" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:1" ht="14.25" customHeight="1">
       <c r="A764" s="1"/>
     </row>
-    <row r="765" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:1" ht="14.25" customHeight="1">
       <c r="A765" s="1"/>
     </row>
-    <row r="766" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:1" ht="14.25" customHeight="1">
       <c r="A766" s="1"/>
     </row>
-    <row r="767" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:1" ht="14.25" customHeight="1">
       <c r="A767" s="1"/>
     </row>
-    <row r="768" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:1" ht="14.25" customHeight="1">
       <c r="A768" s="1"/>
     </row>
-    <row r="769" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:1" ht="14.25" customHeight="1">
       <c r="A769" s="1"/>
     </row>
-    <row r="770" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:1" ht="14.25" customHeight="1">
       <c r="A770" s="1"/>
     </row>
-    <row r="771" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:1" ht="14.25" customHeight="1">
       <c r="A771" s="1"/>
     </row>
-    <row r="772" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:1" ht="14.25" customHeight="1">
       <c r="A772" s="1"/>
     </row>
-    <row r="773" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:1" ht="14.25" customHeight="1">
       <c r="A773" s="1"/>
     </row>
-    <row r="774" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:1" ht="14.25" customHeight="1">
       <c r="A774" s="1"/>
     </row>
-    <row r="775" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:1" ht="14.25" customHeight="1">
       <c r="A775" s="1"/>
     </row>
-    <row r="776" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:1" ht="14.25" customHeight="1">
       <c r="A776" s="1"/>
     </row>
-    <row r="777" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:1" ht="14.25" customHeight="1">
       <c r="A777" s="1"/>
     </row>
-    <row r="778" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:1" ht="14.25" customHeight="1">
       <c r="A778" s="1"/>
     </row>
-    <row r="779" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:1" ht="14.25" customHeight="1">
       <c r="A779" s="1"/>
     </row>
-    <row r="780" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:1" ht="14.25" customHeight="1">
       <c r="A780" s="1"/>
     </row>
-    <row r="781" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:1" ht="14.25" customHeight="1">
       <c r="A781" s="1"/>
     </row>
-    <row r="782" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:1" ht="14.25" customHeight="1">
       <c r="A782" s="1"/>
     </row>
-    <row r="783" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:1" ht="14.25" customHeight="1">
       <c r="A783" s="1"/>
     </row>
-    <row r="784" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:1" ht="14.25" customHeight="1">
       <c r="A784" s="1"/>
     </row>
-    <row r="785" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:1" ht="14.25" customHeight="1">
       <c r="A785" s="1"/>
     </row>
-    <row r="786" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:1" ht="14.25" customHeight="1">
       <c r="A786" s="1"/>
     </row>
-    <row r="787" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:1" ht="14.25" customHeight="1">
       <c r="A787" s="1"/>
     </row>
-    <row r="788" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:1" ht="14.25" customHeight="1">
       <c r="A788" s="1"/>
     </row>
-    <row r="789" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:1" ht="14.25" customHeight="1">
       <c r="A789" s="1"/>
     </row>
-    <row r="790" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:1" ht="14.25" customHeight="1">
       <c r="A790" s="1"/>
     </row>
-    <row r="791" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:1" ht="14.25" customHeight="1">
       <c r="A791" s="1"/>
     </row>
-    <row r="792" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:1" ht="14.25" customHeight="1">
       <c r="A792" s="1"/>
     </row>
-    <row r="793" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:1" ht="14.25" customHeight="1">
       <c r="A793" s="1"/>
     </row>
-    <row r="794" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:1" ht="14.25" customHeight="1">
       <c r="A794" s="1"/>
     </row>
-    <row r="795" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:1" ht="14.25" customHeight="1">
       <c r="A795" s="1"/>
     </row>
-    <row r="796" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:1" ht="14.25" customHeight="1">
       <c r="A796" s="1"/>
     </row>
-    <row r="797" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:1" ht="14.25" customHeight="1">
       <c r="A797" s="1"/>
     </row>
-    <row r="798" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:1" ht="14.25" customHeight="1">
       <c r="A798" s="1"/>
     </row>
-    <row r="799" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:1" ht="14.25" customHeight="1">
       <c r="A799" s="1"/>
     </row>
-    <row r="800" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:1" ht="14.25" customHeight="1">
       <c r="A800" s="1"/>
     </row>
-    <row r="801" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:1" ht="14.25" customHeight="1">
       <c r="A801" s="1"/>
     </row>
-    <row r="802" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:1" ht="14.25" customHeight="1">
       <c r="A802" s="1"/>
     </row>
-    <row r="803" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:1" ht="14.25" customHeight="1">
       <c r="A803" s="1"/>
     </row>
-    <row r="804" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:1" ht="14.25" customHeight="1">
       <c r="A804" s="1"/>
     </row>
-    <row r="805" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:1" ht="14.25" customHeight="1">
       <c r="A805" s="1"/>
     </row>
-    <row r="806" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:1" ht="14.25" customHeight="1">
       <c r="A806" s="1"/>
     </row>
-    <row r="807" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:1" ht="14.25" customHeight="1">
       <c r="A807" s="1"/>
     </row>
-    <row r="808" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:1" ht="14.25" customHeight="1">
       <c r="A808" s="1"/>
     </row>
-    <row r="809" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:1" ht="14.25" customHeight="1">
       <c r="A809" s="1"/>
     </row>
-    <row r="810" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:1" ht="14.25" customHeight="1">
       <c r="A810" s="1"/>
     </row>
-    <row r="811" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:1" ht="14.25" customHeight="1">
       <c r="A811" s="1"/>
     </row>
-    <row r="812" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:1" ht="14.25" customHeight="1">
       <c r="A812" s="1"/>
     </row>
-    <row r="813" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:1" ht="14.25" customHeight="1">
       <c r="A813" s="1"/>
     </row>
-    <row r="814" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:1" ht="14.25" customHeight="1">
       <c r="A814" s="1"/>
     </row>
-    <row r="815" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:1" ht="14.25" customHeight="1">
       <c r="A815" s="1"/>
     </row>
-    <row r="816" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:1" ht="14.25" customHeight="1">
       <c r="A816" s="1"/>
     </row>
-    <row r="817" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:1" ht="14.25" customHeight="1">
       <c r="A817" s="1"/>
     </row>
-    <row r="818" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:1" ht="14.25" customHeight="1">
       <c r="A818" s="1"/>
     </row>
-    <row r="819" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:1" ht="14.25" customHeight="1">
       <c r="A819" s="1"/>
     </row>
-    <row r="820" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:1" ht="14.25" customHeight="1">
       <c r="A820" s="1"/>
     </row>
-    <row r="821" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:1" ht="14.25" customHeight="1">
       <c r="A821" s="1"/>
     </row>
-    <row r="822" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:1" ht="14.25" customHeight="1">
       <c r="A822" s="1"/>
     </row>
-    <row r="823" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:1" ht="14.25" customHeight="1">
       <c r="A823" s="1"/>
     </row>
-    <row r="824" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:1" ht="14.25" customHeight="1">
       <c r="A824" s="1"/>
     </row>
-    <row r="825" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:1" ht="14.25" customHeight="1">
       <c r="A825" s="1"/>
     </row>
-    <row r="826" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:1" ht="14.25" customHeight="1">
       <c r="A826" s="1"/>
     </row>
-    <row r="827" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:1" ht="14.25" customHeight="1">
       <c r="A827" s="1"/>
     </row>
-    <row r="828" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:1" ht="14.25" customHeight="1">
       <c r="A828" s="1"/>
     </row>
-    <row r="829" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:1" ht="14.25" customHeight="1">
       <c r="A829" s="1"/>
     </row>
-    <row r="830" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:1" ht="14.25" customHeight="1">
       <c r="A830" s="1"/>
     </row>
-    <row r="831" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:1" ht="14.25" customHeight="1">
       <c r="A831" s="1"/>
     </row>
-    <row r="832" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:1" ht="14.25" customHeight="1">
       <c r="A832" s="1"/>
     </row>
-    <row r="833" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:1" ht="14.25" customHeight="1">
       <c r="A833" s="1"/>
     </row>
-    <row r="834" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:1" ht="14.25" customHeight="1">
       <c r="A834" s="1"/>
     </row>
-    <row r="835" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:1" ht="14.25" customHeight="1">
       <c r="A835" s="1"/>
     </row>
-    <row r="836" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:1" ht="14.25" customHeight="1">
       <c r="A836" s="1"/>
     </row>
-    <row r="837" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:1" ht="14.25" customHeight="1">
       <c r="A837" s="1"/>
     </row>
-    <row r="838" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:1" ht="14.25" customHeight="1">
       <c r="A838" s="1"/>
     </row>
-    <row r="839" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:1" ht="14.25" customHeight="1">
       <c r="A839" s="1"/>
     </row>
-    <row r="840" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:1" ht="14.25" customHeight="1">
       <c r="A840" s="1"/>
     </row>
-    <row r="841" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:1" ht="14.25" customHeight="1">
       <c r="A841" s="1"/>
     </row>
-    <row r="842" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:1" ht="14.25" customHeight="1">
       <c r="A842" s="1"/>
     </row>
-    <row r="843" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:1" ht="14.25" customHeight="1">
       <c r="A843" s="1"/>
     </row>
-    <row r="844" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:1" ht="14.25" customHeight="1">
       <c r="A844" s="1"/>
     </row>
-    <row r="845" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:1" ht="14.25" customHeight="1">
       <c r="A845" s="1"/>
     </row>
-    <row r="846" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:1" ht="14.25" customHeight="1">
       <c r="A846" s="1"/>
     </row>
-    <row r="847" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:1" ht="14.25" customHeight="1">
       <c r="A847" s="1"/>
     </row>
-    <row r="848" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:1" ht="14.25" customHeight="1">
       <c r="A848" s="1"/>
     </row>
-    <row r="849" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:1" ht="14.25" customHeight="1">
       <c r="A849" s="1"/>
     </row>
-    <row r="850" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:1" ht="14.25" customHeight="1">
       <c r="A850" s="1"/>
     </row>
-    <row r="851" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:1" ht="14.25" customHeight="1">
       <c r="A851" s="1"/>
     </row>
-    <row r="852" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:1" ht="14.25" customHeight="1">
       <c r="A852" s="1"/>
     </row>
-    <row r="853" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:1" ht="14.25" customHeight="1">
       <c r="A853" s="1"/>
     </row>
-    <row r="854" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:1" ht="14.25" customHeight="1">
       <c r="A854" s="1"/>
     </row>
-    <row r="855" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:1" ht="14.25" customHeight="1">
       <c r="A855" s="1"/>
     </row>
-    <row r="856" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:1" ht="14.25" customHeight="1">
       <c r="A856" s="1"/>
     </row>
-    <row r="857" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:1" ht="14.25" customHeight="1">
       <c r="A857" s="1"/>
     </row>
-    <row r="858" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:1" ht="14.25" customHeight="1">
       <c r="A858" s="1"/>
     </row>
-    <row r="859" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:1" ht="14.25" customHeight="1">
       <c r="A859" s="1"/>
     </row>
-    <row r="860" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:1" ht="14.25" customHeight="1">
       <c r="A860" s="1"/>
     </row>
-    <row r="861" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:1" ht="14.25" customHeight="1">
       <c r="A861" s="1"/>
     </row>
-    <row r="862" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:1" ht="14.25" customHeight="1">
       <c r="A862" s="1"/>
     </row>
-    <row r="863" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:1" ht="14.25" customHeight="1">
       <c r="A863" s="1"/>
     </row>
-    <row r="864" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:1" ht="14.25" customHeight="1">
       <c r="A864" s="1"/>
     </row>
-    <row r="865" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:1" ht="14.25" customHeight="1">
       <c r="A865" s="1"/>
     </row>
-    <row r="866" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:1" ht="14.25" customHeight="1">
       <c r="A866" s="1"/>
     </row>
-    <row r="867" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:1" ht="14.25" customHeight="1">
       <c r="A867" s="1"/>
     </row>
-    <row r="868" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:1" ht="14.25" customHeight="1">
       <c r="A868" s="1"/>
     </row>
-    <row r="869" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:1" ht="14.25" customHeight="1">
       <c r="A869" s="1"/>
     </row>
-    <row r="870" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:1" ht="14.25" customHeight="1">
       <c r="A870" s="1"/>
     </row>
-    <row r="871" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:1" ht="14.25" customHeight="1">
       <c r="A871" s="1"/>
     </row>
-    <row r="872" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:1" ht="14.25" customHeight="1">
       <c r="A872" s="1"/>
     </row>
-    <row r="873" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:1" ht="14.25" customHeight="1">
       <c r="A873" s="1"/>
     </row>
-    <row r="874" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:1" ht="14.25" customHeight="1">
       <c r="A874" s="1"/>
     </row>
-    <row r="875" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:1" ht="14.25" customHeight="1">
       <c r="A875" s="1"/>
     </row>
-    <row r="876" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:1" ht="14.25" customHeight="1">
       <c r="A876" s="1"/>
     </row>
-    <row r="877" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:1" ht="14.25" customHeight="1">
       <c r="A877" s="1"/>
     </row>
-    <row r="878" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:1" ht="14.25" customHeight="1">
       <c r="A878" s="1"/>
     </row>
-    <row r="879" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:1" ht="14.25" customHeight="1">
       <c r="A879" s="1"/>
     </row>
-    <row r="880" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:1" ht="14.25" customHeight="1">
       <c r="A880" s="1"/>
     </row>
-    <row r="881" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:1" ht="14.25" customHeight="1">
       <c r="A881" s="1"/>
     </row>
-    <row r="882" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:1" ht="14.25" customHeight="1">
       <c r="A882" s="1"/>
     </row>
-    <row r="883" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:1" ht="14.25" customHeight="1">
       <c r="A883" s="1"/>
     </row>
-    <row r="884" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:1" ht="14.25" customHeight="1">
       <c r="A884" s="1"/>
     </row>
-    <row r="885" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:1" ht="14.25" customHeight="1">
       <c r="A885" s="1"/>
     </row>
-    <row r="886" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:1" ht="14.25" customHeight="1">
       <c r="A886" s="1"/>
     </row>
-    <row r="887" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:1" ht="14.25" customHeight="1">
       <c r="A887" s="1"/>
     </row>
-    <row r="888" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:1" ht="14.25" customHeight="1">
       <c r="A888" s="1"/>
     </row>
-    <row r="889" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:1" ht="14.25" customHeight="1">
       <c r="A889" s="1"/>
     </row>
-    <row r="890" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:1" ht="14.25" customHeight="1">
       <c r="A890" s="1"/>
     </row>
-    <row r="891" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:1" ht="14.25" customHeight="1">
       <c r="A891" s="1"/>
     </row>
-    <row r="892" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:1" ht="14.25" customHeight="1">
       <c r="A892" s="1"/>
     </row>
-    <row r="893" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:1" ht="14.25" customHeight="1">
       <c r="A893" s="1"/>
     </row>
-    <row r="894" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:1" ht="14.25" customHeight="1">
       <c r="A894" s="1"/>
     </row>
-    <row r="895" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:1" ht="14.25" customHeight="1">
       <c r="A895" s="1"/>
     </row>
-    <row r="896" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:1" ht="14.25" customHeight="1">
       <c r="A896" s="1"/>
     </row>
-    <row r="897" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:1" ht="14.25" customHeight="1">
       <c r="A897" s="1"/>
     </row>
-    <row r="898" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:1" ht="14.25" customHeight="1">
       <c r="A898" s="1"/>
     </row>
-    <row r="899" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:1" ht="14.25" customHeight="1">
       <c r="A899" s="1"/>
     </row>
-    <row r="900" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:1" ht="14.25" customHeight="1">
       <c r="A900" s="1"/>
     </row>
-    <row r="901" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:1" ht="14.25" customHeight="1">
       <c r="A901" s="1"/>
     </row>
-    <row r="902" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:1" ht="14.25" customHeight="1">
       <c r="A902" s="1"/>
     </row>
-    <row r="903" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:1" ht="14.25" customHeight="1">
       <c r="A903" s="1"/>
     </row>
-    <row r="904" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:1" ht="14.25" customHeight="1">
       <c r="A904" s="1"/>
     </row>
-    <row r="905" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:1" ht="14.25" customHeight="1">
       <c r="A905" s="1"/>
     </row>
-    <row r="906" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:1" ht="14.25" customHeight="1">
       <c r="A906" s="1"/>
     </row>
-    <row r="907" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:1" ht="14.25" customHeight="1">
       <c r="A907" s="1"/>
     </row>
-    <row r="908" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:1" ht="14.25" customHeight="1">
       <c r="A908" s="1"/>
     </row>
-    <row r="909" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:1" ht="14.25" customHeight="1">
       <c r="A909" s="1"/>
     </row>
-    <row r="910" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:1" ht="14.25" customHeight="1">
       <c r="A910" s="1"/>
     </row>
-    <row r="911" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:1" ht="14.25" customHeight="1">
       <c r="A911" s="1"/>
     </row>
-    <row r="912" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:1" ht="14.25" customHeight="1">
       <c r="A912" s="1"/>
     </row>
-    <row r="913" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:1" ht="14.25" customHeight="1">
       <c r="A913" s="1"/>
     </row>
-    <row r="914" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:1" ht="14.25" customHeight="1">
       <c r="A914" s="1"/>
     </row>
-    <row r="915" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:1" ht="14.25" customHeight="1">
       <c r="A915" s="1"/>
     </row>
-    <row r="916" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:1" ht="14.25" customHeight="1">
       <c r="A916" s="1"/>
     </row>
-    <row r="917" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:1" ht="14.25" customHeight="1">
       <c r="A917" s="1"/>
     </row>
-    <row r="918" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:1" ht="14.25" customHeight="1">
       <c r="A918" s="1"/>
     </row>
-    <row r="919" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:1" ht="14.25" customHeight="1">
       <c r="A919" s="1"/>
     </row>
-    <row r="920" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:1" ht="14.25" customHeight="1">
       <c r="A920" s="1"/>
     </row>
-    <row r="921" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:1" ht="14.25" customHeight="1">
       <c r="A921" s="1"/>
     </row>
-    <row r="922" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:1" ht="14.25" customHeight="1">
       <c r="A922" s="1"/>
     </row>
-    <row r="923" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:1" ht="14.25" customHeight="1">
       <c r="A923" s="1"/>
     </row>
-    <row r="924" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:1" ht="14.25" customHeight="1">
       <c r="A924" s="1"/>
     </row>
-    <row r="925" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:1" ht="14.25" customHeight="1">
       <c r="A925" s="1"/>
     </row>
-    <row r="926" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:1" ht="14.25" customHeight="1">
       <c r="A926" s="1"/>
     </row>
-    <row r="927" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:1" ht="14.25" customHeight="1">
       <c r="A927" s="1"/>
     </row>
-    <row r="928" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:1" ht="14.25" customHeight="1">
       <c r="A928" s="1"/>
     </row>
-    <row r="929" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:1" ht="14.25" customHeight="1">
       <c r="A929" s="1"/>
     </row>
-    <row r="930" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:1" ht="14.25" customHeight="1">
       <c r="A930" s="1"/>
     </row>
-    <row r="931" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:1" ht="14.25" customHeight="1">
       <c r="A931" s="1"/>
     </row>
-    <row r="932" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:1" ht="14.25" customHeight="1">
       <c r="A932" s="1"/>
     </row>
-    <row r="933" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:1" ht="14.25" customHeight="1">
       <c r="A933" s="1"/>
     </row>
-    <row r="934" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:1" ht="14.25" customHeight="1">
       <c r="A934" s="1"/>
     </row>
-    <row r="935" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:1" ht="14.25" customHeight="1">
       <c r="A935" s="1"/>
     </row>
-    <row r="936" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:1" ht="14.25" customHeight="1">
       <c r="A936" s="1"/>
     </row>
-    <row r="937" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:1" ht="14.25" customHeight="1">
       <c r="A937" s="1"/>
     </row>
-    <row r="938" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:1" ht="14.25" customHeight="1">
       <c r="A938" s="1"/>
     </row>
-    <row r="939" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:1" ht="14.25" customHeight="1">
       <c r="A939" s="1"/>
     </row>
-    <row r="940" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:1" ht="14.25" customHeight="1">
       <c r="A940" s="1"/>
     </row>
-    <row r="941" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:1" ht="14.25" customHeight="1">
       <c r="A941" s="1"/>
     </row>
-    <row r="942" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:1" ht="14.25" customHeight="1">
       <c r="A942" s="1"/>
     </row>
-    <row r="943" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:1" ht="14.25" customHeight="1">
       <c r="A943" s="1"/>
     </row>
-    <row r="944" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:1" ht="14.25" customHeight="1">
       <c r="A944" s="1"/>
     </row>
-    <row r="945" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:1" ht="14.25" customHeight="1">
       <c r="A945" s="1"/>
     </row>
-    <row r="946" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:1" ht="14.25" customHeight="1">
       <c r="A946" s="1"/>
     </row>
-    <row r="947" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:1" ht="14.25" customHeight="1">
       <c r="A947" s="1"/>
     </row>
-    <row r="948" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:1" ht="14.25" customHeight="1">
       <c r="A948" s="1"/>
     </row>
-    <row r="949" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:1" ht="14.25" customHeight="1">
       <c r="A949" s="1"/>
     </row>
-    <row r="950" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:1" ht="14.25" customHeight="1">
       <c r="A950" s="1"/>
     </row>
-    <row r="951" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:1" ht="14.25" customHeight="1">
       <c r="A951" s="1"/>
     </row>
-    <row r="952" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:1" ht="14.25" customHeight="1">
       <c r="A952" s="1"/>
     </row>
-    <row r="953" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:1" ht="14.25" customHeight="1">
       <c r="A953" s="1"/>
     </row>
-    <row r="954" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:1" ht="14.25" customHeight="1">
       <c r="A954" s="1"/>
     </row>
-    <row r="955" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:1" ht="14.25" customHeight="1">
       <c r="A955" s="1"/>
     </row>
-    <row r="956" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:1" ht="14.25" customHeight="1">
       <c r="A956" s="1"/>
     </row>
-    <row r="957" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:1" ht="14.25" customHeight="1">
       <c r="A957" s="1"/>
     </row>
-    <row r="958" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:1" ht="14.25" customHeight="1">
       <c r="A958" s="1"/>
     </row>
-    <row r="959" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:1" ht="14.25" customHeight="1">
       <c r="A959" s="1"/>
     </row>
-    <row r="960" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:1" ht="14.25" customHeight="1">
       <c r="A960" s="1"/>
     </row>
-    <row r="961" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:1" ht="14.25" customHeight="1">
       <c r="A961" s="1"/>
     </row>
-    <row r="962" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:1" ht="14.25" customHeight="1">
       <c r="A962" s="1"/>
     </row>
-    <row r="963" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:1" ht="14.25" customHeight="1">
       <c r="A963" s="1"/>
     </row>
-    <row r="964" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:1" ht="14.25" customHeight="1">
       <c r="A964" s="1"/>
     </row>
-    <row r="965" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:1" ht="14.25" customHeight="1">
       <c r="A965" s="1"/>
     </row>
-    <row r="966" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:1" ht="14.25" customHeight="1">
       <c r="A966" s="1"/>
     </row>
-    <row r="967" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:1" ht="14.25" customHeight="1">
       <c r="A967" s="1"/>
     </row>
-    <row r="968" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:1" ht="14.25" customHeight="1">
       <c r="A968" s="1"/>
     </row>
-    <row r="969" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:1" ht="14.25" customHeight="1">
       <c r="A969" s="1"/>
     </row>
-    <row r="970" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:1" ht="14.25" customHeight="1">
       <c r="A970" s="1"/>
     </row>
-    <row r="971" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:1" ht="14.25" customHeight="1">
       <c r="A971" s="1"/>
     </row>
-    <row r="972" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:1" ht="14.25" customHeight="1">
       <c r="A972" s="1"/>
     </row>
-    <row r="973" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:1" ht="14.25" customHeight="1">
       <c r="A973" s="1"/>
     </row>
-    <row r="974" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:1" ht="14.25" customHeight="1">
       <c r="A974" s="1"/>
     </row>
-    <row r="975" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:1" ht="14.25" customHeight="1">
       <c r="A975" s="1"/>
     </row>
-    <row r="976" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:1" ht="14.25" customHeight="1">
       <c r="A976" s="1"/>
     </row>
-    <row r="977" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:1" ht="14.25" customHeight="1">
       <c r="A977" s="1"/>
     </row>
-    <row r="978" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:1" ht="14.25" customHeight="1">
       <c r="A978" s="1"/>
     </row>
-    <row r="979" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:1" ht="14.25" customHeight="1">
       <c r="A979" s="1"/>
     </row>
-    <row r="980" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:1" ht="14.25" customHeight="1">
       <c r="A980" s="1"/>
     </row>
-    <row r="981" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:1" ht="14.25" customHeight="1">
       <c r="A981" s="1"/>
     </row>
-    <row r="982" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:1" ht="14.25" customHeight="1">
       <c r="A982" s="1"/>
     </row>
-    <row r="983" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:1" ht="14.25" customHeight="1">
       <c r="A983" s="1"/>
     </row>
-    <row r="984" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:1" ht="14.25" customHeight="1">
       <c r="A984" s="1"/>
     </row>
-    <row r="985" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:1" ht="14.25" customHeight="1">
       <c r="A985" s="1"/>
     </row>
-    <row r="986" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:1" ht="14.25" customHeight="1">
       <c r="A986" s="1"/>
     </row>
-    <row r="987" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:1" ht="14.25" customHeight="1">
       <c r="A987" s="1"/>
     </row>
-    <row r="988" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:1" ht="14.25" customHeight="1">
       <c r="A988" s="1"/>
     </row>
-    <row r="989" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:1" ht="14.25" customHeight="1">
       <c r="A989" s="1"/>
     </row>
-    <row r="990" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:1" ht="14.25" customHeight="1">
       <c r="A990" s="1"/>
     </row>
-    <row r="991" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:1" ht="14.25" customHeight="1">
       <c r="A991" s="1"/>
     </row>
-    <row r="992" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:1" ht="14.25" customHeight="1">
       <c r="A992" s="1"/>
     </row>
-    <row r="993" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:1" ht="14.25" customHeight="1">
       <c r="A993" s="1"/>
     </row>
-    <row r="994" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:1" ht="14.25" customHeight="1">
       <c r="A994" s="1"/>
     </row>
-    <row r="995" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:1" ht="14.25" customHeight="1">
       <c r="A995" s="1"/>
     </row>
-    <row r="996" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:1" ht="14.25" customHeight="1">
       <c r="A996" s="1"/>
     </row>
-    <row r="997" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:1" ht="14.25" customHeight="1">
       <c r="A997" s="1"/>
     </row>
-    <row r="998" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:1" ht="14.25" customHeight="1">
       <c r="A998" s="1"/>
     </row>
-    <row r="999" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:1" ht="14.25" customHeight="1">
       <c r="A999" s="1"/>
     </row>
-    <row r="1000" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1000" s="1"/>
     </row>
-    <row r="1001" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1001" s="1"/>
     </row>
-    <row r="1002" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1002" s="1"/>
     </row>
-    <row r="1003" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1003" s="1"/>
     </row>
-    <row r="1004" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1004" s="1"/>
     </row>
-    <row r="1005" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1005" s="1"/>
     </row>
-    <row r="1006" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1006" s="1"/>
     </row>
-    <row r="1007" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1007" s="1"/>
     </row>
-    <row r="1008" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1008" s="1"/>
+    </row>
+    <row r="1009" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A1009" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Desarrollo/SMZR/Gestión/SMZR_CA.xlsx
+++ b/Desarrollo/SMZR/Gestión/SMZR_CA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MORALES\Desktop\RebroteSolution\Desarrollo\SMZR\Gestión\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ED0CA2-5C30-49C8-85DA-E991886D8284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D2F14DF-2C58-B446-963C-045ADB35AD73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,8 +298,59 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Nunito Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Nunito Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Nunito Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Nunito Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Nunito Regular"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +405,21 @@
         <bgColor rgb="FF9FC5E8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -403,10 +469,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,8 +619,26 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -767,33 +854,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="39.625" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="5.625" customWidth="1"/>
-    <col min="10" max="10" width="5.125" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="18" width="4.875" customWidth="1"/>
-    <col min="19" max="20" width="5.375" customWidth="1"/>
+    <col min="12" max="18" width="4.83203125" customWidth="1"/>
+    <col min="19" max="20" width="5.33203125" customWidth="1"/>
     <col min="21" max="25" width="5" customWidth="1"/>
-    <col min="26" max="27" width="5.375" customWidth="1"/>
-    <col min="28" max="29" width="5.125" customWidth="1"/>
+    <col min="26" max="27" width="5.33203125" customWidth="1"/>
+    <col min="28" max="29" width="5.1640625" customWidth="1"/>
     <col min="30" max="31" width="4.5" customWidth="1"/>
-    <col min="32" max="36" width="4.375" customWidth="1"/>
-    <col min="37" max="40" width="5.125" customWidth="1"/>
-    <col min="41" max="43" width="5.875" customWidth="1"/>
-    <col min="44" max="49" width="9.375" customWidth="1"/>
+    <col min="32" max="36" width="4.33203125" customWidth="1"/>
+    <col min="37" max="40" width="5.1640625" customWidth="1"/>
+    <col min="41" max="43" width="5.83203125" customWidth="1"/>
+    <col min="44" max="49" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="78" customHeight="1">
@@ -952,7 +1039,7 @@
       <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="49">
         <v>1</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -1015,7 +1102,7 @@
       <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="49">
         <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
@@ -1078,7 +1165,7 @@
       <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="49">
         <v>1</v>
       </c>
       <c r="H4" s="12" t="s">
@@ -1141,7 +1228,7 @@
       <c r="F5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="49">
         <v>1</v>
       </c>
       <c r="H5" s="12" t="s">
@@ -1204,7 +1291,7 @@
       <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="49">
         <v>1</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -1267,7 +1354,7 @@
       <c r="F7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="49">
         <v>1</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -1330,7 +1417,7 @@
       <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="49">
         <v>1</v>
       </c>
       <c r="H8" s="12" t="s">
@@ -1393,7 +1480,7 @@
       <c r="F9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="49">
         <v>1</v>
       </c>
       <c r="H9" s="12" t="s">
@@ -1456,7 +1543,7 @@
       <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="49">
         <v>1</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -1519,7 +1606,7 @@
       <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="49">
         <v>1</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -1578,7 +1665,7 @@
         <v>44029</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="25">
+      <c r="G12" s="50">
         <v>1</v>
       </c>
       <c r="H12" s="26"/>
@@ -1639,7 +1726,7 @@
       <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="49">
         <v>1</v>
       </c>
       <c r="H13" s="12" t="s">
@@ -1702,7 +1789,7 @@
       <c r="F14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="49">
         <v>1</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -1760,12 +1847,12 @@
         <v>44032</v>
       </c>
       <c r="E15" s="9">
-        <v>44055</v>
+        <v>44062</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="51">
         <v>0.8</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -1795,8 +1882,8 @@
       <c r="AD15" s="32"/>
       <c r="AE15" s="32"/>
       <c r="AF15" s="32"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
       <c r="AI15" s="17"/>
       <c r="AJ15" s="18"/>
       <c r="AK15" s="17"/>
@@ -1828,7 +1915,7 @@
       <c r="F16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="49">
         <v>1</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -1886,13 +1973,13 @@
         <v>44035</v>
       </c>
       <c r="E17" s="9">
-        <v>44057</v>
+        <v>44059</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="11">
-        <v>0.8</v>
+      <c r="G17" s="51">
+        <v>0.9</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>35</v>
@@ -1921,7 +2008,7 @@
       <c r="AD17" s="21"/>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
-      <c r="AG17" s="17"/>
+      <c r="AG17" s="21"/>
       <c r="AH17" s="17"/>
       <c r="AI17" s="17"/>
       <c r="AJ17" s="18"/>
@@ -1954,8 +2041,8 @@
       <c r="F18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="11">
-        <v>0.1</v>
+      <c r="G18" s="51">
+        <v>0.3</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>35</v>
@@ -2012,13 +2099,13 @@
         <v>44035</v>
       </c>
       <c r="E19" s="9">
-        <v>44057</v>
+        <v>44062</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="11">
-        <v>0.1</v>
+      <c r="G19" s="51">
+        <v>0.2</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>35</v>
@@ -2047,8 +2134,8 @@
       <c r="AD19" s="21"/>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
       <c r="AI19" s="17"/>
       <c r="AJ19" s="18"/>
       <c r="AK19" s="17"/>
@@ -2080,7 +2167,7 @@
       <c r="F20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="49">
         <v>1</v>
       </c>
       <c r="H20" s="12" t="s">
@@ -2143,8 +2230,8 @@
       <c r="F21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="11">
-        <v>0.2</v>
+      <c r="G21" s="51">
+        <v>0.5</v>
       </c>
       <c r="H21" s="36" t="s">
         <v>41</v>
@@ -2172,9 +2259,9 @@
       <c r="AC21" s="21"/>
       <c r="AD21" s="21"/>
       <c r="AE21" s="21"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
       <c r="AI21" s="30"/>
       <c r="AJ21" s="33"/>
       <c r="AK21" s="30"/>
@@ -2202,7 +2289,7 @@
         <v>44063</v>
       </c>
       <c r="F22" s="24"/>
-      <c r="G22" s="40">
+      <c r="G22" s="52">
         <v>0</v>
       </c>
       <c r="H22" s="41"/>
@@ -2263,7 +2350,7 @@
       <c r="F23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="49">
         <v>0.1</v>
       </c>
       <c r="H23" s="36" t="s">
@@ -2326,7 +2413,7 @@
       <c r="F24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="53">
         <v>0</v>
       </c>
       <c r="H24" s="36" t="s">
@@ -2389,7 +2476,7 @@
       <c r="F25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="53">
         <v>0</v>
       </c>
       <c r="H25" s="36" t="s">
@@ -2452,7 +2539,7 @@
       <c r="F26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="53">
         <v>0</v>
       </c>
       <c r="H26" s="44" t="s">
@@ -2511,7 +2598,7 @@
         <v>44066</v>
       </c>
       <c r="F27" s="24"/>
-      <c r="G27" s="40">
+      <c r="G27" s="52">
         <v>0</v>
       </c>
       <c r="H27" s="41"/>
@@ -2572,7 +2659,7 @@
       <c r="F28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="53">
         <v>0</v>
       </c>
       <c r="H28" s="36" t="s">
@@ -2635,7 +2722,7 @@
       <c r="F29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="53">
         <v>0</v>
       </c>
       <c r="H29" s="36" t="s">
@@ -2698,7 +2785,7 @@
       <c r="F30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="53">
         <v>0</v>
       </c>
       <c r="H30" s="36" t="s">
@@ -2761,7 +2848,7 @@
       <c r="F31" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="53">
         <v>0</v>
       </c>
       <c r="H31" s="36" t="s">
@@ -2824,7 +2911,7 @@
       <c r="F32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="35">
+      <c r="G32" s="53">
         <v>0</v>
       </c>
       <c r="H32" s="36" t="s">

--- a/Desarrollo/SMZR/Gestión/SMZR_CA.xlsx
+++ b/Desarrollo/SMZR/Gestión/SMZR_CA.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D2F14DF-2C58-B446-963C-045ADB35AD73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2511AB-D943-A344-9FAE-AEFB4DB0BDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>N°</t>
   </si>
@@ -142,9 +152,6 @@
     <t>Integración con API de Google Maps</t>
   </si>
   <si>
-    <t>Pruebas unitarias</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -211,12 +218,6 @@
     <t xml:space="preserve">Modelamiento de la base de datos </t>
   </si>
   <si>
-    <t>15/7/2020</t>
-  </si>
-  <si>
-    <t>17/7/2020</t>
-  </si>
-  <si>
     <t>Documento de diccionario de datos</t>
   </si>
   <si>
@@ -227,6 +228,18 @@
   </si>
   <si>
     <t>Desarrollo del Backend y Servicios</t>
+  </si>
+  <si>
+    <t>22/8/2020</t>
+  </si>
+  <si>
+    <t>24/8/2020</t>
+  </si>
+  <si>
+    <t>25/8/2020</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -350,7 +363,7 @@
       <name val="Nunito Regular"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,8 +433,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA1C7E2"/>
+        <bgColor rgb="FFACD4EF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -468,6 +487,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -475,7 +542,7 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -613,12 +680,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="14" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -634,6 +695,33 @@
     <xf numFmtId="9" fontId="18" fillId="11" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -643,6 +731,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA1C7E2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -852,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS1009"/>
+  <dimension ref="A1:AV1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -863,7 +956,7 @@
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="39.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
@@ -877,13 +970,13 @@
     <col min="26" max="27" width="5.33203125" customWidth="1"/>
     <col min="28" max="29" width="5.1640625" customWidth="1"/>
     <col min="30" max="31" width="4.5" customWidth="1"/>
-    <col min="32" max="36" width="4.33203125" customWidth="1"/>
-    <col min="37" max="40" width="5.1640625" customWidth="1"/>
-    <col min="41" max="43" width="5.83203125" customWidth="1"/>
-    <col min="44" max="49" width="9.33203125" customWidth="1"/>
+    <col min="32" max="39" width="4.33203125" customWidth="1"/>
+    <col min="40" max="43" width="5.1640625" customWidth="1"/>
+    <col min="44" max="46" width="5.83203125" customWidth="1"/>
+    <col min="47" max="52" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="78" customHeight="1">
+    <row r="1" spans="1:48" ht="78" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -891,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -989,38 +1082,47 @@
       <c r="AI1" s="5">
         <v>44063</v>
       </c>
-      <c r="AJ1" s="5">
+      <c r="AJ1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" s="5">
         <v>44069</v>
       </c>
-      <c r="AK1" s="5">
+      <c r="AN1" s="5">
         <v>44076</v>
       </c>
-      <c r="AL1" s="5">
+      <c r="AO1" s="5">
         <v>44077</v>
       </c>
-      <c r="AM1" s="5">
+      <c r="AP1" s="5">
         <v>44082</v>
       </c>
-      <c r="AN1" s="5">
+      <c r="AQ1" s="5">
         <v>44083</v>
       </c>
-      <c r="AO1" s="5">
+      <c r="AR1" s="5">
         <v>44084</v>
       </c>
-      <c r="AP1" s="5">
+      <c r="AS1" s="5">
         <v>44086</v>
       </c>
-      <c r="AQ1" s="5">
+      <c r="AT1" s="5">
         <v>44088</v>
       </c>
-      <c r="AR1" s="5">
+      <c r="AU1" s="5">
         <v>44089</v>
       </c>
-      <c r="AS1" s="5">
+      <c r="AV1" s="5">
         <v>44090</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="29.25" customHeight="1">
+    <row r="2" spans="1:48" ht="29.25" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1028,7 +1130,8 @@
         <v>7</v>
       </c>
       <c r="C2" s="8">
-        <v>3</v>
+        <f>E2-D2</f>
+        <v>2</v>
       </c>
       <c r="D2" s="9">
         <v>43992</v>
@@ -1039,7 +1142,7 @@
       <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="47">
         <v>1</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -1072,18 +1175,21 @@
       <c r="AG2" s="17"/>
       <c r="AH2" s="17"/>
       <c r="AI2" s="17"/>
-      <c r="AJ2" s="18"/>
+      <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
+      <c r="AM2" s="18"/>
       <c r="AN2" s="17"/>
       <c r="AO2" s="17"/>
       <c r="AP2" s="17"/>
       <c r="AQ2" s="17"/>
       <c r="AR2" s="17"/>
       <c r="AS2" s="17"/>
-    </row>
-    <row r="3" spans="1:45" ht="29.25" customHeight="1">
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+    </row>
+    <row r="3" spans="1:48" ht="29.25" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1091,7 +1197,8 @@
         <v>10</v>
       </c>
       <c r="C3" s="8">
-        <v>1</v>
+        <f t="shared" ref="C3:C11" si="0">E3-D3</f>
+        <v>0</v>
       </c>
       <c r="D3" s="9">
         <v>43994</v>
@@ -1102,7 +1209,7 @@
       <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="47">
         <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
@@ -1135,18 +1242,21 @@
       <c r="AG3" s="17"/>
       <c r="AH3" s="17"/>
       <c r="AI3" s="17"/>
-      <c r="AJ3" s="18"/>
+      <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
+      <c r="AM3" s="18"/>
       <c r="AN3" s="17"/>
       <c r="AO3" s="17"/>
       <c r="AP3" s="17"/>
       <c r="AQ3" s="17"/>
       <c r="AR3" s="17"/>
       <c r="AS3" s="17"/>
-    </row>
-    <row r="4" spans="1:45" ht="30" customHeight="1">
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+    </row>
+    <row r="4" spans="1:48" ht="30" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1154,7 +1264,8 @@
         <v>12</v>
       </c>
       <c r="C4" s="8">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="D4" s="9">
         <v>43994</v>
@@ -1165,7 +1276,7 @@
       <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="47">
         <v>1</v>
       </c>
       <c r="H4" s="12" t="s">
@@ -1198,18 +1309,21 @@
       <c r="AG4" s="17"/>
       <c r="AH4" s="17"/>
       <c r="AI4" s="17"/>
-      <c r="AJ4" s="18"/>
+      <c r="AJ4" s="17"/>
       <c r="AK4" s="17"/>
       <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
+      <c r="AM4" s="18"/>
       <c r="AN4" s="17"/>
       <c r="AO4" s="17"/>
       <c r="AP4" s="17"/>
       <c r="AQ4" s="17"/>
       <c r="AR4" s="17"/>
       <c r="AS4" s="17"/>
-    </row>
-    <row r="5" spans="1:45" ht="34.5" customHeight="1">
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+    </row>
+    <row r="5" spans="1:48" ht="34.5" customHeight="1">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -1217,7 +1331,8 @@
         <v>15</v>
       </c>
       <c r="C5" s="8">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="D5" s="9">
         <v>43999</v>
@@ -1228,7 +1343,7 @@
       <c r="F5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="47">
         <v>1</v>
       </c>
       <c r="H5" s="12" t="s">
@@ -1261,18 +1376,21 @@
       <c r="AG5" s="17"/>
       <c r="AH5" s="17"/>
       <c r="AI5" s="17"/>
-      <c r="AJ5" s="18"/>
+      <c r="AJ5" s="17"/>
       <c r="AK5" s="17"/>
       <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
+      <c r="AM5" s="18"/>
       <c r="AN5" s="17"/>
       <c r="AO5" s="17"/>
       <c r="AP5" s="17"/>
       <c r="AQ5" s="17"/>
       <c r="AR5" s="17"/>
       <c r="AS5" s="17"/>
-    </row>
-    <row r="6" spans="1:45" ht="34.5" customHeight="1">
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17"/>
+      <c r="AV5" s="17"/>
+    </row>
+    <row r="6" spans="1:48" ht="34.5" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1280,7 +1398,8 @@
         <v>18</v>
       </c>
       <c r="C6" s="8">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="D6" s="9">
         <v>44001</v>
@@ -1291,7 +1410,7 @@
       <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="47">
         <v>1</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -1324,18 +1443,21 @@
       <c r="AG6" s="17"/>
       <c r="AH6" s="17"/>
       <c r="AI6" s="17"/>
-      <c r="AJ6" s="18"/>
+      <c r="AJ6" s="17"/>
       <c r="AK6" s="17"/>
       <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
+      <c r="AM6" s="18"/>
       <c r="AN6" s="17"/>
       <c r="AO6" s="17"/>
       <c r="AP6" s="17"/>
       <c r="AQ6" s="17"/>
       <c r="AR6" s="17"/>
       <c r="AS6" s="17"/>
-    </row>
-    <row r="7" spans="1:45" ht="34.5" customHeight="1">
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+    </row>
+    <row r="7" spans="1:48" ht="34.5" customHeight="1">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -1343,7 +1465,8 @@
         <v>20</v>
       </c>
       <c r="C7" s="8">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D7" s="9">
         <v>44015</v>
@@ -1354,7 +1477,7 @@
       <c r="F7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="47">
         <v>1</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -1387,18 +1510,21 @@
       <c r="AG7" s="17"/>
       <c r="AH7" s="17"/>
       <c r="AI7" s="17"/>
-      <c r="AJ7" s="18"/>
+      <c r="AJ7" s="17"/>
       <c r="AK7" s="17"/>
       <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
+      <c r="AM7" s="18"/>
       <c r="AN7" s="17"/>
       <c r="AO7" s="17"/>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="17"/>
       <c r="AR7" s="17"/>
       <c r="AS7" s="17"/>
-    </row>
-    <row r="8" spans="1:45" ht="34.5" customHeight="1">
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+    </row>
+    <row r="8" spans="1:48" ht="34.5" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1406,7 +1532,8 @@
         <v>23</v>
       </c>
       <c r="C8" s="8">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D8" s="9">
         <v>44015</v>
@@ -1417,7 +1544,7 @@
       <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="47">
         <v>1</v>
       </c>
       <c r="H8" s="12" t="s">
@@ -1450,18 +1577,21 @@
       <c r="AG8" s="17"/>
       <c r="AH8" s="17"/>
       <c r="AI8" s="17"/>
-      <c r="AJ8" s="18"/>
+      <c r="AJ8" s="17"/>
       <c r="AK8" s="17"/>
       <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
+      <c r="AM8" s="18"/>
       <c r="AN8" s="17"/>
       <c r="AO8" s="17"/>
       <c r="AP8" s="17"/>
       <c r="AQ8" s="17"/>
       <c r="AR8" s="17"/>
       <c r="AS8" s="17"/>
-    </row>
-    <row r="9" spans="1:45" ht="33" customHeight="1">
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="17"/>
+    </row>
+    <row r="9" spans="1:48" ht="33" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1469,7 +1599,8 @@
         <v>25</v>
       </c>
       <c r="C9" s="8">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="D9" s="9">
         <v>44016</v>
@@ -1480,7 +1611,7 @@
       <c r="F9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="47">
         <v>1</v>
       </c>
       <c r="H9" s="12" t="s">
@@ -1513,26 +1644,30 @@
       <c r="AG9" s="17"/>
       <c r="AH9" s="17"/>
       <c r="AI9" s="17"/>
-      <c r="AJ9" s="18"/>
+      <c r="AJ9" s="17"/>
       <c r="AK9" s="17"/>
       <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
+      <c r="AM9" s="18"/>
       <c r="AN9" s="17"/>
       <c r="AO9" s="17"/>
       <c r="AP9" s="17"/>
       <c r="AQ9" s="17"/>
       <c r="AR9" s="17"/>
       <c r="AS9" s="17"/>
-    </row>
-    <row r="10" spans="1:45" ht="34.5" customHeight="1">
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+    </row>
+    <row r="10" spans="1:48" ht="34.5" customHeight="1">
       <c r="A10" s="20">
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="8">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D10" s="9">
         <v>44021</v>
@@ -1543,7 +1678,7 @@
       <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="47">
         <v>1</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -1576,37 +1711,41 @@
       <c r="AG10" s="17"/>
       <c r="AH10" s="17"/>
       <c r="AI10" s="17"/>
-      <c r="AJ10" s="18"/>
+      <c r="AJ10" s="17"/>
       <c r="AK10" s="17"/>
       <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
+      <c r="AM10" s="18"/>
       <c r="AN10" s="17"/>
       <c r="AO10" s="17"/>
       <c r="AP10" s="17"/>
       <c r="AQ10" s="17"/>
       <c r="AR10" s="17"/>
       <c r="AS10" s="17"/>
-    </row>
-    <row r="11" spans="1:45" ht="34.5" customHeight="1">
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
+    </row>
+    <row r="11" spans="1:48" ht="34.5" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="8">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>64</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>44027</v>
+      </c>
+      <c r="E11" s="9">
+        <v>44029</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="47">
         <v>1</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -1639,24 +1778,28 @@
       <c r="AG11" s="17"/>
       <c r="AH11" s="17"/>
       <c r="AI11" s="17"/>
-      <c r="AJ11" s="18"/>
+      <c r="AJ11" s="17"/>
       <c r="AK11" s="17"/>
       <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
+      <c r="AM11" s="18"/>
       <c r="AN11" s="17"/>
       <c r="AO11" s="17"/>
       <c r="AP11" s="17"/>
       <c r="AQ11" s="17"/>
       <c r="AR11" s="17"/>
       <c r="AS11" s="17"/>
-    </row>
-    <row r="12" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="17"/>
+      <c r="AV11" s="17"/>
+    </row>
+    <row r="12" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A12" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="22">
-        <v>38</v>
+        <f>E12-D12</f>
+        <v>37</v>
       </c>
       <c r="D12" s="23">
         <v>43992</v>
@@ -1665,7 +1808,7 @@
         <v>44029</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="50">
+      <c r="G12" s="48">
         <v>1</v>
       </c>
       <c r="H12" s="26"/>
@@ -1706,8 +1849,11 @@
       <c r="AQ12" s="28"/>
       <c r="AR12" s="28"/>
       <c r="AS12" s="28"/>
-    </row>
-    <row r="13" spans="1:45" ht="35.25" customHeight="1">
+      <c r="AT12" s="28"/>
+      <c r="AU12" s="28"/>
+      <c r="AV12" s="28"/>
+    </row>
+    <row r="13" spans="1:48" ht="35.25" customHeight="1">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1715,7 +1861,8 @@
         <v>30</v>
       </c>
       <c r="C13" s="8">
-        <v>2</v>
+        <f t="shared" ref="C13:C20" si="1">E13-D13</f>
+        <v>1</v>
       </c>
       <c r="D13" s="9">
         <v>44029</v>
@@ -1726,7 +1873,7 @@
       <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="47">
         <v>1</v>
       </c>
       <c r="H13" s="12" t="s">
@@ -1759,26 +1906,30 @@
       <c r="AG13" s="17"/>
       <c r="AH13" s="17"/>
       <c r="AI13" s="17"/>
-      <c r="AJ13" s="18"/>
+      <c r="AJ13" s="17"/>
       <c r="AK13" s="17"/>
       <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
+      <c r="AM13" s="18"/>
       <c r="AN13" s="17"/>
       <c r="AO13" s="17"/>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="17"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17"/>
-    </row>
-    <row r="14" spans="1:45" ht="33" customHeight="1">
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="17"/>
+    </row>
+    <row r="14" spans="1:48" ht="33" customHeight="1">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="8">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D14" s="9">
         <v>44029</v>
@@ -1789,11 +1940,11 @@
       <c r="F14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="47">
         <v>1</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -1822,18 +1973,21 @@
       <c r="AG14" s="17"/>
       <c r="AH14" s="17"/>
       <c r="AI14" s="17"/>
-      <c r="AJ14" s="18"/>
+      <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
       <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
+      <c r="AM14" s="18"/>
       <c r="AN14" s="17"/>
       <c r="AO14" s="17"/>
       <c r="AP14" s="17"/>
       <c r="AQ14" s="17"/>
       <c r="AR14" s="17"/>
       <c r="AS14" s="17"/>
-    </row>
-    <row r="15" spans="1:45" ht="34.5" customHeight="1">
+      <c r="AT14" s="17"/>
+      <c r="AU14" s="17"/>
+      <c r="AV14" s="17"/>
+    </row>
+    <row r="15" spans="1:48" ht="34.5" customHeight="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -1841,7 +1995,8 @@
         <v>33</v>
       </c>
       <c r="C15" s="8">
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="D15" s="9">
         <v>44032</v>
@@ -1852,8 +2007,8 @@
       <c r="F15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="51">
-        <v>0.8</v>
+      <c r="G15" s="47">
+        <v>1</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>19</v>
@@ -1885,18 +2040,21 @@
       <c r="AG15" s="21"/>
       <c r="AH15" s="21"/>
       <c r="AI15" s="17"/>
-      <c r="AJ15" s="18"/>
+      <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
       <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
+      <c r="AM15" s="18"/>
       <c r="AN15" s="17"/>
       <c r="AO15" s="17"/>
       <c r="AP15" s="17"/>
       <c r="AQ15" s="17"/>
       <c r="AR15" s="17"/>
       <c r="AS15" s="17"/>
-    </row>
-    <row r="16" spans="1:45" ht="33.75" customHeight="1">
+      <c r="AT15" s="17"/>
+      <c r="AU15" s="17"/>
+      <c r="AV15" s="17"/>
+    </row>
+    <row r="16" spans="1:48" ht="33.75" customHeight="1">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -1904,7 +2062,8 @@
         <v>34</v>
       </c>
       <c r="C16" s="8">
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="D16" s="9">
         <v>44033</v>
@@ -1915,7 +2074,7 @@
       <c r="F16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="47">
         <v>1</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -1948,18 +2107,21 @@
       <c r="AG16" s="17"/>
       <c r="AH16" s="17"/>
       <c r="AI16" s="17"/>
-      <c r="AJ16" s="18"/>
+      <c r="AJ16" s="17"/>
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
+      <c r="AM16" s="18"/>
       <c r="AN16" s="17"/>
       <c r="AO16" s="17"/>
       <c r="AP16" s="17"/>
       <c r="AQ16" s="17"/>
       <c r="AR16" s="17"/>
       <c r="AS16" s="17"/>
-    </row>
-    <row r="17" spans="1:45" ht="33.75" customHeight="1">
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="17"/>
+      <c r="AV16" s="17"/>
+    </row>
+    <row r="17" spans="1:48" ht="33.75" customHeight="1">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -1967,19 +2129,20 @@
         <v>36</v>
       </c>
       <c r="C17" s="8">
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="D17" s="9">
         <v>44035</v>
       </c>
       <c r="E17" s="9">
-        <v>44059</v>
+        <v>44063</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="51">
-        <v>0.9</v>
+      <c r="G17" s="47">
+        <v>1</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>35</v>
@@ -2009,20 +2172,23 @@
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
       <c r="AG17" s="21"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="18"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
+      <c r="AM17" s="18"/>
       <c r="AN17" s="17"/>
       <c r="AO17" s="17"/>
       <c r="AP17" s="17"/>
       <c r="AQ17" s="17"/>
       <c r="AR17" s="17"/>
       <c r="AS17" s="17"/>
-    </row>
-    <row r="18" spans="1:45" ht="33.75" customHeight="1">
+      <c r="AT17" s="17"/>
+      <c r="AU17" s="17"/>
+      <c r="AV17" s="17"/>
+    </row>
+    <row r="18" spans="1:48" ht="33.75" customHeight="1">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -2030,19 +2196,20 @@
         <v>37</v>
       </c>
       <c r="C18" s="8">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="D18" s="9">
         <v>44035</v>
       </c>
       <c r="E18" s="9">
-        <v>44062</v>
+        <v>44065</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="51">
-        <v>0.3</v>
+      <c r="G18" s="49">
+        <v>0.9</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>35</v>
@@ -2073,19 +2240,22 @@
       <c r="AF18" s="21"/>
       <c r="AG18" s="21"/>
       <c r="AH18" s="21"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="18"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21"/>
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
+      <c r="AM18" s="18"/>
       <c r="AN18" s="17"/>
       <c r="AO18" s="17"/>
       <c r="AP18" s="17"/>
       <c r="AQ18" s="17"/>
       <c r="AR18" s="17"/>
       <c r="AS18" s="17"/>
-    </row>
-    <row r="19" spans="1:45" ht="33.75" customHeight="1">
+      <c r="AT18" s="17"/>
+      <c r="AU18" s="17"/>
+      <c r="AV18" s="17"/>
+    </row>
+    <row r="19" spans="1:48" ht="33.75" customHeight="1">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -2093,19 +2263,20 @@
         <v>38</v>
       </c>
       <c r="C19" s="8">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="D19" s="9">
         <v>44035</v>
       </c>
       <c r="E19" s="9">
-        <v>44062</v>
+        <v>44065</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="51">
-        <v>0.2</v>
+      <c r="G19" s="49">
+        <v>0.7</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>35</v>
@@ -2136,19 +2307,22 @@
       <c r="AF19" s="21"/>
       <c r="AG19" s="21"/>
       <c r="AH19" s="21"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="18"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
+      <c r="AM19" s="18"/>
       <c r="AN19" s="17"/>
       <c r="AO19" s="17"/>
       <c r="AP19" s="17"/>
       <c r="AQ19" s="17"/>
       <c r="AR19" s="17"/>
       <c r="AS19" s="17"/>
-    </row>
-    <row r="20" spans="1:45" ht="33.75" customHeight="1">
+      <c r="AT19" s="17"/>
+      <c r="AU19" s="17"/>
+      <c r="AV19" s="17"/>
+    </row>
+    <row r="20" spans="1:48" ht="33.75" customHeight="1">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -2156,7 +2330,8 @@
         <v>39</v>
       </c>
       <c r="C20" s="8">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="D20" s="9">
         <v>44035</v>
@@ -2167,11 +2342,11 @@
       <c r="F20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="47">
         <v>1</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
@@ -2200,41 +2375,45 @@
       <c r="AG20" s="30"/>
       <c r="AH20" s="30"/>
       <c r="AI20" s="30"/>
-      <c r="AJ20" s="33"/>
+      <c r="AJ20" s="30"/>
       <c r="AK20" s="30"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="30"/>
       <c r="AO20" s="17"/>
       <c r="AP20" s="17"/>
       <c r="AQ20" s="17"/>
       <c r="AR20" s="17"/>
       <c r="AS20" s="17"/>
-    </row>
-    <row r="21" spans="1:45" ht="33" customHeight="1">
+      <c r="AT20" s="17"/>
+      <c r="AU20" s="17"/>
+      <c r="AV20" s="17"/>
+    </row>
+    <row r="21" spans="1:48" ht="33" customHeight="1">
       <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C21" s="8">
-        <v>24</v>
+        <f>E21-D21</f>
+        <v>33</v>
       </c>
       <c r="D21" s="9">
         <v>44032</v>
       </c>
       <c r="E21" s="9">
-        <v>44062</v>
+        <v>44065</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="51">
-        <v>0.5</v>
+      <c r="G21" s="49">
+        <v>0.85</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
@@ -2262,35 +2441,40 @@
       <c r="AF21" s="21"/>
       <c r="AG21" s="21"/>
       <c r="AH21" s="21"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="33"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
       <c r="AK21" s="30"/>
       <c r="AL21" s="30"/>
-      <c r="AM21" s="30"/>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="17"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
+      <c r="AM21" s="33"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
       <c r="AS21" s="38"/>
-    </row>
-    <row r="22" spans="1:45" ht="24" customHeight="1">
-      <c r="A22" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="48"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+    </row>
+    <row r="22" spans="1:48" ht="24" customHeight="1">
+      <c r="A22" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="53"/>
       <c r="C22" s="39">
-        <v>26</v>
+        <f>E22-D22</f>
+        <v>35</v>
       </c>
       <c r="D22" s="23">
         <v>44030</v>
       </c>
       <c r="E22" s="23">
-        <v>44063</v>
+        <v>44065</v>
       </c>
       <c r="F22" s="24"/>
-      <c r="G22" s="52">
-        <v>0</v>
+      <c r="G22" s="50">
+        <f>AVERAGE(G13:G21)</f>
+        <v>0.93888888888888899</v>
       </c>
       <c r="H22" s="41"/>
       <c r="I22" s="40"/>
@@ -2330,31 +2514,34 @@
       <c r="AQ22" s="28"/>
       <c r="AR22" s="28"/>
       <c r="AS22" s="28"/>
-    </row>
-    <row r="23" spans="1:45" ht="33" customHeight="1">
+      <c r="AT22" s="28"/>
+      <c r="AU22" s="28"/>
+      <c r="AV22" s="28"/>
+    </row>
+    <row r="23" spans="1:48" ht="33" customHeight="1">
       <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C23" s="8">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D23" s="9">
-        <v>44063</v>
+        <v>44065</v>
       </c>
       <c r="E23" s="9">
-        <v>44065</v>
+        <v>44067</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="49">
-        <v>0.1</v>
+        <v>8</v>
+      </c>
+      <c r="G23" s="51">
+        <v>0</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
@@ -2370,54 +2557,57 @@
       <c r="T23" s="37"/>
       <c r="U23" s="37"/>
       <c r="V23" s="38"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
       <c r="AH23" s="30"/>
       <c r="AI23" s="30"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="30"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="17"/>
       <c r="AL23" s="30"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="38"/>
+      <c r="AM23" s="33"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
+      <c r="AQ23" s="17"/>
       <c r="AR23" s="38"/>
       <c r="AS23" s="38"/>
-    </row>
-    <row r="24" spans="1:45" ht="33" customHeight="1">
+      <c r="AT23" s="38"/>
+      <c r="AU23" s="38"/>
+      <c r="AV23" s="38"/>
+    </row>
+    <row r="24" spans="1:48" ht="39" customHeight="1">
       <c r="A24" s="6">
         <v>21</v>
       </c>
       <c r="B24" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>44065</v>
+      </c>
+      <c r="E24" s="9">
+        <v>44067</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="36" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9">
-        <v>44063</v>
-      </c>
-      <c r="E24" s="9">
-        <v>44065</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="53">
-        <v>0</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>44</v>
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
@@ -2441,49 +2631,52 @@
       <c r="AB24" s="38"/>
       <c r="AC24" s="38"/>
       <c r="AD24" s="42"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="17"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
       <c r="AH24" s="30"/>
       <c r="AI24" s="30"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="30"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="32"/>
       <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="38"/>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="38"/>
+      <c r="AM24" s="33"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="17"/>
       <c r="AR24" s="38"/>
       <c r="AS24" s="38"/>
-    </row>
-    <row r="25" spans="1:45" ht="39" customHeight="1">
+      <c r="AT24" s="38"/>
+      <c r="AU24" s="38"/>
+      <c r="AV24" s="38"/>
+    </row>
+    <row r="25" spans="1:48" ht="34.5" customHeight="1">
       <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="43" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="9">
         <v>44065</v>
       </c>
       <c r="E25" s="9">
-        <v>44066</v>
+        <v>44067</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="53">
+      <c r="G25" s="51">
         <v>0</v>
       </c>
-      <c r="H25" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
+      <c r="H25" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
@@ -2505,165 +2698,175 @@
       <c r="AC25" s="38"/>
       <c r="AD25" s="42"/>
       <c r="AE25" s="38"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="30"/>
-      <c r="AL25" s="30"/>
-      <c r="AM25" s="30"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="18"/>
       <c r="AN25" s="17"/>
-      <c r="AO25" s="38"/>
-      <c r="AP25" s="38"/>
-      <c r="AQ25" s="38"/>
+      <c r="AO25" s="30"/>
+      <c r="AP25" s="30"/>
+      <c r="AQ25" s="17"/>
       <c r="AR25" s="38"/>
       <c r="AS25" s="38"/>
-    </row>
-    <row r="26" spans="1:45" ht="34.5" customHeight="1">
-      <c r="A26" s="6">
+      <c r="AT25" s="38"/>
+      <c r="AU25" s="38"/>
+      <c r="AV25" s="38"/>
+    </row>
+    <row r="26" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A26" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="53"/>
+      <c r="C26" s="39">
+        <v>2</v>
+      </c>
+      <c r="D26" s="23">
+        <v>44065</v>
+      </c>
+      <c r="E26" s="23">
+        <v>44067</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="50">
+        <f>AVERAGE(G23:G25)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H26" s="41"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="28"/>
+      <c r="AQ26" s="28"/>
+      <c r="AR26" s="28"/>
+      <c r="AS26" s="28"/>
+      <c r="AT26" s="28"/>
+      <c r="AU26" s="28"/>
+      <c r="AV26" s="28"/>
+    </row>
+    <row r="27" spans="1:48" ht="37.5" customHeight="1">
+      <c r="A27" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="8">
-        <v>3</v>
-      </c>
-      <c r="D26" s="9">
-        <v>44066</v>
-      </c>
-      <c r="E26" s="9">
-        <v>44066</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="53">
+      <c r="B27" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9">
+        <v>44068</v>
+      </c>
+      <c r="E27" s="9">
+        <v>44069</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="51">
         <v>0</v>
       </c>
-      <c r="H26" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="30"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="38"/>
-      <c r="AP26" s="38"/>
-      <c r="AQ26" s="38"/>
-      <c r="AR26" s="38"/>
-      <c r="AS26" s="38"/>
-    </row>
-    <row r="27" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A27" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="39">
-        <v>6</v>
-      </c>
-      <c r="D27" s="23">
-        <v>44063</v>
-      </c>
-      <c r="E27" s="23">
-        <v>44066</v>
-      </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="52">
-        <v>0</v>
-      </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="28"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="28"/>
-      <c r="AN27" s="28"/>
-      <c r="AO27" s="28"/>
-      <c r="AP27" s="28"/>
-      <c r="AQ27" s="28"/>
-      <c r="AR27" s="28"/>
-      <c r="AS27" s="28"/>
-    </row>
-    <row r="28" spans="1:45" ht="37.5" customHeight="1">
+      <c r="H27" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="45"/>
+      <c r="AJ27" s="45"/>
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="38"/>
+      <c r="AO27" s="17"/>
+      <c r="AP27" s="17"/>
+      <c r="AQ27" s="30"/>
+      <c r="AR27" s="30"/>
+      <c r="AS27" s="30"/>
+      <c r="AT27" s="17"/>
+      <c r="AU27" s="17"/>
+      <c r="AV27" s="17"/>
+    </row>
+    <row r="28" spans="1:48" ht="39.75" customHeight="1">
       <c r="A28" s="6">
         <v>24</v>
       </c>
-      <c r="B28" s="45" t="s">
-        <v>49</v>
+      <c r="B28" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="C28" s="8">
         <v>1</v>
       </c>
       <c r="D28" s="9">
-        <v>44066</v>
+        <v>44068</v>
       </c>
       <c r="E28" s="9">
-        <v>44067</v>
+        <v>44069</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="53">
+        <v>24</v>
+      </c>
+      <c r="G28" s="51">
         <v>0</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
@@ -2690,43 +2893,46 @@
       <c r="AE28" s="45"/>
       <c r="AF28" s="38"/>
       <c r="AG28" s="17"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="38"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="30"/>
-      <c r="AQ28" s="17"/>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="17"/>
-    </row>
-    <row r="29" spans="1:45" ht="39.75" customHeight="1">
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="38"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="17"/>
+      <c r="AQ28" s="30"/>
+      <c r="AR28" s="30"/>
+      <c r="AS28" s="30"/>
+      <c r="AT28" s="30"/>
+      <c r="AU28" s="30"/>
+      <c r="AV28" s="17"/>
+    </row>
+    <row r="29" spans="1:48" ht="36" customHeight="1">
       <c r="A29" s="6">
         <v>25</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
       </c>
       <c r="D29" s="9">
-        <v>44066</v>
+        <v>44068</v>
       </c>
       <c r="E29" s="9">
-        <v>44066</v>
+        <v>44069</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="53">
+        <v>21</v>
+      </c>
+      <c r="G29" s="51">
         <v>0</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I29" s="35"/>
       <c r="J29" s="35"/>
@@ -2753,43 +2959,46 @@
       <c r="AE29" s="45"/>
       <c r="AF29" s="38"/>
       <c r="AG29" s="17"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="38"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="38"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-      <c r="AN29" s="30"/>
-      <c r="AO29" s="30"/>
-      <c r="AP29" s="30"/>
-      <c r="AQ29" s="30"/>
-      <c r="AR29" s="30"/>
-      <c r="AS29" s="17"/>
-    </row>
-    <row r="30" spans="1:45" ht="36" customHeight="1">
+      <c r="AH29" s="45"/>
+      <c r="AI29" s="45"/>
+      <c r="AJ29" s="45"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="38"/>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="17"/>
+      <c r="AQ29" s="17"/>
+      <c r="AR29" s="17"/>
+      <c r="AS29" s="30"/>
+      <c r="AT29" s="30"/>
+      <c r="AU29" s="30"/>
+      <c r="AV29" s="17"/>
+    </row>
+    <row r="30" spans="1:48" ht="39.75" customHeight="1">
       <c r="A30" s="6">
         <v>26</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>53</v>
+      <c r="B30" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
       </c>
       <c r="D30" s="9">
-        <v>44067</v>
+        <v>44068</v>
       </c>
       <c r="E30" s="9">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="53">
+        <v>8</v>
+      </c>
+      <c r="G30" s="51">
         <v>0</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
@@ -2815,29 +3024,32 @@
       <c r="AD30" s="45"/>
       <c r="AE30" s="45"/>
       <c r="AF30" s="38"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="38"/>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="38"/>
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="17"/>
-      <c r="AN30" s="17"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="45"/>
+      <c r="AJ30" s="45"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="18"/>
+      <c r="AN30" s="38"/>
       <c r="AO30" s="17"/>
-      <c r="AP30" s="30"/>
-      <c r="AQ30" s="30"/>
-      <c r="AR30" s="30"/>
+      <c r="AP30" s="17"/>
+      <c r="AQ30" s="17"/>
+      <c r="AR30" s="17"/>
       <c r="AS30" s="17"/>
-    </row>
-    <row r="31" spans="1:45" ht="39.75" customHeight="1">
+      <c r="AT30" s="30"/>
+      <c r="AU30" s="30"/>
+      <c r="AV30" s="30"/>
+    </row>
+    <row r="31" spans="1:48" ht="36.75" customHeight="1">
       <c r="A31" s="6">
         <v>27</v>
       </c>
-      <c r="B31" s="45" t="s">
-        <v>55</v>
+      <c r="B31" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="C31" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="9">
         <v>44068</v>
@@ -2846,13 +3058,13 @@
         <v>44069</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="53">
+        <v>13</v>
+      </c>
+      <c r="G31" s="51">
         <v>0</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
@@ -2879,182 +3091,140 @@
       <c r="AE31" s="45"/>
       <c r="AF31" s="38"/>
       <c r="AG31" s="38"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="18"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="38"/>
+      <c r="AJ31" s="38"/>
       <c r="AK31" s="38"/>
-      <c r="AL31" s="17"/>
-      <c r="AM31" s="17"/>
-      <c r="AN31" s="17"/>
+      <c r="AL31" s="38"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="38"/>
       <c r="AO31" s="17"/>
       <c r="AP31" s="17"/>
-      <c r="AQ31" s="30"/>
-      <c r="AR31" s="30"/>
-      <c r="AS31" s="30"/>
-    </row>
-    <row r="32" spans="1:45" ht="36.75" customHeight="1">
-      <c r="A32" s="6">
-        <v>28</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="8">
+      <c r="AQ31" s="17"/>
+      <c r="AR31" s="17"/>
+      <c r="AS31" s="17"/>
+      <c r="AT31" s="17"/>
+      <c r="AU31" s="17"/>
+      <c r="AV31" s="30"/>
+    </row>
+    <row r="32" spans="1:48" ht="27.75" customHeight="1">
+      <c r="A32" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58">
         <v>1</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="54">
+        <v>44068</v>
+      </c>
+      <c r="E32" s="54">
         <v>44069</v>
       </c>
-      <c r="E32" s="9">
-        <v>44069</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="53">
+      <c r="F32" s="55"/>
+      <c r="G32" s="40">
+        <f>AVERAGE(G27:G31)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="45"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="38"/>
-      <c r="AG32" s="38"/>
-      <c r="AH32" s="38"/>
-      <c r="AI32" s="38"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="38"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="17"/>
-      <c r="AO32" s="17"/>
-      <c r="AP32" s="17"/>
-      <c r="AQ32" s="17"/>
-      <c r="AR32" s="17"/>
-      <c r="AS32" s="30"/>
-    </row>
-    <row r="33" spans="1:45" ht="27.75" customHeight="1">
-      <c r="A33" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="39">
-        <v>12</v>
-      </c>
-      <c r="D33" s="23">
-        <v>44066</v>
-      </c>
-      <c r="E33" s="23">
-        <v>44069</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="40">
-        <v>0</v>
-      </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
-      <c r="AK33" s="28"/>
-      <c r="AL33" s="28"/>
-      <c r="AM33" s="28"/>
-      <c r="AN33" s="28"/>
-      <c r="AO33" s="28"/>
-      <c r="AP33" s="28"/>
-      <c r="AQ33" s="28"/>
-      <c r="AR33" s="28"/>
-      <c r="AS33" s="28"/>
-    </row>
-    <row r="34" spans="1:45" ht="41.25" customHeight="1">
+      <c r="H32" s="41"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="28"/>
+      <c r="AN32" s="28"/>
+      <c r="AO32" s="28"/>
+      <c r="AP32" s="28"/>
+      <c r="AQ32" s="28"/>
+      <c r="AR32" s="28"/>
+      <c r="AS32" s="28"/>
+      <c r="AT32" s="28"/>
+      <c r="AU32" s="28"/>
+      <c r="AV32" s="28"/>
+    </row>
+    <row r="33" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A33" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60">
+        <f>(G12*C12+G22*C22+G26*C26+G32*C32)/(C12+C22+C26+C32)</f>
+        <v>0.9323703703703704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" customHeight="1">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:45" ht="14.25" customHeight="1">
+    <row r="35" spans="1:7" ht="14.25" customHeight="1">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:45" ht="14.25" customHeight="1">
+    <row r="36" spans="1:7" ht="14.25" customHeight="1">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:45" ht="14.25" customHeight="1">
+    <row r="37" spans="1:7" ht="14.25" customHeight="1">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:45" ht="14.25" customHeight="1">
+    <row r="38" spans="1:7" ht="14.25" customHeight="1">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:45" ht="14.25" customHeight="1">
+    <row r="39" spans="1:7" ht="14.25" customHeight="1">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:45" ht="14.25" customHeight="1">
+    <row r="40" spans="1:7" ht="14.25" customHeight="1">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:45" ht="14.25" customHeight="1">
+    <row r="41" spans="1:7" ht="14.25" customHeight="1">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:45" ht="14.25" customHeight="1">
+    <row r="42" spans="1:7" ht="14.25" customHeight="1">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:45" ht="14.25" customHeight="1">
+    <row r="43" spans="1:7" ht="14.25" customHeight="1">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:45" ht="14.25" customHeight="1">
+    <row r="44" spans="1:7" ht="14.25" customHeight="1">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:7" ht="14.25" customHeight="1">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:45" ht="14.25" customHeight="1">
+    <row r="46" spans="1:7" ht="14.25" customHeight="1">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:45" ht="14.25" customHeight="1">
+    <row r="47" spans="1:7" ht="14.25" customHeight="1">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:45" ht="14.25" customHeight="1">
+    <row r="48" spans="1:7" ht="14.25" customHeight="1">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" ht="14.25" customHeight="1">
@@ -5937,15 +6107,13 @@
     <row r="1008" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1008" s="1"/>
     </row>
-    <row r="1009" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A1009" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A33:F33"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Desarrollo/SMZR/Gestión/SMZR_CA.xlsx
+++ b/Desarrollo/SMZR/Gestión/SMZR_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2511AB-D943-A344-9FAE-AEFB4DB0BDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD431057-922D-9342-8E45-2E79C7E84937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>N°</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>30/8/2020</t>
+  </si>
+  <si>
+    <t>30/9/2020</t>
   </si>
 </sst>
 </file>
@@ -695,31 +701,31 @@
     <xf numFmtId="9" fontId="18" fillId="11" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -945,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV1008"/>
+  <dimension ref="A1:AX1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -970,13 +976,13 @@
     <col min="26" max="27" width="5.33203125" customWidth="1"/>
     <col min="28" max="29" width="5.1640625" customWidth="1"/>
     <col min="30" max="31" width="4.5" customWidth="1"/>
-    <col min="32" max="39" width="4.33203125" customWidth="1"/>
-    <col min="40" max="43" width="5.1640625" customWidth="1"/>
-    <col min="44" max="46" width="5.83203125" customWidth="1"/>
-    <col min="47" max="52" width="9.33203125" customWidth="1"/>
+    <col min="32" max="40" width="4.33203125" customWidth="1"/>
+    <col min="41" max="45" width="5.1640625" customWidth="1"/>
+    <col min="46" max="48" width="5.83203125" customWidth="1"/>
+    <col min="49" max="54" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="78" customHeight="1">
+    <row r="1" spans="1:50" ht="78" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1094,35 +1100,41 @@
       <c r="AM1" s="5">
         <v>44069</v>
       </c>
-      <c r="AN1" s="5">
+      <c r="AN1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO1" s="5">
         <v>44076</v>
       </c>
-      <c r="AO1" s="5">
+      <c r="AP1" s="5">
         <v>44077</v>
       </c>
-      <c r="AP1" s="5">
+      <c r="AQ1" s="5">
+        <v>44078</v>
+      </c>
+      <c r="AR1" s="5">
         <v>44082</v>
       </c>
-      <c r="AQ1" s="5">
+      <c r="AS1" s="5">
         <v>44083</v>
       </c>
-      <c r="AR1" s="5">
+      <c r="AT1" s="5">
         <v>44084</v>
       </c>
-      <c r="AS1" s="5">
+      <c r="AU1" s="5">
         <v>44086</v>
       </c>
-      <c r="AT1" s="5">
+      <c r="AV1" s="5">
         <v>44088</v>
       </c>
-      <c r="AU1" s="5">
+      <c r="AW1" s="5">
         <v>44089</v>
       </c>
-      <c r="AV1" s="5">
+      <c r="AX1" s="5">
         <v>44090</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="29.25" customHeight="1">
+    <row r="2" spans="1:50" ht="29.25" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1178,18 +1190,20 @@
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
-      <c r="AM2" s="18"/>
+      <c r="AM2" s="17"/>
       <c r="AN2" s="17"/>
       <c r="AO2" s="17"/>
       <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
+      <c r="AQ2" s="18"/>
       <c r="AR2" s="17"/>
       <c r="AS2" s="17"/>
       <c r="AT2" s="17"/>
       <c r="AU2" s="17"/>
       <c r="AV2" s="17"/>
-    </row>
-    <row r="3" spans="1:48" ht="29.25" customHeight="1">
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+    </row>
+    <row r="3" spans="1:50" ht="29.25" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1245,18 +1259,20 @@
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
-      <c r="AM3" s="18"/>
+      <c r="AM3" s="17"/>
       <c r="AN3" s="17"/>
       <c r="AO3" s="17"/>
       <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
+      <c r="AQ3" s="18"/>
       <c r="AR3" s="17"/>
       <c r="AS3" s="17"/>
       <c r="AT3" s="17"/>
       <c r="AU3" s="17"/>
       <c r="AV3" s="17"/>
-    </row>
-    <row r="4" spans="1:48" ht="30" customHeight="1">
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+    </row>
+    <row r="4" spans="1:50" ht="30" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1312,18 +1328,20 @@
       <c r="AJ4" s="17"/>
       <c r="AK4" s="17"/>
       <c r="AL4" s="17"/>
-      <c r="AM4" s="18"/>
+      <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
       <c r="AO4" s="17"/>
       <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
+      <c r="AQ4" s="18"/>
       <c r="AR4" s="17"/>
       <c r="AS4" s="17"/>
       <c r="AT4" s="17"/>
       <c r="AU4" s="17"/>
       <c r="AV4" s="17"/>
-    </row>
-    <row r="5" spans="1:48" ht="34.5" customHeight="1">
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+    </row>
+    <row r="5" spans="1:50" ht="34.5" customHeight="1">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -1379,18 +1397,20 @@
       <c r="AJ5" s="17"/>
       <c r="AK5" s="17"/>
       <c r="AL5" s="17"/>
-      <c r="AM5" s="18"/>
+      <c r="AM5" s="17"/>
       <c r="AN5" s="17"/>
       <c r="AO5" s="17"/>
       <c r="AP5" s="17"/>
-      <c r="AQ5" s="17"/>
+      <c r="AQ5" s="18"/>
       <c r="AR5" s="17"/>
       <c r="AS5" s="17"/>
       <c r="AT5" s="17"/>
       <c r="AU5" s="17"/>
       <c r="AV5" s="17"/>
-    </row>
-    <row r="6" spans="1:48" ht="34.5" customHeight="1">
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+    </row>
+    <row r="6" spans="1:50" ht="34.5" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1446,18 +1466,20 @@
       <c r="AJ6" s="17"/>
       <c r="AK6" s="17"/>
       <c r="AL6" s="17"/>
-      <c r="AM6" s="18"/>
+      <c r="AM6" s="17"/>
       <c r="AN6" s="17"/>
       <c r="AO6" s="17"/>
       <c r="AP6" s="17"/>
-      <c r="AQ6" s="17"/>
+      <c r="AQ6" s="18"/>
       <c r="AR6" s="17"/>
       <c r="AS6" s="17"/>
       <c r="AT6" s="17"/>
       <c r="AU6" s="17"/>
       <c r="AV6" s="17"/>
-    </row>
-    <row r="7" spans="1:48" ht="34.5" customHeight="1">
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+    </row>
+    <row r="7" spans="1:50" ht="34.5" customHeight="1">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -1513,18 +1535,20 @@
       <c r="AJ7" s="17"/>
       <c r="AK7" s="17"/>
       <c r="AL7" s="17"/>
-      <c r="AM7" s="18"/>
+      <c r="AM7" s="17"/>
       <c r="AN7" s="17"/>
       <c r="AO7" s="17"/>
       <c r="AP7" s="17"/>
-      <c r="AQ7" s="17"/>
+      <c r="AQ7" s="18"/>
       <c r="AR7" s="17"/>
       <c r="AS7" s="17"/>
       <c r="AT7" s="17"/>
       <c r="AU7" s="17"/>
       <c r="AV7" s="17"/>
-    </row>
-    <row r="8" spans="1:48" ht="34.5" customHeight="1">
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="17"/>
+    </row>
+    <row r="8" spans="1:50" ht="34.5" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1580,18 +1604,20 @@
       <c r="AJ8" s="17"/>
       <c r="AK8" s="17"/>
       <c r="AL8" s="17"/>
-      <c r="AM8" s="18"/>
+      <c r="AM8" s="17"/>
       <c r="AN8" s="17"/>
       <c r="AO8" s="17"/>
       <c r="AP8" s="17"/>
-      <c r="AQ8" s="17"/>
+      <c r="AQ8" s="18"/>
       <c r="AR8" s="17"/>
       <c r="AS8" s="17"/>
       <c r="AT8" s="17"/>
       <c r="AU8" s="17"/>
       <c r="AV8" s="17"/>
-    </row>
-    <row r="9" spans="1:48" ht="33" customHeight="1">
+      <c r="AW8" s="17"/>
+      <c r="AX8" s="17"/>
+    </row>
+    <row r="9" spans="1:50" ht="33" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1647,18 +1673,20 @@
       <c r="AJ9" s="17"/>
       <c r="AK9" s="17"/>
       <c r="AL9" s="17"/>
-      <c r="AM9" s="18"/>
+      <c r="AM9" s="17"/>
       <c r="AN9" s="17"/>
       <c r="AO9" s="17"/>
       <c r="AP9" s="17"/>
-      <c r="AQ9" s="17"/>
+      <c r="AQ9" s="18"/>
       <c r="AR9" s="17"/>
       <c r="AS9" s="17"/>
       <c r="AT9" s="17"/>
       <c r="AU9" s="17"/>
       <c r="AV9" s="17"/>
-    </row>
-    <row r="10" spans="1:48" ht="34.5" customHeight="1">
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17"/>
+    </row>
+    <row r="10" spans="1:50" ht="34.5" customHeight="1">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -1714,18 +1742,20 @@
       <c r="AJ10" s="17"/>
       <c r="AK10" s="17"/>
       <c r="AL10" s="17"/>
-      <c r="AM10" s="18"/>
+      <c r="AM10" s="17"/>
       <c r="AN10" s="17"/>
       <c r="AO10" s="17"/>
       <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
+      <c r="AQ10" s="18"/>
       <c r="AR10" s="17"/>
       <c r="AS10" s="17"/>
       <c r="AT10" s="17"/>
       <c r="AU10" s="17"/>
       <c r="AV10" s="17"/>
-    </row>
-    <row r="11" spans="1:48" ht="34.5" customHeight="1">
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+    </row>
+    <row r="11" spans="1:50" ht="34.5" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1781,22 +1811,24 @@
       <c r="AJ11" s="17"/>
       <c r="AK11" s="17"/>
       <c r="AL11" s="17"/>
-      <c r="AM11" s="18"/>
+      <c r="AM11" s="17"/>
       <c r="AN11" s="17"/>
       <c r="AO11" s="17"/>
       <c r="AP11" s="17"/>
-      <c r="AQ11" s="17"/>
+      <c r="AQ11" s="18"/>
       <c r="AR11" s="17"/>
       <c r="AS11" s="17"/>
       <c r="AT11" s="17"/>
       <c r="AU11" s="17"/>
       <c r="AV11" s="17"/>
-    </row>
-    <row r="12" spans="1:48" ht="24.75" customHeight="1">
-      <c r="A12" s="52" t="s">
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+    </row>
+    <row r="12" spans="1:50" ht="24.75" customHeight="1">
+      <c r="A12" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="22">
         <f>E12-D12</f>
         <v>37</v>
@@ -1852,8 +1884,10 @@
       <c r="AT12" s="28"/>
       <c r="AU12" s="28"/>
       <c r="AV12" s="28"/>
-    </row>
-    <row r="13" spans="1:48" ht="35.25" customHeight="1">
+      <c r="AW12" s="28"/>
+      <c r="AX12" s="28"/>
+    </row>
+    <row r="13" spans="1:50" ht="35.25" customHeight="1">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1909,18 +1943,20 @@
       <c r="AJ13" s="17"/>
       <c r="AK13" s="17"/>
       <c r="AL13" s="17"/>
-      <c r="AM13" s="18"/>
+      <c r="AM13" s="17"/>
       <c r="AN13" s="17"/>
       <c r="AO13" s="17"/>
       <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
+      <c r="AQ13" s="18"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17"/>
       <c r="AT13" s="17"/>
       <c r="AU13" s="17"/>
       <c r="AV13" s="17"/>
-    </row>
-    <row r="14" spans="1:48" ht="33" customHeight="1">
+      <c r="AW13" s="17"/>
+      <c r="AX13" s="17"/>
+    </row>
+    <row r="14" spans="1:50" ht="33" customHeight="1">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1976,18 +2012,20 @@
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
       <c r="AL14" s="17"/>
-      <c r="AM14" s="18"/>
+      <c r="AM14" s="17"/>
       <c r="AN14" s="17"/>
       <c r="AO14" s="17"/>
       <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
+      <c r="AQ14" s="18"/>
       <c r="AR14" s="17"/>
       <c r="AS14" s="17"/>
       <c r="AT14" s="17"/>
       <c r="AU14" s="17"/>
       <c r="AV14" s="17"/>
-    </row>
-    <row r="15" spans="1:48" ht="34.5" customHeight="1">
+      <c r="AW14" s="17"/>
+      <c r="AX14" s="17"/>
+    </row>
+    <row r="15" spans="1:50" ht="34.5" customHeight="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2043,18 +2081,20 @@
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
       <c r="AL15" s="17"/>
-      <c r="AM15" s="18"/>
+      <c r="AM15" s="17"/>
       <c r="AN15" s="17"/>
       <c r="AO15" s="17"/>
       <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
+      <c r="AQ15" s="18"/>
       <c r="AR15" s="17"/>
       <c r="AS15" s="17"/>
       <c r="AT15" s="17"/>
       <c r="AU15" s="17"/>
       <c r="AV15" s="17"/>
-    </row>
-    <row r="16" spans="1:48" ht="33.75" customHeight="1">
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="17"/>
+    </row>
+    <row r="16" spans="1:50" ht="33.75" customHeight="1">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2110,18 +2150,20 @@
       <c r="AJ16" s="17"/>
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
-      <c r="AM16" s="18"/>
+      <c r="AM16" s="17"/>
       <c r="AN16" s="17"/>
       <c r="AO16" s="17"/>
       <c r="AP16" s="17"/>
-      <c r="AQ16" s="17"/>
+      <c r="AQ16" s="18"/>
       <c r="AR16" s="17"/>
       <c r="AS16" s="17"/>
       <c r="AT16" s="17"/>
       <c r="AU16" s="17"/>
       <c r="AV16" s="17"/>
-    </row>
-    <row r="17" spans="1:48" ht="33.75" customHeight="1">
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="17"/>
+    </row>
+    <row r="17" spans="1:50" ht="33.75" customHeight="1">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -2177,18 +2219,20 @@
       <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
-      <c r="AM17" s="18"/>
+      <c r="AM17" s="17"/>
       <c r="AN17" s="17"/>
       <c r="AO17" s="17"/>
       <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
+      <c r="AQ17" s="18"/>
       <c r="AR17" s="17"/>
       <c r="AS17" s="17"/>
       <c r="AT17" s="17"/>
       <c r="AU17" s="17"/>
       <c r="AV17" s="17"/>
-    </row>
-    <row r="18" spans="1:48" ht="33.75" customHeight="1">
+      <c r="AW17" s="17"/>
+      <c r="AX17" s="17"/>
+    </row>
+    <row r="18" spans="1:50" ht="33.75" customHeight="1">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -2241,21 +2285,23 @@
       <c r="AG18" s="21"/>
       <c r="AH18" s="21"/>
       <c r="AI18" s="21"/>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="18"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
       <c r="AN18" s="17"/>
       <c r="AO18" s="17"/>
       <c r="AP18" s="17"/>
-      <c r="AQ18" s="17"/>
+      <c r="AQ18" s="18"/>
       <c r="AR18" s="17"/>
       <c r="AS18" s="17"/>
       <c r="AT18" s="17"/>
       <c r="AU18" s="17"/>
       <c r="AV18" s="17"/>
-    </row>
-    <row r="19" spans="1:48" ht="33.75" customHeight="1">
+      <c r="AW18" s="17"/>
+      <c r="AX18" s="17"/>
+    </row>
+    <row r="19" spans="1:50" ht="33.75" customHeight="1">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -2276,7 +2322,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="49">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>35</v>
@@ -2305,24 +2351,26 @@
       <c r="AD19" s="21"/>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="18"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
       <c r="AN19" s="17"/>
       <c r="AO19" s="17"/>
       <c r="AP19" s="17"/>
-      <c r="AQ19" s="17"/>
+      <c r="AQ19" s="18"/>
       <c r="AR19" s="17"/>
       <c r="AS19" s="17"/>
       <c r="AT19" s="17"/>
       <c r="AU19" s="17"/>
       <c r="AV19" s="17"/>
-    </row>
-    <row r="20" spans="1:48" ht="33.75" customHeight="1">
+      <c r="AW19" s="17"/>
+      <c r="AX19" s="17"/>
+    </row>
+    <row r="20" spans="1:50" ht="33.75" customHeight="1">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -2378,18 +2426,20 @@
       <c r="AJ20" s="30"/>
       <c r="AK20" s="30"/>
       <c r="AL20" s="30"/>
-      <c r="AM20" s="33"/>
+      <c r="AM20" s="30"/>
       <c r="AN20" s="30"/>
-      <c r="AO20" s="17"/>
+      <c r="AO20" s="30"/>
       <c r="AP20" s="17"/>
-      <c r="AQ20" s="17"/>
+      <c r="AQ20" s="33"/>
       <c r="AR20" s="17"/>
       <c r="AS20" s="17"/>
       <c r="AT20" s="17"/>
       <c r="AU20" s="17"/>
       <c r="AV20" s="17"/>
-    </row>
-    <row r="21" spans="1:48" ht="33" customHeight="1">
+      <c r="AW20" s="17"/>
+      <c r="AX20" s="17"/>
+    </row>
+    <row r="21" spans="1:50" ht="33" customHeight="1">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -2410,7 +2460,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="49">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="H21" s="36" t="s">
         <v>40</v>
@@ -2442,39 +2492,41 @@
       <c r="AG21" s="21"/>
       <c r="AH21" s="21"/>
       <c r="AI21" s="21"/>
-      <c r="AJ21" s="21"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="33"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
       <c r="AN21" s="30"/>
       <c r="AO21" s="30"/>
       <c r="AP21" s="30"/>
-      <c r="AQ21" s="17"/>
-      <c r="AR21" s="17"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
+      <c r="AQ21" s="33"/>
+      <c r="AR21" s="30"/>
+      <c r="AS21" s="17"/>
+      <c r="AT21" s="17"/>
       <c r="AU21" s="38"/>
       <c r="AV21" s="38"/>
-    </row>
-    <row r="22" spans="1:48" ht="24" customHeight="1">
-      <c r="A22" s="52" t="s">
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+    </row>
+    <row r="22" spans="1:50" ht="24" customHeight="1">
+      <c r="A22" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="39">
         <f>E22-D22</f>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D22" s="23">
         <v>44030</v>
       </c>
       <c r="E22" s="23">
-        <v>44065</v>
+        <v>44073</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="50">
         <f>AVERAGE(G13:G21)</f>
-        <v>0.93888888888888899</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="H22" s="41"/>
       <c r="I22" s="40"/>
@@ -2517,8 +2569,10 @@
       <c r="AT22" s="28"/>
       <c r="AU22" s="28"/>
       <c r="AV22" s="28"/>
-    </row>
-    <row r="23" spans="1:48" ht="33" customHeight="1">
+      <c r="AW22" s="28"/>
+      <c r="AX22" s="28"/>
+    </row>
+    <row r="23" spans="1:50" ht="33" customHeight="1">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -2529,16 +2583,16 @@
         <v>2</v>
       </c>
       <c r="D23" s="9">
-        <v>44065</v>
+        <v>44073</v>
       </c>
       <c r="E23" s="9">
-        <v>44067</v>
+        <v>44076</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="51">
-        <v>0</v>
+      <c r="G23" s="47">
+        <v>0.6</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>43</v>
@@ -2570,21 +2624,23 @@
       <c r="AG23" s="42"/>
       <c r="AH23" s="30"/>
       <c r="AI23" s="30"/>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="17"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="42"/>
       <c r="AL23" s="30"/>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="17"/>
       <c r="AP23" s="30"/>
-      <c r="AQ23" s="17"/>
-      <c r="AR23" s="38"/>
-      <c r="AS23" s="38"/>
+      <c r="AQ23" s="33"/>
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="17"/>
       <c r="AT23" s="38"/>
       <c r="AU23" s="38"/>
       <c r="AV23" s="38"/>
-    </row>
-    <row r="24" spans="1:48" ht="39" customHeight="1">
+      <c r="AW23" s="38"/>
+      <c r="AX23" s="38"/>
+    </row>
+    <row r="24" spans="1:50" ht="39" customHeight="1">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -2595,16 +2651,16 @@
         <v>2</v>
       </c>
       <c r="D24" s="9">
-        <v>44065</v>
+        <v>44073</v>
       </c>
       <c r="E24" s="9">
-        <v>44067</v>
+        <v>44076</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="47">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>43</v>
@@ -2636,21 +2692,23 @@
       <c r="AG24" s="42"/>
       <c r="AH24" s="30"/>
       <c r="AI24" s="30"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="42"/>
       <c r="AL24" s="30"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="32"/>
+      <c r="AO24" s="32"/>
       <c r="AP24" s="30"/>
-      <c r="AQ24" s="17"/>
-      <c r="AR24" s="38"/>
-      <c r="AS24" s="38"/>
+      <c r="AQ24" s="33"/>
+      <c r="AR24" s="30"/>
+      <c r="AS24" s="17"/>
       <c r="AT24" s="38"/>
       <c r="AU24" s="38"/>
       <c r="AV24" s="38"/>
-    </row>
-    <row r="25" spans="1:48" ht="34.5" customHeight="1">
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="38"/>
+    </row>
+    <row r="25" spans="1:50" ht="34.5" customHeight="1">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -2661,16 +2719,16 @@
         <v>2</v>
       </c>
       <c r="D25" s="9">
-        <v>44065</v>
+        <v>44073</v>
       </c>
       <c r="E25" s="9">
-        <v>44067</v>
+        <v>44076</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="51">
-        <v>0</v>
+      <c r="G25" s="47">
+        <v>0.1</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>46</v>
@@ -2702,38 +2760,40 @@
       <c r="AG25" s="42"/>
       <c r="AH25" s="17"/>
       <c r="AI25" s="38"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
+      <c r="AJ25" s="42"/>
+      <c r="AK25" s="42"/>
       <c r="AL25" s="38"/>
-      <c r="AM25" s="18"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="30"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="32"/>
       <c r="AP25" s="30"/>
-      <c r="AQ25" s="17"/>
-      <c r="AR25" s="38"/>
-      <c r="AS25" s="38"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="30"/>
+      <c r="AS25" s="17"/>
       <c r="AT25" s="38"/>
       <c r="AU25" s="38"/>
       <c r="AV25" s="38"/>
-    </row>
-    <row r="26" spans="1:48" ht="24.75" customHeight="1">
-      <c r="A26" s="52" t="s">
+      <c r="AW25" s="38"/>
+      <c r="AX25" s="38"/>
+    </row>
+    <row r="26" spans="1:50" ht="24.75" customHeight="1">
+      <c r="A26" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="39">
         <v>2</v>
       </c>
-      <c r="D26" s="23">
-        <v>44065</v>
+      <c r="D26" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="E26" s="23">
-        <v>44067</v>
+        <v>44076</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="50">
         <f>AVERAGE(G23:G25)</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="H26" s="41"/>
       <c r="I26" s="40"/>
@@ -2776,8 +2836,10 @@
       <c r="AT26" s="28"/>
       <c r="AU26" s="28"/>
       <c r="AV26" s="28"/>
-    </row>
-    <row r="27" spans="1:48" ht="37.5" customHeight="1">
+      <c r="AW26" s="28"/>
+      <c r="AX26" s="28"/>
+    </row>
+    <row r="27" spans="1:50" ht="37.5" customHeight="1">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -2788,10 +2850,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="9">
-        <v>44068</v>
+        <v>44076</v>
       </c>
       <c r="E27" s="9">
-        <v>44069</v>
+        <v>44078</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>16</v>
@@ -2831,19 +2893,21 @@
       <c r="AI27" s="45"/>
       <c r="AJ27" s="45"/>
       <c r="AK27" s="45"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="18"/>
-      <c r="AN27" s="38"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="17"/>
-      <c r="AQ27" s="30"/>
-      <c r="AR27" s="30"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="38"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="18"/>
+      <c r="AR27" s="17"/>
       <c r="AS27" s="30"/>
-      <c r="AT27" s="17"/>
-      <c r="AU27" s="17"/>
+      <c r="AT27" s="30"/>
+      <c r="AU27" s="30"/>
       <c r="AV27" s="17"/>
-    </row>
-    <row r="28" spans="1:48" ht="39.75" customHeight="1">
+      <c r="AW27" s="17"/>
+      <c r="AX27" s="17"/>
+    </row>
+    <row r="28" spans="1:50" ht="39.75" customHeight="1">
       <c r="A28" s="6">
         <v>24</v>
       </c>
@@ -2854,16 +2918,16 @@
         <v>1</v>
       </c>
       <c r="D28" s="9">
-        <v>44068</v>
+        <v>44076</v>
       </c>
       <c r="E28" s="9">
-        <v>44069</v>
+        <v>44078</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="51">
-        <v>0</v>
+      <c r="G28" s="47">
+        <v>0.1</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>51</v>
@@ -2897,19 +2961,21 @@
       <c r="AI28" s="45"/>
       <c r="AJ28" s="45"/>
       <c r="AK28" s="45"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="18"/>
-      <c r="AN28" s="38"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
+      <c r="AL28" s="45"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="45"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="17"/>
       <c r="AS28" s="30"/>
       <c r="AT28" s="30"/>
       <c r="AU28" s="30"/>
-      <c r="AV28" s="17"/>
-    </row>
-    <row r="29" spans="1:48" ht="36" customHeight="1">
+      <c r="AV28" s="30"/>
+      <c r="AW28" s="30"/>
+      <c r="AX28" s="17"/>
+    </row>
+    <row r="29" spans="1:50" ht="36" customHeight="1">
       <c r="A29" s="6">
         <v>25</v>
       </c>
@@ -2920,16 +2986,16 @@
         <v>1</v>
       </c>
       <c r="D29" s="9">
-        <v>44068</v>
+        <v>44076</v>
       </c>
       <c r="E29" s="9">
-        <v>44069</v>
+        <v>44078</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="51">
-        <v>0</v>
+      <c r="G29" s="47">
+        <v>0.4</v>
       </c>
       <c r="H29" s="36" t="s">
         <v>53</v>
@@ -2963,19 +3029,21 @@
       <c r="AI29" s="45"/>
       <c r="AJ29" s="45"/>
       <c r="AK29" s="45"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="18"/>
-      <c r="AN29" s="38"/>
-      <c r="AO29" s="17"/>
-      <c r="AP29" s="17"/>
-      <c r="AQ29" s="17"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="38"/>
+      <c r="AP29" s="32"/>
+      <c r="AQ29" s="18"/>
       <c r="AR29" s="17"/>
-      <c r="AS29" s="30"/>
-      <c r="AT29" s="30"/>
+      <c r="AS29" s="17"/>
+      <c r="AT29" s="17"/>
       <c r="AU29" s="30"/>
-      <c r="AV29" s="17"/>
-    </row>
-    <row r="30" spans="1:48" ht="39.75" customHeight="1">
+      <c r="AV29" s="30"/>
+      <c r="AW29" s="30"/>
+      <c r="AX29" s="17"/>
+    </row>
+    <row r="30" spans="1:50" ht="39.75" customHeight="1">
       <c r="A30" s="6">
         <v>26</v>
       </c>
@@ -2986,10 +3054,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="9">
-        <v>44068</v>
+        <v>44076</v>
       </c>
       <c r="E30" s="9">
-        <v>44069</v>
+        <v>44078</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>8</v>
@@ -3029,19 +3097,21 @@
       <c r="AI30" s="45"/>
       <c r="AJ30" s="45"/>
       <c r="AK30" s="45"/>
-      <c r="AL30" s="32"/>
-      <c r="AM30" s="18"/>
-      <c r="AN30" s="38"/>
-      <c r="AO30" s="17"/>
-      <c r="AP30" s="17"/>
-      <c r="AQ30" s="17"/>
+      <c r="AL30" s="45"/>
+      <c r="AM30" s="38"/>
+      <c r="AN30" s="45"/>
+      <c r="AO30" s="38"/>
+      <c r="AP30" s="32"/>
+      <c r="AQ30" s="18"/>
       <c r="AR30" s="17"/>
       <c r="AS30" s="17"/>
-      <c r="AT30" s="30"/>
-      <c r="AU30" s="30"/>
+      <c r="AT30" s="17"/>
+      <c r="AU30" s="17"/>
       <c r="AV30" s="30"/>
-    </row>
-    <row r="31" spans="1:48" ht="36.75" customHeight="1">
+      <c r="AW30" s="30"/>
+      <c r="AX30" s="30"/>
+    </row>
+    <row r="31" spans="1:50" ht="36.75" customHeight="1">
       <c r="A31" s="6">
         <v>27</v>
       </c>
@@ -3052,10 +3122,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="9">
-        <v>44068</v>
+        <v>44076</v>
       </c>
       <c r="E31" s="9">
-        <v>44069</v>
+        <v>44078</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>13</v>
@@ -3096,35 +3166,37 @@
       <c r="AJ31" s="38"/>
       <c r="AK31" s="38"/>
       <c r="AL31" s="38"/>
-      <c r="AM31" s="32"/>
+      <c r="AM31" s="38"/>
       <c r="AN31" s="38"/>
-      <c r="AO31" s="17"/>
+      <c r="AO31" s="38"/>
       <c r="AP31" s="17"/>
-      <c r="AQ31" s="17"/>
+      <c r="AQ31" s="32"/>
       <c r="AR31" s="17"/>
       <c r="AS31" s="17"/>
       <c r="AT31" s="17"/>
       <c r="AU31" s="17"/>
-      <c r="AV31" s="30"/>
-    </row>
-    <row r="32" spans="1:48" ht="27.75" customHeight="1">
-      <c r="A32" s="56" t="s">
+      <c r="AV31" s="17"/>
+      <c r="AW31" s="17"/>
+      <c r="AX31" s="30"/>
+    </row>
+    <row r="32" spans="1:50" ht="27.75" customHeight="1">
+      <c r="A32" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="58">
+      <c r="B32" s="60"/>
+      <c r="C32" s="54">
         <v>1</v>
       </c>
-      <c r="D32" s="54">
-        <v>44068</v>
-      </c>
-      <c r="E32" s="54">
-        <v>44069</v>
-      </c>
-      <c r="F32" s="55"/>
+      <c r="D32" s="23">
+        <v>44076</v>
+      </c>
+      <c r="E32" s="52">
+        <v>44078</v>
+      </c>
+      <c r="F32" s="53"/>
       <c r="G32" s="40">
         <f>AVERAGE(G27:G31)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H32" s="41"/>
       <c r="I32" s="40"/>
@@ -3167,19 +3239,21 @@
       <c r="AT32" s="28"/>
       <c r="AU32" s="28"/>
       <c r="AV32" s="28"/>
+      <c r="AW32" s="28"/>
+      <c r="AX32" s="28"/>
     </row>
     <row r="33" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60">
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="55">
         <f>(G12*C12+G22*C22+G26*C26+G32*C32)/(C12+C22+C26+C32)</f>
-        <v>0.9323703703703704</v>
+        <v>0.96191432396251675</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1">

--- a/Desarrollo/SMZR/Gestión/SMZR_CA.xlsx
+++ b/Desarrollo/SMZR/Gestión/SMZR_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD431057-922D-9342-8E45-2E79C7E84937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8D0424-530A-794A-8E4B-5A3F332F0D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>N°</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Pruebas de sistema y aceptación</t>
   </si>
   <si>
-    <t>Análisis de resultados</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -182,12 +179,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>Elaborar el Documento de Aceptación del Cliente</t>
-  </si>
-  <si>
-    <t>4, 7</t>
-  </si>
-  <si>
     <t>Elaborar los manuales de usuario</t>
   </si>
   <si>
@@ -242,10 +233,22 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>30/8/2020</t>
-  </si>
-  <si>
-    <t>30/9/2020</t>
+    <t>29/8/2020</t>
+  </si>
+  <si>
+    <t>31/8/2020</t>
+  </si>
+  <si>
+    <t>Documento de Análisis de resultados</t>
+  </si>
+  <si>
+    <t>Documento de Pruebas funcionales</t>
+  </si>
+  <si>
+    <t>Documento de aceptación del cliente</t>
+  </si>
+  <si>
+    <t>3,6,7</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,20 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF006100"/>
@@ -352,24 +341,12 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="Nunito Regular"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="Nunito Regular"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Nunito Regular"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,22 +408,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA1C7E2"/>
         <bgColor rgb="FFACD4EF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -541,14 +508,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,9 +581,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -645,9 +622,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -686,22 +660,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="11" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -710,10 +675,28 @@
     <xf numFmtId="3" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,11 +711,12 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -951,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX1008"/>
+  <dimension ref="A1:AP1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="AL22" sqref="AL22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -977,12 +961,12 @@
     <col min="28" max="29" width="5.1640625" customWidth="1"/>
     <col min="30" max="31" width="4.5" customWidth="1"/>
     <col min="32" max="40" width="4.33203125" customWidth="1"/>
-    <col min="41" max="45" width="5.1640625" customWidth="1"/>
-    <col min="46" max="48" width="5.83203125" customWidth="1"/>
-    <col min="49" max="54" width="9.33203125" customWidth="1"/>
+    <col min="41" max="44" width="5.1640625" customWidth="1"/>
+    <col min="45" max="47" width="5.83203125" customWidth="1"/>
+    <col min="48" max="53" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="78" customHeight="1">
+    <row r="1" spans="1:42" ht="78" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -990,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1089,52 +1073,28 @@
         <v>44063</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AM1" s="5">
         <v>44069</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO1" s="5">
+        <v>67</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP1" s="56">
         <v>44076</v>
       </c>
-      <c r="AP1" s="5">
-        <v>44077</v>
-      </c>
-      <c r="AQ1" s="5">
-        <v>44078</v>
-      </c>
-      <c r="AR1" s="5">
-        <v>44082</v>
-      </c>
-      <c r="AS1" s="5">
-        <v>44083</v>
-      </c>
-      <c r="AT1" s="5">
-        <v>44084</v>
-      </c>
-      <c r="AU1" s="5">
-        <v>44086</v>
-      </c>
-      <c r="AV1" s="5">
-        <v>44088</v>
-      </c>
-      <c r="AW1" s="5">
-        <v>44089</v>
-      </c>
-      <c r="AX1" s="5">
-        <v>44090</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" ht="29.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:42" ht="29.25" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1154,7 +1114,7 @@
       <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="47">
+      <c r="G2" s="45">
         <v>1</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -1193,21 +1153,13 @@
       <c r="AM2" s="17"/>
       <c r="AN2" s="17"/>
       <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-    </row>
-    <row r="3" spans="1:50" ht="29.25" customHeight="1">
+      <c r="AP2" s="53"/>
+    </row>
+    <row r="3" spans="1:42" ht="29.25" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="8">
@@ -1223,7 +1175,7 @@
       <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="45">
         <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
@@ -1262,21 +1214,13 @@
       <c r="AM3" s="17"/>
       <c r="AN3" s="17"/>
       <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="18"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-    </row>
-    <row r="4" spans="1:50" ht="30" customHeight="1">
+      <c r="AP3" s="53"/>
+    </row>
+    <row r="4" spans="1:42" ht="30" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="8">
@@ -1292,7 +1236,7 @@
       <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="45">
         <v>1</v>
       </c>
       <c r="H4" s="12" t="s">
@@ -1331,21 +1275,13 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
       <c r="AO4" s="17"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-    </row>
-    <row r="5" spans="1:50" ht="34.5" customHeight="1">
-      <c r="A5" s="20">
+      <c r="AP4" s="53"/>
+    </row>
+    <row r="5" spans="1:42" ht="34.5" customHeight="1">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="8">
@@ -1361,7 +1297,7 @@
       <c r="F5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="45">
         <v>1</v>
       </c>
       <c r="H5" s="12" t="s">
@@ -1369,9 +1305,9 @@
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
@@ -1400,21 +1336,13 @@
       <c r="AM5" s="17"/>
       <c r="AN5" s="17"/>
       <c r="AO5" s="17"/>
-      <c r="AP5" s="17"/>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="17"/>
-      <c r="AV5" s="17"/>
-      <c r="AW5" s="17"/>
-      <c r="AX5" s="17"/>
-    </row>
-    <row r="6" spans="1:50" ht="34.5" customHeight="1">
+      <c r="AP5" s="53"/>
+    </row>
+    <row r="6" spans="1:42" ht="34.5" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="8">
@@ -1430,7 +1358,7 @@
       <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="45">
         <v>1</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -1438,11 +1366,11 @@
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
@@ -1469,21 +1397,13 @@
       <c r="AM6" s="17"/>
       <c r="AN6" s="17"/>
       <c r="AO6" s="17"/>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="18"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="17"/>
-      <c r="AV6" s="17"/>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="17"/>
-    </row>
-    <row r="7" spans="1:50" ht="34.5" customHeight="1">
-      <c r="A7" s="20">
+      <c r="AP6" s="53"/>
+    </row>
+    <row r="7" spans="1:42" ht="34.5" customHeight="1">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="8">
@@ -1499,7 +1419,7 @@
       <c r="F7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="45">
         <v>1</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -1509,9 +1429,9 @@
       <c r="J7" s="11"/>
       <c r="K7" s="16"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
@@ -1538,21 +1458,13 @@
       <c r="AM7" s="17"/>
       <c r="AN7" s="17"/>
       <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-    </row>
-    <row r="8" spans="1:50" ht="34.5" customHeight="1">
+      <c r="AP7" s="53"/>
+    </row>
+    <row r="8" spans="1:42" ht="34.5" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="8">
@@ -1568,7 +1480,7 @@
       <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="45">
         <v>1</v>
       </c>
       <c r="H8" s="12" t="s">
@@ -1578,9 +1490,9 @@
       <c r="J8" s="11"/>
       <c r="K8" s="16"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
@@ -1607,21 +1519,13 @@
       <c r="AM8" s="17"/>
       <c r="AN8" s="17"/>
       <c r="AO8" s="17"/>
-      <c r="AP8" s="17"/>
-      <c r="AQ8" s="18"/>
-      <c r="AR8" s="17"/>
-      <c r="AS8" s="17"/>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
-      <c r="AW8" s="17"/>
-      <c r="AX8" s="17"/>
-    </row>
-    <row r="9" spans="1:50" ht="33" customHeight="1">
+      <c r="AP8" s="53"/>
+    </row>
+    <row r="9" spans="1:42" ht="33" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="8">
@@ -1637,7 +1541,7 @@
       <c r="F9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="45">
         <v>1</v>
       </c>
       <c r="H9" s="12" t="s">
@@ -1648,13 +1552,13 @@
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
       <c r="U9" s="16"/>
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
@@ -1676,22 +1580,14 @@
       <c r="AM9" s="17"/>
       <c r="AN9" s="17"/>
       <c r="AO9" s="17"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-    </row>
-    <row r="10" spans="1:50" ht="34.5" customHeight="1">
-      <c r="A10" s="20">
+      <c r="AP9" s="53"/>
+    </row>
+    <row r="10" spans="1:42" ht="34.5" customHeight="1">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>60</v>
+      <c r="B10" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
@@ -1706,7 +1602,7 @@
       <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="45">
         <v>1</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -1720,10 +1616,10 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
       <c r="U10" s="16"/>
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
@@ -1745,22 +1641,14 @@
       <c r="AM10" s="17"/>
       <c r="AN10" s="17"/>
       <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="18"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-    </row>
-    <row r="11" spans="1:50" ht="34.5" customHeight="1">
+      <c r="AP10" s="53"/>
+    </row>
+    <row r="11" spans="1:42" ht="34.5" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>62</v>
+      <c r="B11" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
@@ -1775,7 +1663,7 @@
       <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="45">
         <v>1</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -1789,11 +1677,11 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
@@ -1814,84 +1702,68 @@
       <c r="AM11" s="17"/>
       <c r="AN11" s="17"/>
       <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="18"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="17"/>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-    </row>
-    <row r="12" spans="1:50" ht="24.75" customHeight="1">
-      <c r="A12" s="57" t="s">
+      <c r="AP11" s="53"/>
+    </row>
+    <row r="12" spans="1:42" ht="24.75" customHeight="1">
+      <c r="A12" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="22">
+      <c r="B12" s="59"/>
+      <c r="C12" s="21">
         <f>E12-D12</f>
         <v>37</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>43992</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>44029</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="48">
+      <c r="F12" s="23"/>
+      <c r="G12" s="46">
         <v>1</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
-      <c r="AQ12" s="28"/>
-      <c r="AR12" s="28"/>
-      <c r="AS12" s="28"/>
-      <c r="AT12" s="28"/>
-      <c r="AU12" s="28"/>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="28"/>
-      <c r="AX12" s="28"/>
-    </row>
-    <row r="13" spans="1:50" ht="35.25" customHeight="1">
+      <c r="H12" s="25"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="52"/>
+    </row>
+    <row r="13" spans="1:42" ht="35.25" customHeight="1">
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="8">
@@ -1907,7 +1779,7 @@
       <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="45">
         <v>1</v>
       </c>
       <c r="H13" s="12" t="s">
@@ -1915,20 +1787,20 @@
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
       <c r="AA13" s="17"/>
@@ -1946,22 +1818,14 @@
       <c r="AM13" s="17"/>
       <c r="AN13" s="17"/>
       <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="18"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-    </row>
-    <row r="14" spans="1:50" ht="33" customHeight="1">
+      <c r="AP13" s="53"/>
+    </row>
+    <row r="14" spans="1:42" ht="33" customHeight="1">
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>61</v>
+      <c r="B14" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="C14" s="8">
         <f t="shared" si="1"/>
@@ -1976,29 +1840,29 @@
       <c r="F14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="45">
         <v>1</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
       <c r="Z14" s="17"/>
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
@@ -2015,21 +1879,13 @@
       <c r="AM14" s="17"/>
       <c r="AN14" s="17"/>
       <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="18"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-    </row>
-    <row r="15" spans="1:50" ht="34.5" customHeight="1">
+      <c r="AP14" s="53"/>
+    </row>
+    <row r="15" spans="1:42" ht="34.5" customHeight="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="8">
@@ -2045,7 +1901,7 @@
       <c r="F15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="45">
         <v>1</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -2053,30 +1909,30 @@
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
       <c r="V15" s="17"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
       <c r="AI15" s="17"/>
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
@@ -2084,21 +1940,13 @@
       <c r="AM15" s="17"/>
       <c r="AN15" s="17"/>
       <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="18"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="17"/>
-      <c r="AT15" s="17"/>
-      <c r="AU15" s="17"/>
-      <c r="AV15" s="17"/>
-      <c r="AW15" s="17"/>
-      <c r="AX15" s="17"/>
-    </row>
-    <row r="16" spans="1:50" ht="33.75" customHeight="1">
+      <c r="AP15" s="53"/>
+    </row>
+    <row r="16" spans="1:42" ht="33.75" customHeight="1">
       <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="8">
@@ -2114,33 +1962,33 @@
       <c r="F16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="45">
         <v>1</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
       <c r="AD16" s="17"/>
       <c r="AE16" s="17"/>
       <c r="AF16" s="17"/>
@@ -2153,21 +2001,13 @@
       <c r="AM16" s="17"/>
       <c r="AN16" s="17"/>
       <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="18"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17"/>
-      <c r="AW16" s="17"/>
-      <c r="AX16" s="17"/>
-    </row>
-    <row r="17" spans="1:50" ht="33.75" customHeight="1">
+      <c r="AP16" s="53"/>
+    </row>
+    <row r="17" spans="1:42" ht="33.75" customHeight="1">
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="8">
@@ -2183,198 +2023,174 @@
       <c r="F17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="45">
         <v>1</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
       <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
       <c r="AM17" s="17"/>
       <c r="AN17" s="17"/>
       <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-    </row>
-    <row r="18" spans="1:50" ht="33.75" customHeight="1">
+      <c r="AP17" s="53"/>
+    </row>
+    <row r="18" spans="1:42" ht="33.75" customHeight="1">
       <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9">
         <v>44035</v>
       </c>
       <c r="E18" s="9">
-        <v>44065</v>
+        <v>44072</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="49">
-        <v>0.9</v>
+      <c r="G18" s="45">
+        <v>1</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
       <c r="AN18" s="17"/>
       <c r="AO18" s="17"/>
-      <c r="AP18" s="17"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="17"/>
-    </row>
-    <row r="19" spans="1:50" ht="33.75" customHeight="1">
+      <c r="AP18" s="53"/>
+    </row>
+    <row r="19" spans="1:42" ht="33.75" customHeight="1">
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D19" s="9">
         <v>44035</v>
       </c>
       <c r="E19" s="9">
-        <v>44065</v>
+        <v>44072</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="49">
-        <v>0.9</v>
+      <c r="G19" s="45">
+        <v>1</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="32"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31"/>
       <c r="AN19" s="17"/>
       <c r="AO19" s="17"/>
-      <c r="AP19" s="17"/>
-      <c r="AQ19" s="18"/>
-      <c r="AR19" s="17"/>
-      <c r="AS19" s="17"/>
-      <c r="AT19" s="17"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="17"/>
-      <c r="AW19" s="17"/>
-      <c r="AX19" s="17"/>
-    </row>
-    <row r="20" spans="1:50" ht="33.75" customHeight="1">
+      <c r="AP19" s="53"/>
+    </row>
+    <row r="20" spans="1:42" ht="33.75" customHeight="1">
       <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="8">
@@ -2390,61 +2206,53 @@
       <c r="F20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="45">
         <v>1</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
+        <v>61</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
       <c r="AE20" s="17"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="17"/>
-      <c r="AQ20" s="33"/>
-      <c r="AR20" s="17"/>
-      <c r="AS20" s="17"/>
-      <c r="AT20" s="17"/>
-      <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="17"/>
-      <c r="AX20" s="17"/>
-    </row>
-    <row r="21" spans="1:50" ht="33" customHeight="1">
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="51"/>
+    </row>
+    <row r="21" spans="1:42" ht="33" customHeight="1">
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>65</v>
+      <c r="B21" s="32" t="s">
+        <v>62</v>
       </c>
       <c r="C21" s="8">
         <f>E21-D21</f>
@@ -2459,846 +2267,807 @@
       <c r="F21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="49">
-        <v>0.95</v>
-      </c>
-      <c r="H21" s="36" t="s">
+      <c r="G21" s="45">
+        <v>1</v>
+      </c>
+      <c r="H21" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="21"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
-      <c r="AQ21" s="33"/>
-      <c r="AR21" s="30"/>
-      <c r="AS21" s="17"/>
-      <c r="AT21" s="17"/>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-    </row>
-    <row r="22" spans="1:50" ht="24" customHeight="1">
-      <c r="A22" s="57" t="s">
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="51"/>
+    </row>
+    <row r="22" spans="1:42" ht="24" customHeight="1">
+      <c r="A22" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="39">
+      <c r="B22" s="59"/>
+      <c r="C22" s="37">
         <f>E22-D22</f>
-        <v>43</v>
-      </c>
-      <c r="D22" s="23">
+        <v>42</v>
+      </c>
+      <c r="D22" s="22">
         <v>44030</v>
       </c>
-      <c r="E22" s="23">
-        <v>44073</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="50">
+      <c r="E22" s="22">
+        <v>44072</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="47">
         <f>AVERAGE(G13:G21)</f>
-        <v>0.97222222222222221</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="28"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
-      <c r="AP22" s="28"/>
-      <c r="AQ22" s="28"/>
-      <c r="AR22" s="28"/>
-      <c r="AS22" s="28"/>
-      <c r="AT22" s="28"/>
-      <c r="AU22" s="28"/>
-      <c r="AV22" s="28"/>
-      <c r="AW22" s="28"/>
-      <c r="AX22" s="28"/>
-    </row>
-    <row r="23" spans="1:50" ht="33" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="52"/>
+    </row>
+    <row r="23" spans="1:42" ht="33" customHeight="1">
       <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="8">
         <v>2</v>
       </c>
       <c r="D23" s="9">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="E23" s="9">
-        <v>44076</v>
+        <v>44074</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="47">
-        <v>0.6</v>
-      </c>
-      <c r="H23" s="36" t="s">
+      <c r="G23" s="45">
+        <v>1</v>
+      </c>
+      <c r="H23" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="42"/>
-      <c r="AL23" s="30"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="21"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="29"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="20"/>
       <c r="AO23" s="17"/>
-      <c r="AP23" s="30"/>
-      <c r="AQ23" s="33"/>
-      <c r="AR23" s="30"/>
-      <c r="AS23" s="17"/>
-      <c r="AT23" s="38"/>
-      <c r="AU23" s="38"/>
-      <c r="AV23" s="38"/>
-      <c r="AW23" s="38"/>
-      <c r="AX23" s="38"/>
-    </row>
-    <row r="24" spans="1:50" ht="39" customHeight="1">
+      <c r="AP23" s="51"/>
+    </row>
+    <row r="24" spans="1:42" ht="39" customHeight="1">
       <c r="A24" s="6">
         <v>21</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="32" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="8">
         <v>2</v>
       </c>
       <c r="D24" s="9">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="E24" s="9">
-        <v>44076</v>
+        <v>44074</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="47">
-        <v>0.7</v>
-      </c>
-      <c r="H24" s="36" t="s">
+      <c r="G24" s="45">
+        <v>1</v>
+      </c>
+      <c r="H24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="42"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="33"/>
-      <c r="AR24" s="30"/>
-      <c r="AS24" s="17"/>
-      <c r="AT24" s="38"/>
-      <c r="AU24" s="38"/>
-      <c r="AV24" s="38"/>
-      <c r="AW24" s="38"/>
-      <c r="AX24" s="38"/>
-    </row>
-    <row r="25" spans="1:50" ht="34.5" customHeight="1">
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="31"/>
+      <c r="AO24" s="31"/>
+      <c r="AP24" s="51"/>
+    </row>
+    <row r="25" spans="1:42" ht="39" customHeight="1">
       <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>45</v>
+      <c r="B25" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="C25" s="8">
         <v>2</v>
       </c>
       <c r="D25" s="9">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="E25" s="9">
-        <v>44076</v>
+        <v>44074</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="47">
-        <v>0.1</v>
-      </c>
-      <c r="H25" s="44" t="s">
+      <c r="G25" s="45">
+        <v>1</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="29"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="31"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="51"/>
+    </row>
+    <row r="26" spans="1:42" ht="34.5" customHeight="1">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>44072</v>
+      </c>
+      <c r="E26" s="9">
+        <v>44074</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="45">
+        <v>1</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="31"/>
+      <c r="AP26" s="53"/>
+    </row>
+    <row r="27" spans="1:42" ht="24.75" customHeight="1">
+      <c r="A27" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="42"/>
-      <c r="AK25" s="42"/>
-      <c r="AL25" s="38"/>
-      <c r="AM25" s="17"/>
-      <c r="AN25" s="32"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="30"/>
-      <c r="AQ25" s="18"/>
-      <c r="AR25" s="30"/>
-      <c r="AS25" s="17"/>
-      <c r="AT25" s="38"/>
-      <c r="AU25" s="38"/>
-      <c r="AV25" s="38"/>
-      <c r="AW25" s="38"/>
-      <c r="AX25" s="38"/>
-    </row>
-    <row r="26" spans="1:50" ht="24.75" customHeight="1">
-      <c r="A26" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="39">
+      <c r="B27" s="59"/>
+      <c r="C27" s="37">
         <v>2</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="23">
-        <v>44076</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="50">
-        <f>AVERAGE(G23:G25)</f>
-        <v>0.46666666666666662</v>
-      </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
-      <c r="AP26" s="28"/>
-      <c r="AQ26" s="28"/>
-      <c r="AR26" s="28"/>
-      <c r="AS26" s="28"/>
-      <c r="AT26" s="28"/>
-      <c r="AU26" s="28"/>
-      <c r="AV26" s="28"/>
-      <c r="AW26" s="28"/>
-      <c r="AX26" s="28"/>
-    </row>
-    <row r="27" spans="1:50" ht="37.5" customHeight="1">
-      <c r="A27" s="6">
-        <v>23</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="D27" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="47">
+        <f>AVERAGE(G23:G26)</f>
         <v>1</v>
       </c>
-      <c r="D27" s="9">
-        <v>44076</v>
-      </c>
-      <c r="E27" s="9">
-        <v>44078</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="51">
-        <v>0</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="38"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="38"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="38"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="18"/>
-      <c r="AR27" s="17"/>
-      <c r="AS27" s="30"/>
-      <c r="AT27" s="30"/>
-      <c r="AU27" s="30"/>
-      <c r="AV27" s="17"/>
-      <c r="AW27" s="17"/>
-      <c r="AX27" s="17"/>
-    </row>
-    <row r="28" spans="1:50" ht="39.75" customHeight="1">
+      <c r="H27" s="39"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
+      <c r="AP27" s="52"/>
+    </row>
+    <row r="28" spans="1:42" ht="37.5" customHeight="1">
       <c r="A28" s="6">
         <v>24</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>50</v>
+      <c r="B28" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="C28" s="8">
         <v>1</v>
       </c>
       <c r="D28" s="9">
+        <v>44074</v>
+      </c>
+      <c r="E28" s="9">
         <v>44076</v>
       </c>
-      <c r="E28" s="9">
-        <v>44078</v>
-      </c>
       <c r="F28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="47">
-        <v>0.1</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="38"/>
+        <v>16</v>
+      </c>
+      <c r="G28" s="45">
+        <v>1</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="36"/>
       <c r="AG28" s="17"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="38"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="38"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="18"/>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="30"/>
-      <c r="AU28" s="30"/>
-      <c r="AV28" s="30"/>
-      <c r="AW28" s="30"/>
-      <c r="AX28" s="17"/>
-    </row>
-    <row r="29" spans="1:50" ht="36" customHeight="1">
+      <c r="AH28" s="43"/>
+      <c r="AI28" s="43"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="43"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="54"/>
+    </row>
+    <row r="29" spans="1:42" ht="36" customHeight="1">
       <c r="A29" s="6">
         <v>25</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>52</v>
+      <c r="B29" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
       </c>
       <c r="D29" s="9">
+        <v>44074</v>
+      </c>
+      <c r="E29" s="9">
         <v>44076</v>
-      </c>
-      <c r="E29" s="9">
-        <v>44078</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="47">
-        <v>0.4</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="38"/>
+      <c r="G29" s="45">
+        <v>1</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="36"/>
       <c r="AG29" s="17"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="38"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="38"/>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="18"/>
-      <c r="AR29" s="17"/>
-      <c r="AS29" s="17"/>
-      <c r="AT29" s="17"/>
-      <c r="AU29" s="30"/>
-      <c r="AV29" s="30"/>
-      <c r="AW29" s="30"/>
-      <c r="AX29" s="17"/>
-    </row>
-    <row r="30" spans="1:50" ht="39.75" customHeight="1">
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="55"/>
+    </row>
+    <row r="30" spans="1:42" ht="39.75" customHeight="1">
       <c r="A30" s="6">
         <v>26</v>
       </c>
-      <c r="B30" s="45" t="s">
-        <v>54</v>
+      <c r="B30" s="43" t="s">
+        <v>51</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
       </c>
       <c r="D30" s="9">
+        <v>44074</v>
+      </c>
+      <c r="E30" s="9">
         <v>44076</v>
-      </c>
-      <c r="E30" s="9">
-        <v>44078</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="51">
-        <v>0</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="38"/>
-      <c r="AG30" s="38"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="38"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="38"/>
-      <c r="AP30" s="32"/>
-      <c r="AQ30" s="18"/>
-      <c r="AR30" s="17"/>
-      <c r="AS30" s="17"/>
-      <c r="AT30" s="17"/>
-      <c r="AU30" s="17"/>
-      <c r="AV30" s="30"/>
-      <c r="AW30" s="30"/>
-      <c r="AX30" s="30"/>
-    </row>
-    <row r="31" spans="1:50" ht="36.75" customHeight="1">
+      <c r="G30" s="45">
+        <v>1</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="43"/>
+      <c r="AM30" s="36"/>
+      <c r="AN30" s="43"/>
+      <c r="AO30" s="36"/>
+      <c r="AP30" s="55"/>
+    </row>
+    <row r="31" spans="1:42" ht="39.75" customHeight="1">
       <c r="A31" s="6">
         <v>27</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>56</v>
+      <c r="B31" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
       </c>
       <c r="D31" s="9">
+        <v>44074</v>
+      </c>
+      <c r="E31" s="9">
         <v>44076</v>
-      </c>
-      <c r="E31" s="9">
-        <v>44078</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="51">
-        <v>0</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="38"/>
-      <c r="AG31" s="38"/>
-      <c r="AH31" s="38"/>
-      <c r="AI31" s="38"/>
-      <c r="AJ31" s="38"/>
-      <c r="AK31" s="38"/>
-      <c r="AL31" s="38"/>
-      <c r="AM31" s="38"/>
-      <c r="AN31" s="38"/>
-      <c r="AO31" s="38"/>
-      <c r="AP31" s="17"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="17"/>
-      <c r="AS31" s="17"/>
-      <c r="AT31" s="17"/>
-      <c r="AU31" s="17"/>
-      <c r="AV31" s="17"/>
-      <c r="AW31" s="17"/>
-      <c r="AX31" s="30"/>
-    </row>
-    <row r="32" spans="1:50" ht="27.75" customHeight="1">
-      <c r="A32" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="54">
+      <c r="G31" s="45">
         <v>1</v>
       </c>
-      <c r="D32" s="23">
+      <c r="H31" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="43"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="43"/>
+      <c r="AI31" s="43"/>
+      <c r="AJ31" s="43"/>
+      <c r="AK31" s="43"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="36"/>
+      <c r="AN31" s="43"/>
+      <c r="AO31" s="36"/>
+      <c r="AP31" s="55"/>
+    </row>
+    <row r="32" spans="1:42" ht="36.75" customHeight="1">
+      <c r="A32" s="6">
+        <v>28</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
+        <v>44074</v>
+      </c>
+      <c r="E32" s="9">
         <v>44076</v>
       </c>
-      <c r="E32" s="52">
-        <v>44078</v>
-      </c>
-      <c r="F32" s="53"/>
-      <c r="G32" s="40">
-        <f>AVERAGE(G27:G31)</f>
-        <v>0.1</v>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
-      <c r="AK32" s="28"/>
-      <c r="AL32" s="28"/>
-      <c r="AM32" s="28"/>
-      <c r="AN32" s="28"/>
-      <c r="AO32" s="28"/>
-      <c r="AP32" s="28"/>
-      <c r="AQ32" s="28"/>
-      <c r="AR32" s="28"/>
-      <c r="AS32" s="28"/>
-      <c r="AT32" s="28"/>
-      <c r="AU32" s="28"/>
-      <c r="AV32" s="28"/>
-      <c r="AW32" s="28"/>
-      <c r="AX32" s="28"/>
-    </row>
-    <row r="33" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A33" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="55">
-        <f>(G12*C12+G22*C22+G26*C26+G32*C32)/(C12+C22+C26+C32)</f>
-        <v>0.96191432396251675</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" customHeight="1">
+      <c r="F32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="45">
+        <v>1</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="36"/>
+      <c r="AG32" s="36"/>
+      <c r="AH32" s="36"/>
+      <c r="AI32" s="36"/>
+      <c r="AJ32" s="36"/>
+      <c r="AK32" s="36"/>
+      <c r="AL32" s="36"/>
+      <c r="AM32" s="36"/>
+      <c r="AN32" s="36"/>
+      <c r="AO32" s="36"/>
+      <c r="AP32" s="55"/>
+    </row>
+    <row r="33" spans="1:42" ht="27.75" customHeight="1">
+      <c r="A33" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="61"/>
+      <c r="C33" s="49">
+        <v>1</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="22">
+        <v>44076</v>
+      </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="38">
+        <f>AVERAGE(G28:G32)</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="27"/>
+      <c r="AO33" s="27"/>
+      <c r="AP33" s="52"/>
+    </row>
+    <row r="34" spans="1:42" ht="41.25" customHeight="1">
+      <c r="A34" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="50">
+        <f>(G12*C12+G22*C22+G27*C27+G33*C33)/(C12+C22+C27+C33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" ht="14.25" customHeight="1">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1">
+    <row r="36" spans="1:42" ht="14.25" customHeight="1">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1">
+    <row r="37" spans="1:42" ht="14.25" customHeight="1">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1">
+    <row r="38" spans="1:42" ht="14.25" customHeight="1">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1">
+    <row r="39" spans="1:42" ht="14.25" customHeight="1">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="14.25" customHeight="1">
+    <row r="40" spans="1:42" ht="14.25" customHeight="1">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="14.25" customHeight="1">
+    <row r="41" spans="1:42" ht="14.25" customHeight="1">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="14.25" customHeight="1">
+    <row r="42" spans="1:42" ht="14.25" customHeight="1">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="14.25" customHeight="1">
+    <row r="43" spans="1:42" ht="14.25" customHeight="1">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="14.25" customHeight="1">
+    <row r="44" spans="1:42" ht="14.25" customHeight="1">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1">
+    <row r="45" spans="1:42" ht="14.25" customHeight="1">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1">
+    <row r="46" spans="1:42" ht="14.25" customHeight="1">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="14.25" customHeight="1">
+    <row r="47" spans="1:42" ht="14.25" customHeight="1">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1">
+    <row r="48" spans="1:42" ht="14.25" customHeight="1">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" ht="14.25" customHeight="1">
@@ -6181,13 +5950,16 @@
     <row r="1008" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1008" s="1"/>
     </row>
+    <row r="1009" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A1009" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
